--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID Code</t>
   </si>
@@ -40,22 +40,10 @@
     <t>Real Points</t>
   </si>
   <si>
-    <t>Sprint 1 (14-09 t/m 27-09)</t>
-  </si>
-  <si>
-    <t>Sprint 2 (28-09 t/m 11-10)</t>
-  </si>
-  <si>
-    <t>Sprint 3 (12-10 t/m 25-10)</t>
-  </si>
-  <si>
     <t>Points</t>
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>Sprint 4 (26-10 t/m 08-11)</t>
   </si>
   <si>
     <t>Concept Art</t>
@@ -82,64 +70,10 @@
     <t>Particle</t>
   </si>
   <si>
-    <t>D. Water</t>
-  </si>
-  <si>
-    <t>E. Building</t>
-  </si>
-  <si>
-    <t>F. Summons</t>
-  </si>
-  <si>
-    <t>G. Characters</t>
-  </si>
-  <si>
-    <t>H. LevelDesign</t>
-  </si>
-  <si>
-    <t>I. Weapons</t>
-  </si>
-  <si>
-    <t>J. Armor</t>
-  </si>
-  <si>
-    <t>K. Enemy</t>
-  </si>
-  <si>
-    <t>C. Objects</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>L. Road</t>
-  </si>
-  <si>
-    <t>M. Platform</t>
-  </si>
-  <si>
-    <t>N. Item</t>
-  </si>
-  <si>
-    <t>O. HUD</t>
-  </si>
-  <si>
-    <t>Sprint 5 (09-11 t/m 22-11)</t>
-  </si>
-  <si>
-    <t>Sprint 6 (23-11 t/m 06-12)</t>
-  </si>
-  <si>
-    <t>Sprint 7 (07-12 t/m 20-12)</t>
-  </si>
-  <si>
-    <t>Sprint 8 (21-12 t/m 03-01)</t>
-  </si>
-  <si>
-    <t>Sprint 9 (04-01 t/m 17-01)</t>
   </si>
   <si>
     <t>Animation</t>
@@ -148,10 +82,52 @@
     <t>P. Scripts</t>
   </si>
   <si>
-    <t>Artist</t>
+    <t>Guns | Movement | Camera | Enemy | Environment | Dialog | Jumpscares| HUD |</t>
   </si>
   <si>
-    <t>Developing</t>
+    <t>C. Weapons</t>
+  </si>
+  <si>
+    <t>Pistol | Shotgun | Knife|</t>
+  </si>
+  <si>
+    <t>Unity trees|</t>
+  </si>
+  <si>
+    <t>Ruin/mossy Rocks |  Building Bricks | Concrete | Broken Bricks |</t>
+  </si>
+  <si>
+    <t>D. Main Characters</t>
+  </si>
+  <si>
+    <t>Main Character |</t>
+  </si>
+  <si>
+    <t>E. Enemies</t>
+  </si>
+  <si>
+    <t>Humanoid | Creatures | Main Boss (Scientist) |</t>
+  </si>
+  <si>
+    <t>F. Level Design</t>
+  </si>
+  <si>
+    <t>Old Coffee Machine | Therapy Bed | Old Pill Shelf | Toys | Stuffed Animals | Clocks | Clipboard | Pencils | Papers |</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medium Paper Stack | Small Paper Stack | Large Paper Stack | Children Drawings | Plates | Cups | Chains | Old Cleaning Supplies | Booze | </t>
+  </si>
+  <si>
+    <t>Table | Chair | Paintings | Plants | CSI tape | CSI Markers | Cell Door | InfoDesk | Old Telephone | Old Hospital Bed | Old Lampshade | Old Calendar |</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Old Cupboards | Doctor Tools Blood | Old Lockers | Empty Weapon Holder | Old TV | Newspaper | Old Stand | Old Stand Supplies | Wheelchairs |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell beds | Toilets | Sink | Bath | Shower | Kitchen | Pots | Cutlery | Electric Chair | Electric Wires | Mirrors | Bookshelf | </t>
+  </si>
+  <si>
+    <t>Fluorescent Tube | Fluorescent Wires | Cardboard Boxes | Bulletin Board | Air Vents | Food Cans | Soda Cans | Garbage Bag | Building Site Light |</t>
   </si>
 </sst>
 </file>
@@ -625,46 +601,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
@@ -678,108 +654,81 @@
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="G4" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>43</v>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="G5" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -787,19 +736,22 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="G6" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
@@ -807,21 +759,24 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="G7" s="10" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -829,21 +784,22 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="G8" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>23</v>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>34</v>
       </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
@@ -851,21 +807,22 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="G9" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
       </c>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
@@ -873,21 +830,22 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="G10" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
       </c>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
@@ -895,18 +853,19 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
       </c>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -914,18 +873,19 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="H12" s="3" t="s">
-        <v>27</v>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>36</v>
       </c>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -933,18 +893,17 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
@@ -952,18 +911,17 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="H14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
@@ -971,18 +929,17 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
@@ -990,18 +947,17 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="H16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
@@ -1009,18 +965,17 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="H17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
@@ -1028,18 +983,17 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="H18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
@@ -1047,18 +1001,21 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="H19" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="I19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
@@ -1066,7 +1023,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1082,7 +1039,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1098,7 +1055,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1114,7 +1071,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1130,7 +1087,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1146,7 +1103,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1162,7 +1119,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1178,42 +1135,24 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1230,7 +1169,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1247,7 +1186,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1264,7 +1203,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1281,7 +1220,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1299,7 +1238,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1317,7 +1256,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1335,7 +1274,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -1353,7 +1292,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1371,7 +1310,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -1389,7 +1328,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1398,7 +1337,7 @@
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1407,7 +1346,7 @@
       <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -1416,651 +1355,651 @@
       <c r="I40" s="2"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -2068,7 +2007,7 @@
       <c r="E133"/>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -2076,7 +2015,7 @@
       <c r="E134"/>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -2084,7 +2023,7 @@
       <c r="E135"/>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -2092,7 +2031,7 @@
       <c r="E136"/>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -2100,7 +2039,7 @@
       <c r="E137"/>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -2108,7 +2047,7 @@
       <c r="E138"/>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -2116,7 +2055,7 @@
       <c r="E139"/>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -2124,7 +2063,7 @@
       <c r="E140"/>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -2132,7 +2071,7 @@
       <c r="E141"/>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -2140,7 +2079,7 @@
       <c r="E142"/>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -2148,7 +2087,7 @@
       <c r="E143"/>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -2156,7 +2095,7 @@
       <c r="E144"/>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -2164,7 +2103,7 @@
       <c r="E145"/>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -2172,7 +2111,7 @@
       <c r="E146"/>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -2180,7 +2119,7 @@
       <c r="E147"/>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -2188,7 +2127,7 @@
       <c r="E148"/>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -2196,7 +2135,7 @@
       <c r="E149"/>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -2204,7 +2143,7 @@
       <c r="E150"/>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -2212,7 +2151,7 @@
       <c r="E151"/>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -2220,7 +2159,7 @@
       <c r="E152"/>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -2228,7 +2167,7 @@
       <c r="E153"/>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -2236,7 +2175,7 @@
       <c r="E154"/>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -2244,924 +2183,924 @@
       <c r="E155"/>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
       <c r="E163"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
       <c r="E166"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
       <c r="E168"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
       <c r="E169"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
       <c r="E170"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
       <c r="E171"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172"/>
       <c r="E172"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
       <c r="E173"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
       <c r="E174"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
       <c r="E175"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
       <c r="E176"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
       <c r="E177"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
       <c r="E178"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180"/>
       <c r="E180"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181"/>
       <c r="E181"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
       <c r="E182"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184"/>
       <c r="E184"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185"/>
       <c r="E185"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186"/>
       <c r="E186"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187"/>
       <c r="E187"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188"/>
       <c r="E188"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189"/>
       <c r="E189"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190"/>
       <c r="E190"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191"/>
       <c r="E191"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
       <c r="D192"/>
       <c r="E192"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193"/>
       <c r="E193"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
       <c r="E194"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
       <c r="E195"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196"/>
       <c r="E196"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197"/>
       <c r="E197"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198"/>
       <c r="E198"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199"/>
       <c r="E199"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
       <c r="D200"/>
       <c r="E200"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201"/>
       <c r="E201"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202"/>
       <c r="E202"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
       <c r="E203"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204"/>
       <c r="E204"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205"/>
       <c r="E205"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206"/>
       <c r="E206"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207"/>
       <c r="E207"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208"/>
       <c r="E208"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209"/>
       <c r="E209"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210"/>
       <c r="E210"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211"/>
       <c r="E211"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212"/>
       <c r="E212"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213"/>
       <c r="E213"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214"/>
       <c r="E214"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
       <c r="E215"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216"/>
       <c r="E216"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
       <c r="E217"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
       <c r="E218"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219"/>
       <c r="E219"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220"/>
       <c r="E220"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221"/>
       <c r="E221"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222"/>
       <c r="E222"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223"/>
       <c r="E223"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224"/>
       <c r="E224"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225"/>
       <c r="E225"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
       <c r="E226"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
       <c r="E227"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228"/>
       <c r="E228"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
       <c r="E229"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
       <c r="E230"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231"/>
       <c r="E231"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232"/>
       <c r="E232"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
       <c r="E233"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234"/>
       <c r="E234"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235"/>
       <c r="E235"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236"/>
       <c r="E236"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
       <c r="E237"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238"/>
       <c r="E238"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239"/>
       <c r="E239"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240"/>
       <c r="E240"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241"/>
       <c r="E241"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242"/>
       <c r="E242"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243"/>
       <c r="E243"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244"/>
       <c r="E244"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245"/>
       <c r="E245"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246"/>
       <c r="E246"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
       <c r="E247"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248"/>
       <c r="E248"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249"/>
       <c r="E249"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
       <c r="E250"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
       <c r="E251"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252"/>
       <c r="E252"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253"/>
       <c r="E253"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254"/>
       <c r="E254"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255"/>
       <c r="E255"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
       <c r="E256"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257"/>
       <c r="E257"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
       <c r="E258"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
       <c r="E259"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>
       <c r="E260"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261"/>
       <c r="E261"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
       <c r="E262"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263"/>
       <c r="E263"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
       <c r="E264"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265"/>
       <c r="E265"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266"/>
       <c r="E266"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
       <c r="D268"/>
       <c r="E268"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
       <c r="D269"/>
       <c r="E269"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
       <c r="D270"/>
       <c r="E270"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
       <c r="D271"/>
       <c r="E271"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272"/>
       <c r="E272"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
       <c r="D273"/>
       <c r="E273"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274"/>
       <c r="E274"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
       <c r="D275"/>
       <c r="E275"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276"/>
       <c r="E276"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
       <c r="D277"/>
       <c r="E277"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
       <c r="D278"/>
       <c r="E278"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
       <c r="D279"/>
       <c r="E279"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
       <c r="D280"/>
       <c r="E280"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
       <c r="E281"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
       <c r="D282"/>
       <c r="E282"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283"/>
       <c r="E283"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284"/>
       <c r="E284"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
       <c r="D285"/>
       <c r="E285"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286"/>
       <c r="E286"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
@@ -3169,1365 +3108,1365 @@
       <c r="E287"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
       <c r="D288"/>
       <c r="E288"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
       <c r="D289"/>
       <c r="E289"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
       <c r="D290"/>
       <c r="E290"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
       <c r="D291"/>
       <c r="E291"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
       <c r="D292"/>
       <c r="E292"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
       <c r="D293"/>
       <c r="E293"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
       <c r="D294"/>
       <c r="E294"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
       <c r="D295"/>
       <c r="E295"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
       <c r="D296"/>
       <c r="E296"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
       <c r="D297"/>
       <c r="E297"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
       <c r="D298"/>
       <c r="E298"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
       <c r="D299"/>
       <c r="E299"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
       <c r="D300"/>
       <c r="E300"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
       <c r="D301"/>
       <c r="E301"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
       <c r="D302"/>
       <c r="E302"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
       <c r="D303"/>
       <c r="E303"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
       <c r="D304"/>
       <c r="E304"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
       <c r="D305"/>
       <c r="E305"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
       <c r="D306"/>
       <c r="E306"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
       <c r="D307"/>
       <c r="E307"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
       <c r="D308"/>
       <c r="E308"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
       <c r="D309"/>
       <c r="E309"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310"/>
       <c r="E310"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
       <c r="D311"/>
       <c r="E311"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312"/>
       <c r="B312"/>
       <c r="C312"/>
       <c r="D312"/>
       <c r="E312"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
       <c r="D313"/>
       <c r="E313"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314"/>
       <c r="B314"/>
       <c r="C314"/>
       <c r="D314"/>
       <c r="E314"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
       <c r="D315"/>
       <c r="E315"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316"/>
       <c r="B316"/>
       <c r="C316"/>
       <c r="D316"/>
       <c r="E316"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
       <c r="D317"/>
       <c r="E317"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318"/>
       <c r="B318"/>
       <c r="C318"/>
       <c r="D318"/>
       <c r="E318"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
       <c r="D319"/>
       <c r="E319"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320"/>
       <c r="B320"/>
       <c r="C320"/>
       <c r="D320"/>
       <c r="E320"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
       <c r="D321"/>
       <c r="E321"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322"/>
       <c r="B322"/>
       <c r="C322"/>
       <c r="D322"/>
       <c r="E322"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
       <c r="D323"/>
       <c r="E323"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324"/>
       <c r="B324"/>
       <c r="C324"/>
       <c r="D324"/>
       <c r="E324"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325"/>
       <c r="B325"/>
       <c r="C325"/>
       <c r="D325"/>
       <c r="E325"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326"/>
       <c r="B326"/>
       <c r="C326"/>
       <c r="D326"/>
       <c r="E326"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327"/>
       <c r="B327"/>
       <c r="C327"/>
       <c r="D327"/>
       <c r="E327"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328"/>
       <c r="E328"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
       <c r="D329"/>
       <c r="E329"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330"/>
       <c r="E330"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
       <c r="D331"/>
       <c r="E331"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332"/>
       <c r="E332"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333"/>
       <c r="E333"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
       <c r="D334"/>
       <c r="E334"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
       <c r="D335"/>
       <c r="E335"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336"/>
       <c r="E336"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337"/>
       <c r="E337"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338"/>
       <c r="E338"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
       <c r="D339"/>
       <c r="E339"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
       <c r="D340"/>
       <c r="E340"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341"/>
       <c r="E341"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="E342"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="E343"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="E344"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="E345"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346"/>
       <c r="E346"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347"/>
       <c r="E347"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348"/>
       <c r="E348"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349"/>
       <c r="E349"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
       <c r="D350"/>
       <c r="E350"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
       <c r="D351"/>
       <c r="E351"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
       <c r="D352"/>
       <c r="E352"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353"/>
       <c r="E353"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
       <c r="D354"/>
       <c r="E354"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
       <c r="D355"/>
       <c r="E355"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
       <c r="D356"/>
       <c r="E356"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
       <c r="D357"/>
       <c r="E357"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
       <c r="D358"/>
       <c r="E358"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
       <c r="D359"/>
       <c r="E359"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
       <c r="D360"/>
       <c r="E360"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
       <c r="D361"/>
       <c r="E361"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
       <c r="D362"/>
       <c r="E362"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
       <c r="D363"/>
       <c r="E363"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
       <c r="D364"/>
       <c r="E364"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
       <c r="D365"/>
       <c r="E365"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
       <c r="D366"/>
       <c r="E366"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
       <c r="D367"/>
       <c r="E367"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
       <c r="D368"/>
       <c r="E368"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
       <c r="D369"/>
       <c r="E369"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
       <c r="D370"/>
       <c r="E370"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
       <c r="D371"/>
       <c r="E371"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
       <c r="D372"/>
       <c r="E372"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
       <c r="E373"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
       <c r="D374"/>
       <c r="E374"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
       <c r="D375"/>
       <c r="E375"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
       <c r="D376"/>
       <c r="E376"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
       <c r="D377"/>
       <c r="E377"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
       <c r="D378"/>
       <c r="E378"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
       <c r="D379"/>
       <c r="E379"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
       <c r="E380"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
       <c r="D381"/>
       <c r="E381"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
       <c r="D382"/>
       <c r="E382"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
       <c r="D383"/>
       <c r="E383"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
       <c r="D397"/>
       <c r="E397"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398"/>
       <c r="B398"/>
       <c r="C398"/>
       <c r="D398"/>
       <c r="E398"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399"/>
       <c r="B399"/>
       <c r="C399"/>
       <c r="D399"/>
       <c r="E399"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400"/>
       <c r="B400"/>
       <c r="C400"/>
       <c r="D400"/>
       <c r="E400"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401"/>
       <c r="B401"/>
       <c r="C401"/>
       <c r="D401"/>
       <c r="E401"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
       <c r="D402"/>
       <c r="E402"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403"/>
       <c r="B403"/>
       <c r="C403"/>
       <c r="D403"/>
       <c r="E403"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404"/>
       <c r="B404"/>
       <c r="C404"/>
       <c r="D404"/>
       <c r="E404"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405"/>
       <c r="B405"/>
       <c r="C405"/>
       <c r="D405"/>
       <c r="E405"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406"/>
       <c r="B406"/>
       <c r="C406"/>
       <c r="D406"/>
       <c r="E406"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407"/>
       <c r="B407"/>
       <c r="C407"/>
       <c r="D407"/>
       <c r="E407"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408"/>
       <c r="B408"/>
       <c r="C408"/>
       <c r="D408"/>
       <c r="E408"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409"/>
       <c r="B409"/>
       <c r="C409"/>
       <c r="D409"/>
       <c r="E409"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410"/>
       <c r="B410"/>
       <c r="C410"/>
       <c r="D410"/>
       <c r="E410"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411"/>
       <c r="B411"/>
       <c r="C411"/>
       <c r="D411"/>
       <c r="E411"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412"/>
       <c r="B412"/>
       <c r="C412"/>
       <c r="D412"/>
       <c r="E412"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413"/>
       <c r="B413"/>
       <c r="C413"/>
       <c r="D413"/>
       <c r="E413"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414"/>
       <c r="B414"/>
       <c r="C414"/>
       <c r="D414"/>
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
@@ -4535,7 +4474,7 @@
       <c r="E482"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
@@ -4546,7 +4485,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
@@ -4557,7 +4496,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
@@ -4568,7 +4507,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
@@ -4579,7 +4518,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
@@ -4590,7 +4529,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
@@ -4601,7 +4540,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
@@ -4612,7 +4551,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
@@ -4623,7 +4562,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
@@ -4632,7 +4571,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
@@ -4641,7 +4580,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
@@ -4650,7 +4589,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
@@ -4659,7 +4598,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
@@ -4667,14 +4606,14 @@
       <c r="E495"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
@@ -4682,7 +4621,7 @@
       <c r="E497"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
@@ -4690,7 +4629,7 @@
       <c r="E498"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
@@ -4698,324 +4637,324 @@
       <c r="E499"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
       <c r="D518"/>
       <c r="E518"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="16"/>
     </row>
-    <row r="580" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F580"/>
     </row>
-    <row r="581" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F581"/>
     </row>
-    <row r="582" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F582"/>
     </row>
-    <row r="583" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F583"/>
     </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F584"/>
     </row>
-    <row r="585" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F585"/>
     </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F586"/>
     </row>
-    <row r="587" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F587"/>
     </row>
-    <row r="588" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F588"/>
     </row>
-    <row r="589" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F589"/>
     </row>
-    <row r="590" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F590"/>
     </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F591"/>
     </row>
-    <row r="592" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F592"/>
     </row>
-    <row r="593" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F593"/>
     </row>
   </sheetData>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="101">
   <si>
     <t>ID Code</t>
   </si>
@@ -88,9 +88,6 @@
     <t>C. Weapons</t>
   </si>
   <si>
-    <t>Pistol | Shotgun | Knife|</t>
-  </si>
-  <si>
     <t>Unity trees|</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>F. Level Design</t>
   </si>
   <si>
-    <t>Old Coffee Machine | Therapy Bed | Old Pill Shelf | Toys | Stuffed Animals | Clocks | Clipboard | Pencils | Papers |</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Medium Paper Stack | Small Paper Stack | Large Paper Stack | Children Drawings | Plates | Cups | Chains | Old Cleaning Supplies | Booze | </t>
   </si>
   <si>
@@ -128,6 +122,204 @@
   </si>
   <si>
     <t>Fluorescent Tube | Fluorescent Wires | Cardboard Boxes | Bulletin Board | Air Vents | Food Cans | Soda Cans | Garbage Bag | Building Site Light |</t>
+  </si>
+  <si>
+    <t>Old Coffee Machine | Therapy Bed | Old Pill Shelf | Toys | Stuffed Animals | Clocks | Clipboard | Pencils | Papers | Fire Extinguisher |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Washing Machine | Old Dryer | Dirty Clothes | Bloody Clothes | Washing Bags | Washing Supplies | Broken stairs | Broken Elevator | </t>
+  </si>
+  <si>
+    <t>G. Particles</t>
+  </si>
+  <si>
+    <t>Shooting | Bullet Impact | Impact Wall | Impact Enemy | KillingLightImpact | OpenDoor | CloseDoor | Vent | Reload | EnemyHit | EnemyDeath |</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WaterDrops | BloodDrops | Dust | Electric Sparks | </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A_UT_01</t>
+  </si>
+  <si>
+    <t>B_RR_01</t>
+  </si>
+  <si>
+    <t>B_RR_02</t>
+  </si>
+  <si>
+    <t>B_MR_01</t>
+  </si>
+  <si>
+    <t>B_MR_02</t>
+  </si>
+  <si>
+    <t>B_BuildB_01</t>
+  </si>
+  <si>
+    <t>B_BuildB_02</t>
+  </si>
+  <si>
+    <t>B_C_01</t>
+  </si>
+  <si>
+    <t>B_C_02</t>
+  </si>
+  <si>
+    <t>B_BrokB_02</t>
+  </si>
+  <si>
+    <t>B_BrokB_01</t>
+  </si>
+  <si>
+    <t>C_PF_01</t>
+  </si>
+  <si>
+    <t>C_S_01</t>
+  </si>
+  <si>
+    <t>C_AK_01</t>
+  </si>
+  <si>
+    <t>Pistol + Flashlight | Shotgun | AK | Cleaver |</t>
+  </si>
+  <si>
+    <t>C_C_01</t>
+  </si>
+  <si>
+    <t>D_MC_01</t>
+  </si>
+  <si>
+    <t>E_H_01</t>
+  </si>
+  <si>
+    <t>E_H_02</t>
+  </si>
+  <si>
+    <t>E_C_01</t>
+  </si>
+  <si>
+    <t>E_C_02</t>
+  </si>
+  <si>
+    <t>E_H_MB_01</t>
+  </si>
+  <si>
+    <t>F_T_01</t>
+  </si>
+  <si>
+    <t>F_C_01</t>
+  </si>
+  <si>
+    <t>F_P_01</t>
+  </si>
+  <si>
+    <t>F_Pl_01</t>
+  </si>
+  <si>
+    <t>F_CSIT_01</t>
+  </si>
+  <si>
+    <t>F_CSIM_01</t>
+  </si>
+  <si>
+    <t>F_ID_01</t>
+  </si>
+  <si>
+    <t>F_OT_01</t>
+  </si>
+  <si>
+    <t>F_CD_01</t>
+  </si>
+  <si>
+    <t>F_OHB_01</t>
+  </si>
+  <si>
+    <t>F_OL_01</t>
+  </si>
+  <si>
+    <t>F_OC_01</t>
+  </si>
+  <si>
+    <t>F_DTB_01</t>
+  </si>
+  <si>
+    <t>F_OLo_01</t>
+  </si>
+  <si>
+    <t>F_OCu_01</t>
+  </si>
+  <si>
+    <t>F_OTV_01</t>
+  </si>
+  <si>
+    <t>F_N_01</t>
+  </si>
+  <si>
+    <t>F_OS_01</t>
+  </si>
+  <si>
+    <t>F_OSS_01</t>
+  </si>
+  <si>
+    <t>F_W_01</t>
+  </si>
+  <si>
+    <t>F_CB_01</t>
+  </si>
+  <si>
+    <t>F_To_01</t>
+  </si>
+  <si>
+    <t>F_S_01</t>
+  </si>
+  <si>
+    <t>F_B_01</t>
+  </si>
+  <si>
+    <t>F_Sh_01</t>
+  </si>
+  <si>
+    <t>F_K_01</t>
+  </si>
+  <si>
+    <t>F_Cu_01</t>
+  </si>
+  <si>
+    <t>F_EC_01</t>
+  </si>
+  <si>
+    <t>F_EW_01</t>
+  </si>
+  <si>
+    <t>F_M_01</t>
+  </si>
+  <si>
+    <t>F_BS_01</t>
+  </si>
+  <si>
+    <t>F_OCM_01</t>
+  </si>
+  <si>
+    <t>F_TB_01</t>
   </si>
 </sst>
 </file>
@@ -601,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +808,7 @@
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33" style="1" customWidth="1"/>
     <col min="11" max="11" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.109375" style="1" bestFit="1" customWidth="1"/>
@@ -656,9 +848,15 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
         <v>9</v>
@@ -667,16 +865,22 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
       <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
@@ -684,16 +888,22 @@
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="15" t="s">
         <v>10</v>
       </c>
@@ -701,7 +911,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -714,17 +924,23 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -737,17 +953,23 @@
       <c r="R5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -760,19 +982,25 @@
       <c r="R6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -785,9 +1013,15 @@
       <c r="R7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="G8" s="11" t="s">
@@ -795,7 +1029,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -808,9 +1042,15 @@
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="G9" s="12" t="s">
@@ -818,7 +1058,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -831,9 +1071,15 @@
       <c r="R9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="G10" s="13" t="s">
@@ -841,7 +1087,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -854,14 +1100,20 @@
       <c r="R10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -874,14 +1126,20 @@
       <c r="R11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -894,13 +1152,21 @@
       <c r="R12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -912,13 +1178,23 @@
       <c r="R13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -930,13 +1206,21 @@
       <c r="R14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -948,9 +1232,15 @@
       <c r="R15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="H16" s="3"/>
@@ -966,9 +1256,15 @@
       <c r="R16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="H17" s="3"/>
@@ -984,9 +1280,15 @@
       <c r="R17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="H18" s="3"/>
@@ -1002,9 +1304,15 @@
       <c r="R18"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="H19" s="3" t="s">
@@ -1024,9 +1332,15 @@
       <c r="R19"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="J20"/>
@@ -1040,9 +1354,15 @@
       <c r="R20"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="J21"/>
@@ -1056,9 +1376,15 @@
       <c r="R21"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="J22"/>
@@ -1072,9 +1398,15 @@
       <c r="R22"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="J23"/>
@@ -1088,9 +1420,15 @@
       <c r="R23"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="J24"/>
@@ -1104,9 +1442,15 @@
       <c r="R24"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="J25"/>
@@ -1120,9 +1464,15 @@
       <c r="R25"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="J26"/>
@@ -1136,9 +1486,15 @@
       <c r="R26"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="I27" s="16"/>
@@ -1153,9 +1509,15 @@
       <c r="R27" s="17"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="I28" s="16"/>
@@ -1170,9 +1532,15 @@
       <c r="R28"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="I29" s="16"/>
@@ -1187,9 +1555,15 @@
       <c r="R29"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="I30" s="16"/>
@@ -1204,9 +1578,15 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="I31" s="16"/>
@@ -1221,9 +1601,15 @@
       <c r="R31"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="H32" s="16"/>
@@ -1239,9 +1625,15 @@
       <c r="R32"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="H33" s="16"/>
@@ -1257,9 +1649,15 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="H34" s="16"/>
@@ -1275,9 +1673,15 @@
       <c r="R34"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="H35" s="16"/>
@@ -1293,9 +1697,15 @@
       <c r="R35"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="H36" s="16"/>
@@ -1311,9 +1721,15 @@
       <c r="R36"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="H37" s="16"/>
@@ -1329,1347 +1745,2374 @@
       <c r="R37"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="I40" s="2"/>
       <c r="J40"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
       <c r="D41"/>
       <c r="E41"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
       <c r="D48"/>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
       <c r="D49"/>
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
       <c r="D50"/>
       <c r="E50"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
       <c r="D51"/>
       <c r="E51"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
       <c r="D52"/>
       <c r="E52"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
       <c r="D53"/>
       <c r="E53"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
       <c r="D54"/>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
       <c r="D55"/>
       <c r="E55"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
       <c r="D56"/>
       <c r="E56"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
       <c r="D58"/>
       <c r="E58"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
       <c r="D59"/>
       <c r="E59"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
       <c r="D60"/>
       <c r="E60"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
       <c r="D61"/>
       <c r="E61"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
       <c r="D62"/>
       <c r="E62"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
       <c r="D63"/>
       <c r="E63"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
       <c r="D64"/>
       <c r="E64"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>43</v>
+      </c>
       <c r="D65"/>
       <c r="E65"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
       <c r="D66"/>
       <c r="E66"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
       <c r="D67"/>
       <c r="E67"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>43</v>
+      </c>
       <c r="D68"/>
       <c r="E68"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>43</v>
+      </c>
       <c r="D69"/>
       <c r="E69"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
+      <c r="A70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
       <c r="D70"/>
       <c r="E70"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>43</v>
+      </c>
       <c r="D71"/>
       <c r="E71"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>43</v>
+      </c>
       <c r="D72"/>
       <c r="E72"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
       <c r="D73"/>
       <c r="E73"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
       <c r="D74"/>
       <c r="E74"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
       <c r="D75"/>
       <c r="E75"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
       <c r="D76"/>
       <c r="E76"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
+      <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
       <c r="D77"/>
       <c r="E77"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
       <c r="D78"/>
       <c r="E78"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
+      <c r="A79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
       <c r="D79"/>
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
+      <c r="A80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
       <c r="D80"/>
       <c r="E80"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
+      <c r="A81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
       <c r="D81"/>
       <c r="E81"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
+      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
       <c r="D82"/>
       <c r="E82"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
+      <c r="A83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
       <c r="D83"/>
       <c r="E83"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
+      <c r="A84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
       <c r="D84"/>
       <c r="E84"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
+      <c r="A85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
       <c r="D85"/>
       <c r="E85"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
+      <c r="A86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
       <c r="D86"/>
       <c r="E86"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
+      <c r="A87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
       <c r="D87"/>
       <c r="E87"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
+      <c r="A88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
       <c r="D88"/>
       <c r="E88"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
+      <c r="A89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
       <c r="D89"/>
       <c r="E89"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
+      <c r="A90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
       <c r="D90"/>
       <c r="E90"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
       <c r="D91"/>
       <c r="E91"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
+      <c r="A92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>45</v>
+      </c>
       <c r="D92"/>
       <c r="E92"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
+      <c r="A93" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>45</v>
+      </c>
       <c r="D93"/>
       <c r="E93"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
+      <c r="A94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>45</v>
+      </c>
       <c r="D94"/>
       <c r="E94"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
+      <c r="A95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>45</v>
+      </c>
       <c r="D95"/>
       <c r="E95"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
       <c r="D96"/>
       <c r="E96"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>45</v>
+      </c>
       <c r="D97"/>
       <c r="E97"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>45</v>
+      </c>
       <c r="D98"/>
       <c r="E98"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>45</v>
+      </c>
       <c r="D99"/>
       <c r="E99"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>45</v>
+      </c>
       <c r="D100"/>
       <c r="E100"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>45</v>
+      </c>
       <c r="D101"/>
       <c r="E101"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
       <c r="D102"/>
       <c r="E102"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
       <c r="D103"/>
       <c r="E103"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>45</v>
+      </c>
       <c r="D104"/>
       <c r="E104"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>45</v>
+      </c>
       <c r="D105"/>
       <c r="E105"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>45</v>
+      </c>
       <c r="D106"/>
       <c r="E106"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>73</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>45</v>
+      </c>
       <c r="D107"/>
       <c r="E107"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>45</v>
+      </c>
       <c r="D108"/>
       <c r="E108"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>45</v>
+      </c>
       <c r="D109"/>
       <c r="E109"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>45</v>
+      </c>
       <c r="D110"/>
       <c r="E110"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>45</v>
+      </c>
       <c r="D111"/>
       <c r="E111"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>45</v>
+      </c>
       <c r="D112"/>
       <c r="E112"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>45</v>
+      </c>
       <c r="D113"/>
       <c r="E113"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>45</v>
+      </c>
       <c r="D114"/>
       <c r="E114"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
       <c r="D115"/>
       <c r="E115"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>45</v>
+      </c>
       <c r="D116"/>
       <c r="E116"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>74</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>45</v>
+      </c>
       <c r="D117"/>
       <c r="E117"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>45</v>
+      </c>
       <c r="D118"/>
       <c r="E118"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
       <c r="D119"/>
       <c r="E119"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>75</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>45</v>
+      </c>
       <c r="D120"/>
       <c r="E120"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>45</v>
+      </c>
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>45</v>
+      </c>
       <c r="D122"/>
       <c r="E122"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>45</v>
+      </c>
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
+      </c>
       <c r="D124"/>
       <c r="E124"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>45</v>
+      </c>
       <c r="D125"/>
       <c r="E125"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>45</v>
+      </c>
       <c r="D126"/>
       <c r="E126"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127"/>
-      <c r="B127"/>
-      <c r="C127"/>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>45</v>
+      </c>
       <c r="D127"/>
       <c r="E127"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128"/>
-      <c r="B128"/>
-      <c r="C128"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>45</v>
+      </c>
       <c r="D128"/>
       <c r="E128"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129"/>
+      <c r="A129" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>45</v>
+      </c>
       <c r="D129"/>
       <c r="E129"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130"/>
-      <c r="B130"/>
-      <c r="C130"/>
+      <c r="A130" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
       <c r="D130"/>
       <c r="E130"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131"/>
-      <c r="B131"/>
-      <c r="C131"/>
+      <c r="A131" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>45</v>
+      </c>
       <c r="D131"/>
       <c r="E131"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132"/>
-      <c r="B132"/>
-      <c r="C132"/>
+      <c r="A132" t="s">
+        <v>82</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
       <c r="D132"/>
       <c r="E132"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133"/>
-      <c r="B133"/>
-      <c r="C133"/>
+      <c r="A133" t="s">
+        <v>82</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
       <c r="D133"/>
       <c r="E133"/>
       <c r="G133" s="14"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134"/>
-      <c r="B134"/>
-      <c r="C134"/>
+      <c r="A134" t="s">
+        <v>80</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>45</v>
+      </c>
       <c r="D134"/>
       <c r="E134"/>
       <c r="G134" s="14"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135"/>
-      <c r="B135"/>
-      <c r="C135"/>
+      <c r="A135" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>45</v>
+      </c>
       <c r="D135"/>
       <c r="E135"/>
       <c r="G135" s="14"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136"/>
-      <c r="B136"/>
-      <c r="C136"/>
+      <c r="A136" t="s">
+        <v>80</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>45</v>
+      </c>
       <c r="D136"/>
       <c r="E136"/>
       <c r="G136" s="14"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137"/>
-      <c r="B137"/>
-      <c r="C137"/>
+      <c r="A137" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
       <c r="D137"/>
       <c r="E137"/>
       <c r="G137" s="14"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
+      <c r="A138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>45</v>
+      </c>
       <c r="D138"/>
       <c r="E138"/>
       <c r="G138" s="14"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139"/>
-      <c r="B139"/>
-      <c r="C139"/>
+      <c r="A139" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>45</v>
+      </c>
       <c r="D139"/>
       <c r="E139"/>
       <c r="G139" s="14"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140"/>
-      <c r="B140"/>
-      <c r="C140"/>
+      <c r="A140" t="s">
+        <v>83</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>45</v>
+      </c>
       <c r="D140"/>
       <c r="E140"/>
       <c r="G140" s="14"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141"/>
-      <c r="B141"/>
-      <c r="C141"/>
+      <c r="A141" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
+      </c>
       <c r="D141"/>
       <c r="E141"/>
       <c r="G141" s="14"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142"/>
-      <c r="B142"/>
-      <c r="C142"/>
+      <c r="A142" t="s">
+        <v>83</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>45</v>
+      </c>
       <c r="D142"/>
       <c r="E142"/>
       <c r="G142" s="14"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143"/>
-      <c r="B143"/>
-      <c r="C143"/>
+      <c r="A143" t="s">
+        <v>83</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>45</v>
+      </c>
       <c r="D143"/>
       <c r="E143"/>
       <c r="G143" s="14"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144"/>
-      <c r="B144"/>
-      <c r="C144"/>
+      <c r="A144" t="s">
+        <v>83</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>45</v>
+      </c>
       <c r="D144"/>
       <c r="E144"/>
       <c r="G144" s="14"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145"/>
-      <c r="B145"/>
-      <c r="C145"/>
+      <c r="A145" t="s">
+        <v>83</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>45</v>
+      </c>
       <c r="D145"/>
       <c r="E145"/>
       <c r="G145" s="14"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146"/>
-      <c r="B146"/>
-      <c r="C146"/>
+      <c r="A146" t="s">
+        <v>84</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>45</v>
+      </c>
       <c r="D146"/>
       <c r="E146"/>
       <c r="G146" s="14"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147"/>
-      <c r="B147"/>
-      <c r="C147"/>
+      <c r="A147" t="s">
+        <v>84</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>45</v>
+      </c>
       <c r="D147"/>
       <c r="E147"/>
       <c r="G147" s="14"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148"/>
-      <c r="B148"/>
-      <c r="C148"/>
+      <c r="A148" t="s">
+        <v>84</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>45</v>
+      </c>
       <c r="D148"/>
       <c r="E148"/>
       <c r="G148" s="14"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149"/>
-      <c r="B149"/>
-      <c r="C149"/>
+      <c r="A149" t="s">
+        <v>85</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>45</v>
+      </c>
       <c r="D149"/>
       <c r="E149"/>
       <c r="G149" s="14"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150"/>
-      <c r="B150"/>
-      <c r="C150"/>
+      <c r="A150" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>45</v>
+      </c>
       <c r="D150"/>
       <c r="E150"/>
       <c r="G150" s="14"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151"/>
-      <c r="B151"/>
-      <c r="C151"/>
+      <c r="A151" t="s">
+        <v>85</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>45</v>
+      </c>
       <c r="D151"/>
       <c r="E151"/>
       <c r="G151" s="14"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152"/>
-      <c r="B152"/>
-      <c r="C152"/>
+      <c r="A152" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>45</v>
+      </c>
       <c r="D152"/>
       <c r="E152"/>
       <c r="G152" s="14"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153"/>
-      <c r="B153"/>
-      <c r="C153"/>
+      <c r="A153" t="s">
+        <v>86</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>45</v>
+      </c>
       <c r="D153"/>
       <c r="E153"/>
       <c r="G153" s="14"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154"/>
-      <c r="B154"/>
-      <c r="C154"/>
+      <c r="A154" t="s">
+        <v>86</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" t="s">
+        <v>45</v>
+      </c>
       <c r="D154"/>
       <c r="E154"/>
       <c r="G154" s="14"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155"/>
-      <c r="B155"/>
-      <c r="C155"/>
+      <c r="A155" t="s">
+        <v>87</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>45</v>
+      </c>
       <c r="D155"/>
       <c r="E155"/>
       <c r="G155" s="14"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156"/>
-      <c r="B156"/>
-      <c r="C156"/>
+      <c r="A156" t="s">
+        <v>87</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>45</v>
+      </c>
       <c r="D156"/>
       <c r="E156"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157"/>
-      <c r="B157"/>
-      <c r="C157"/>
+      <c r="A157" t="s">
+        <v>87</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>45</v>
+      </c>
       <c r="D157"/>
       <c r="E157"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158"/>
-      <c r="B158"/>
-      <c r="C158"/>
+      <c r="A158" t="s">
+        <v>88</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>45</v>
+      </c>
       <c r="D158"/>
       <c r="E158"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159"/>
-      <c r="B159"/>
-      <c r="C159"/>
+      <c r="A159" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>45</v>
+      </c>
       <c r="D159"/>
       <c r="E159"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160"/>
-      <c r="B160"/>
-      <c r="C160"/>
+      <c r="A160" t="s">
+        <v>88</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" t="s">
+        <v>45</v>
+      </c>
       <c r="D160"/>
       <c r="E160"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161"/>
-      <c r="B161"/>
-      <c r="C161"/>
+      <c r="A161" t="s">
+        <v>89</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>45</v>
+      </c>
       <c r="D161"/>
       <c r="E161"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162"/>
-      <c r="B162"/>
-      <c r="C162"/>
+      <c r="A162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>45</v>
+      </c>
       <c r="D162"/>
       <c r="E162"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163"/>
-      <c r="B163"/>
-      <c r="C163"/>
+      <c r="A163" t="s">
+        <v>89</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>45</v>
+      </c>
       <c r="D163"/>
       <c r="E163"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164"/>
-      <c r="B164"/>
-      <c r="C164"/>
+      <c r="A164" t="s">
+        <v>90</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>45</v>
+      </c>
       <c r="D164"/>
       <c r="E164"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165"/>
-      <c r="B165"/>
-      <c r="C165"/>
+      <c r="A165" t="s">
+        <v>90</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>45</v>
+      </c>
       <c r="D165"/>
       <c r="E165"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166"/>
-      <c r="B166"/>
-      <c r="C166"/>
+      <c r="A166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>45</v>
+      </c>
       <c r="D166"/>
       <c r="E166"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167"/>
-      <c r="B167"/>
-      <c r="C167"/>
+      <c r="A167" t="s">
+        <v>91</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>45</v>
+      </c>
       <c r="D167"/>
       <c r="E167"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168"/>
-      <c r="B168"/>
-      <c r="C168"/>
+      <c r="A168" t="s">
+        <v>91</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>45</v>
+      </c>
       <c r="D168"/>
       <c r="E168"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169"/>
-      <c r="B169"/>
-      <c r="C169"/>
+      <c r="A169" t="s">
+        <v>91</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>45</v>
+      </c>
       <c r="D169"/>
       <c r="E169"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170"/>
-      <c r="B170"/>
-      <c r="C170"/>
+      <c r="A170" t="s">
+        <v>92</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>45</v>
+      </c>
       <c r="D170"/>
       <c r="E170"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171"/>
-      <c r="B171"/>
-      <c r="C171"/>
+      <c r="A171" t="s">
+        <v>92</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>45</v>
+      </c>
       <c r="D171"/>
       <c r="E171"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172"/>
-      <c r="B172"/>
-      <c r="C172"/>
+      <c r="A172" t="s">
+        <v>92</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>45</v>
+      </c>
       <c r="D172"/>
       <c r="E172"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173"/>
-      <c r="B173"/>
-      <c r="C173"/>
+      <c r="A173" t="s">
+        <v>93</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>45</v>
+      </c>
       <c r="D173"/>
       <c r="E173"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174"/>
-      <c r="B174"/>
-      <c r="C174"/>
+      <c r="A174" t="s">
+        <v>93</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
+        <v>45</v>
+      </c>
       <c r="D174"/>
       <c r="E174"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175"/>
-      <c r="B175"/>
-      <c r="C175"/>
+      <c r="A175" t="s">
+        <v>93</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>45</v>
+      </c>
       <c r="D175"/>
       <c r="E175"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176"/>
-      <c r="B176"/>
-      <c r="C176"/>
+      <c r="A176" t="s">
+        <v>70</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>45</v>
+      </c>
       <c r="D176"/>
       <c r="E176"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177"/>
-      <c r="B177"/>
-      <c r="C177"/>
+      <c r="A177" t="s">
+        <v>70</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" t="s">
+        <v>45</v>
+      </c>
       <c r="D177"/>
       <c r="E177"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178"/>
-      <c r="B178"/>
-      <c r="C178"/>
+      <c r="A178" t="s">
+        <v>70</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" t="s">
+        <v>45</v>
+      </c>
       <c r="D178"/>
       <c r="E178"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179"/>
-      <c r="B179"/>
-      <c r="C179"/>
+      <c r="A179" t="s">
+        <v>94</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>45</v>
+      </c>
       <c r="D179"/>
       <c r="E179"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180"/>
-      <c r="B180"/>
-      <c r="C180"/>
+      <c r="A180" t="s">
+        <v>94</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>45</v>
+      </c>
       <c r="D180"/>
       <c r="E180"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181"/>
-      <c r="B181"/>
-      <c r="C181"/>
+      <c r="A181" t="s">
+        <v>94</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" t="s">
+        <v>45</v>
+      </c>
       <c r="D181"/>
       <c r="E181"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182"/>
-      <c r="B182"/>
-      <c r="C182"/>
+      <c r="A182" t="s">
+        <v>95</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>45</v>
+      </c>
       <c r="D182"/>
       <c r="E182"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183"/>
-      <c r="B183"/>
-      <c r="C183"/>
+      <c r="A183" t="s">
+        <v>95</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>45</v>
+      </c>
       <c r="D183"/>
       <c r="E183"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184"/>
-      <c r="B184"/>
-      <c r="C184"/>
+      <c r="A184" t="s">
+        <v>95</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>45</v>
+      </c>
       <c r="D184"/>
       <c r="E184"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185"/>
-      <c r="B185"/>
-      <c r="C185"/>
+      <c r="A185" t="s">
+        <v>96</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>45</v>
+      </c>
       <c r="D185"/>
       <c r="E185"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186"/>
-      <c r="B186"/>
-      <c r="C186"/>
+      <c r="A186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>45</v>
+      </c>
       <c r="D186"/>
       <c r="E186"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187"/>
-      <c r="B187"/>
-      <c r="C187"/>
+      <c r="A187" t="s">
+        <v>96</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" t="s">
+        <v>45</v>
+      </c>
       <c r="D187"/>
       <c r="E187"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188"/>
-      <c r="B188"/>
-      <c r="C188"/>
+      <c r="A188" t="s">
+        <v>97</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>45</v>
+      </c>
       <c r="D188"/>
       <c r="E188"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189"/>
-      <c r="B189"/>
-      <c r="C189"/>
+      <c r="A189" t="s">
+        <v>97</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" t="s">
+        <v>45</v>
+      </c>
       <c r="D189"/>
       <c r="E189"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190"/>
-      <c r="B190"/>
-      <c r="C190"/>
+      <c r="A190" t="s">
+        <v>97</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" t="s">
+        <v>45</v>
+      </c>
       <c r="D190"/>
       <c r="E190"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191"/>
-      <c r="B191"/>
-      <c r="C191"/>
+      <c r="A191" t="s">
+        <v>98</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>45</v>
+      </c>
       <c r="D191"/>
       <c r="E191"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192"/>
-      <c r="B192"/>
-      <c r="C192"/>
+      <c r="A192" t="s">
+        <v>98</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" t="s">
+        <v>45</v>
+      </c>
       <c r="D192"/>
       <c r="E192"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193"/>
-      <c r="B193"/>
-      <c r="C193"/>
+      <c r="A193" t="s">
+        <v>98</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>45</v>
+      </c>
       <c r="D193"/>
       <c r="E193"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194"/>
-      <c r="B194"/>
-      <c r="C194"/>
+      <c r="A194" t="s">
+        <v>99</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>45</v>
+      </c>
       <c r="D194"/>
       <c r="E194"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195"/>
-      <c r="B195"/>
-      <c r="C195"/>
+      <c r="A195" t="s">
+        <v>99</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" t="s">
+        <v>45</v>
+      </c>
       <c r="D195"/>
       <c r="E195"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196"/>
-      <c r="B196"/>
-      <c r="C196"/>
+      <c r="A196" t="s">
+        <v>99</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="s">
+        <v>45</v>
+      </c>
       <c r="D196"/>
       <c r="E196"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197"/>
-      <c r="B197"/>
-      <c r="C197"/>
+      <c r="A197" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>45</v>
+      </c>
       <c r="D197"/>
       <c r="E197"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198"/>
-      <c r="B198"/>
-      <c r="C198"/>
+      <c r="A198" t="s">
+        <v>100</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" t="s">
+        <v>45</v>
+      </c>
       <c r="D198"/>
       <c r="E198"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199"/>
-      <c r="B199"/>
-      <c r="C199"/>
+      <c r="A199" t="s">
+        <v>100</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" t="s">
+        <v>45</v>
+      </c>
       <c r="D199"/>
       <c r="E199"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200"/>
       <c r="B200"/>
-      <c r="C200"/>
+      <c r="C200" t="s">
+        <v>45</v>
+      </c>
       <c r="D200"/>
       <c r="E200"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201"/>
       <c r="B201"/>
-      <c r="C201"/>
+      <c r="C201" t="s">
+        <v>45</v>
+      </c>
       <c r="D201"/>
       <c r="E201"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202"/>
       <c r="B202"/>
-      <c r="C202"/>
+      <c r="C202" t="s">
+        <v>45</v>
+      </c>
       <c r="D202"/>
       <c r="E202"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203"/>
       <c r="B203"/>
-      <c r="C203"/>
+      <c r="C203" t="s">
+        <v>45</v>
+      </c>
       <c r="D203"/>
       <c r="E203"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204"/>
       <c r="B204"/>
-      <c r="C204"/>
+      <c r="C204" t="s">
+        <v>45</v>
+      </c>
       <c r="D204"/>
       <c r="E204"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205"/>
       <c r="B205"/>
-      <c r="C205"/>
+      <c r="C205" t="s">
+        <v>45</v>
+      </c>
       <c r="D205"/>
       <c r="E205"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206"/>
       <c r="B206"/>
-      <c r="C206"/>
+      <c r="C206" t="s">
+        <v>45</v>
+      </c>
       <c r="D206"/>
       <c r="E206"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207"/>
       <c r="B207"/>
-      <c r="C207"/>
+      <c r="C207" t="s">
+        <v>45</v>
+      </c>
       <c r="D207"/>
       <c r="E207"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208"/>
       <c r="B208"/>
-      <c r="C208"/>
+      <c r="C208" t="s">
+        <v>45</v>
+      </c>
       <c r="D208"/>
       <c r="E208"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209"/>
       <c r="B209"/>
-      <c r="C209"/>
+      <c r="C209" t="s">
+        <v>45</v>
+      </c>
       <c r="D209"/>
       <c r="E209"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210"/>
       <c r="B210"/>
-      <c r="C210"/>
+      <c r="C210" t="s">
+        <v>45</v>
+      </c>
       <c r="D210"/>
       <c r="E210"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211"/>
       <c r="B211"/>
-      <c r="C211"/>
+      <c r="C211" t="s">
+        <v>45</v>
+      </c>
       <c r="D211"/>
       <c r="E211"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212"/>
       <c r="B212"/>
-      <c r="C212"/>
+      <c r="C212" t="s">
+        <v>45</v>
+      </c>
       <c r="D212"/>
       <c r="E212"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213"/>
       <c r="B213"/>
-      <c r="C213"/>
+      <c r="C213" t="s">
+        <v>45</v>
+      </c>
       <c r="D213"/>
       <c r="E213"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214"/>
       <c r="B214"/>
-      <c r="C214"/>
+      <c r="C214" t="s">
+        <v>45</v>
+      </c>
       <c r="D214"/>
       <c r="E214"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215"/>
       <c r="B215"/>
-      <c r="C215"/>
+      <c r="C215" t="s">
+        <v>45</v>
+      </c>
       <c r="D215"/>
       <c r="E215"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216"/>
       <c r="B216"/>
-      <c r="C216"/>
+      <c r="C216" t="s">
+        <v>45</v>
+      </c>
       <c r="D216"/>
       <c r="E216"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217"/>
       <c r="B217"/>
-      <c r="C217"/>
+      <c r="C217" t="s">
+        <v>45</v>
+      </c>
       <c r="D217"/>
       <c r="E217"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218"/>
       <c r="B218"/>
-      <c r="C218"/>
+      <c r="C218" t="s">
+        <v>45</v>
+      </c>
       <c r="D218"/>
       <c r="E218"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219"/>
       <c r="B219"/>
-      <c r="C219"/>
+      <c r="C219" t="s">
+        <v>45</v>
+      </c>
       <c r="D219"/>
       <c r="E219"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220"/>
       <c r="B220"/>
-      <c r="C220"/>
+      <c r="C220" t="s">
+        <v>45</v>
+      </c>
       <c r="D220"/>
       <c r="E220"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221"/>
       <c r="B221"/>
-      <c r="C221"/>
+      <c r="C221" t="s">
+        <v>45</v>
+      </c>
       <c r="D221"/>
       <c r="E221"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222"/>
       <c r="B222"/>
-      <c r="C222"/>
+      <c r="C222" t="s">
+        <v>45</v>
+      </c>
       <c r="D222"/>
       <c r="E222"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223"/>
       <c r="B223"/>
-      <c r="C223"/>
+      <c r="C223" t="s">
+        <v>45</v>
+      </c>
       <c r="D223"/>
       <c r="E223"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224"/>
       <c r="B224"/>
-      <c r="C224"/>
+      <c r="C224" t="s">
+        <v>45</v>
+      </c>
       <c r="D224"/>
       <c r="E224"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225"/>
       <c r="B225"/>
-      <c r="C225"/>
+      <c r="C225" t="s">
+        <v>45</v>
+      </c>
       <c r="D225"/>
       <c r="E225"/>
     </row>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="159">
   <si>
     <t>ID Code</t>
   </si>
@@ -320,6 +320,180 @@
   </si>
   <si>
     <t>F_TB_01</t>
+  </si>
+  <si>
+    <t>F_OPS_01</t>
+  </si>
+  <si>
+    <t>F_Toy_01</t>
+  </si>
+  <si>
+    <t>F_SA_01</t>
+  </si>
+  <si>
+    <t>F_Cl_01</t>
+  </si>
+  <si>
+    <t>F_Cli_01</t>
+  </si>
+  <si>
+    <t>F_Pe_01</t>
+  </si>
+  <si>
+    <t>F_Pa_01</t>
+  </si>
+  <si>
+    <t>F_FE_01</t>
+  </si>
+  <si>
+    <t>F_MPS_01</t>
+  </si>
+  <si>
+    <t>F_SPS_01</t>
+  </si>
+  <si>
+    <t>F_LPS_01</t>
+  </si>
+  <si>
+    <t>F_CDr_01</t>
+  </si>
+  <si>
+    <t>F_Pla_01</t>
+  </si>
+  <si>
+    <t>F_Cup_01</t>
+  </si>
+  <si>
+    <t>F_Ch_01</t>
+  </si>
+  <si>
+    <t>F_OCS_01</t>
+  </si>
+  <si>
+    <t>F_Bo_01</t>
+  </si>
+  <si>
+    <t>F_FT_01</t>
+  </si>
+  <si>
+    <t>F_FW_01</t>
+  </si>
+  <si>
+    <t>F_CBo_01</t>
+  </si>
+  <si>
+    <t>F_BB_01</t>
+  </si>
+  <si>
+    <t>F_WB_01</t>
+  </si>
+  <si>
+    <t>F_BSt_01</t>
+  </si>
+  <si>
+    <t>F_BE_01</t>
+  </si>
+  <si>
+    <t>F_AV_01</t>
+  </si>
+  <si>
+    <t>F_FC_01</t>
+  </si>
+  <si>
+    <t>F_SC_01</t>
+  </si>
+  <si>
+    <t>F_GB_01</t>
+  </si>
+  <si>
+    <t>F_BSL_01</t>
+  </si>
+  <si>
+    <t>F_OWM_01</t>
+  </si>
+  <si>
+    <t>F_OD_01</t>
+  </si>
+  <si>
+    <t>F_DC_01</t>
+  </si>
+  <si>
+    <t>F_BC_01</t>
+  </si>
+  <si>
+    <t>G_S_01</t>
+  </si>
+  <si>
+    <t>G_BI_01</t>
+  </si>
+  <si>
+    <t>G_IW_01</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>G_IE_01</t>
+  </si>
+  <si>
+    <t>G_KLI_01</t>
+  </si>
+  <si>
+    <t>G_OD_01</t>
+  </si>
+  <si>
+    <t>G_CD_01</t>
+  </si>
+  <si>
+    <t>G_V_01</t>
+  </si>
+  <si>
+    <t>G_R_01</t>
+  </si>
+  <si>
+    <t>G_EH_01</t>
+  </si>
+  <si>
+    <t>G_ED_01</t>
+  </si>
+  <si>
+    <t>G_WD_01</t>
+  </si>
+  <si>
+    <t>G_BD_01</t>
+  </si>
+  <si>
+    <t>G_D_01</t>
+  </si>
+  <si>
+    <t>G_ES_01</t>
+  </si>
+  <si>
+    <t>H_G_01</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>H_M_01</t>
+  </si>
+  <si>
+    <t>H_C_01</t>
+  </si>
+  <si>
+    <t>H_E_01</t>
+  </si>
+  <si>
+    <t>H_En_01</t>
+  </si>
+  <si>
+    <t>H_D_01</t>
+  </si>
+  <si>
+    <t>H_J_01</t>
+  </si>
+  <si>
+    <t>H_HUD_01</t>
   </si>
 </sst>
 </file>
@@ -793,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I195" sqref="I195"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A327" sqref="A327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3883,8 +4057,12 @@
       <c r="E199"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200"/>
-      <c r="B200"/>
+      <c r="A200" t="s">
+        <v>101</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C200" t="s">
         <v>45</v>
       </c>
@@ -3892,8 +4070,12 @@
       <c r="E200"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201"/>
-      <c r="B201"/>
+      <c r="A201" t="s">
+        <v>101</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C201" t="s">
         <v>45</v>
       </c>
@@ -3901,8 +4083,12 @@
       <c r="E201"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202"/>
-      <c r="B202"/>
+      <c r="A202" t="s">
+        <v>101</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C202" t="s">
         <v>45</v>
       </c>
@@ -3910,8 +4096,12 @@
       <c r="E202"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203"/>
-      <c r="B203"/>
+      <c r="A203" t="s">
+        <v>102</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C203" t="s">
         <v>45</v>
       </c>
@@ -3919,8 +4109,12 @@
       <c r="E203"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204"/>
-      <c r="B204"/>
+      <c r="A204" t="s">
+        <v>102</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C204" t="s">
         <v>45</v>
       </c>
@@ -3928,8 +4122,12 @@
       <c r="E204"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205"/>
-      <c r="B205"/>
+      <c r="A205" t="s">
+        <v>102</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C205" t="s">
         <v>45</v>
       </c>
@@ -3937,8 +4135,12 @@
       <c r="E205"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206"/>
-      <c r="B206"/>
+      <c r="A206" t="s">
+        <v>103</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C206" t="s">
         <v>45</v>
       </c>
@@ -3946,8 +4148,12 @@
       <c r="E206"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207"/>
-      <c r="B207"/>
+      <c r="A207" t="s">
+        <v>103</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C207" t="s">
         <v>45</v>
       </c>
@@ -3955,8 +4161,12 @@
       <c r="E207"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208"/>
-      <c r="B208"/>
+      <c r="A208" t="s">
+        <v>103</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C208" t="s">
         <v>45</v>
       </c>
@@ -3964,8 +4174,12 @@
       <c r="E208"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209"/>
-      <c r="B209"/>
+      <c r="A209" t="s">
+        <v>104</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C209" t="s">
         <v>45</v>
       </c>
@@ -3973,8 +4187,12 @@
       <c r="E209"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210"/>
-      <c r="B210"/>
+      <c r="A210" t="s">
+        <v>104</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C210" t="s">
         <v>45</v>
       </c>
@@ -3982,8 +4200,12 @@
       <c r="E210"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211"/>
-      <c r="B211"/>
+      <c r="A211" t="s">
+        <v>104</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C211" t="s">
         <v>45</v>
       </c>
@@ -3991,8 +4213,12 @@
       <c r="E211"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212"/>
-      <c r="B212"/>
+      <c r="A212" t="s">
+        <v>105</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C212" t="s">
         <v>45</v>
       </c>
@@ -4000,8 +4226,12 @@
       <c r="E212"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213"/>
-      <c r="B213"/>
+      <c r="A213" t="s">
+        <v>105</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C213" t="s">
         <v>45</v>
       </c>
@@ -4009,8 +4239,12 @@
       <c r="E213"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214"/>
-      <c r="B214"/>
+      <c r="A214" t="s">
+        <v>105</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C214" t="s">
         <v>45</v>
       </c>
@@ -4018,8 +4252,12 @@
       <c r="E214"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215"/>
-      <c r="B215"/>
+      <c r="A215" t="s">
+        <v>105</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C215" t="s">
         <v>45</v>
       </c>
@@ -4027,8 +4265,12 @@
       <c r="E215"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216"/>
-      <c r="B216"/>
+      <c r="A216" t="s">
+        <v>105</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="C216" t="s">
         <v>45</v>
       </c>
@@ -4036,8 +4278,12 @@
       <c r="E216"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217"/>
-      <c r="B217"/>
+      <c r="A217" t="s">
+        <v>106</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C217" t="s">
         <v>45</v>
       </c>
@@ -4045,8 +4291,12 @@
       <c r="E217"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218"/>
-      <c r="B218"/>
+      <c r="A218" t="s">
+        <v>106</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C218" t="s">
         <v>45</v>
       </c>
@@ -4054,8 +4304,12 @@
       <c r="E218"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219"/>
-      <c r="B219"/>
+      <c r="A219" t="s">
+        <v>106</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C219" t="s">
         <v>45</v>
       </c>
@@ -4063,8 +4317,12 @@
       <c r="E219"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220"/>
-      <c r="B220"/>
+      <c r="A220" t="s">
+        <v>107</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C220" t="s">
         <v>45</v>
       </c>
@@ -4072,8 +4330,12 @@
       <c r="E220"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221"/>
-      <c r="B221"/>
+      <c r="A221" t="s">
+        <v>107</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C221" t="s">
         <v>45</v>
       </c>
@@ -4081,8 +4343,12 @@
       <c r="E221"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222"/>
-      <c r="B222"/>
+      <c r="A222" t="s">
+        <v>107</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C222" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4356,12 @@
       <c r="E222"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223"/>
-      <c r="B223"/>
+      <c r="A223" t="s">
+        <v>108</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C223" t="s">
         <v>45</v>
       </c>
@@ -4099,8 +4369,12 @@
       <c r="E223"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224"/>
-      <c r="B224"/>
+      <c r="A224" t="s">
+        <v>108</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C224" t="s">
         <v>45</v>
       </c>
@@ -4108,8 +4382,12 @@
       <c r="E224"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225"/>
-      <c r="B225"/>
+      <c r="A225" t="s">
+        <v>108</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C225" t="s">
         <v>45</v>
       </c>
@@ -4117,710 +4395,1316 @@
       <c r="E225"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226"/>
-      <c r="B226"/>
-      <c r="C226"/>
+      <c r="A226" t="s">
+        <v>110</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" t="s">
+        <v>45</v>
+      </c>
       <c r="D226"/>
       <c r="E226"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227"/>
-      <c r="B227"/>
-      <c r="C227"/>
+      <c r="A227" t="s">
+        <v>110</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>45</v>
+      </c>
       <c r="D227"/>
       <c r="E227"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228"/>
-      <c r="B228"/>
-      <c r="C228"/>
+      <c r="A228" t="s">
+        <v>110</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" t="s">
+        <v>45</v>
+      </c>
       <c r="D228"/>
       <c r="E228"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229"/>
-      <c r="B229"/>
-      <c r="C229"/>
+      <c r="A229" t="s">
+        <v>109</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" t="s">
+        <v>45</v>
+      </c>
       <c r="D229"/>
       <c r="E229"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230"/>
-      <c r="B230"/>
-      <c r="C230"/>
+      <c r="A230" t="s">
+        <v>109</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" t="s">
+        <v>45</v>
+      </c>
       <c r="D230"/>
       <c r="E230"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231"/>
-      <c r="B231"/>
-      <c r="C231"/>
+      <c r="A231" t="s">
+        <v>109</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" t="s">
+        <v>45</v>
+      </c>
       <c r="D231"/>
       <c r="E231"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232"/>
-      <c r="B232"/>
-      <c r="C232"/>
+      <c r="A232" t="s">
+        <v>111</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" t="s">
+        <v>45</v>
+      </c>
       <c r="D232"/>
       <c r="E232"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233"/>
-      <c r="B233"/>
-      <c r="C233"/>
+      <c r="A233" t="s">
+        <v>111</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" t="s">
+        <v>45</v>
+      </c>
       <c r="D233"/>
       <c r="E233"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234"/>
-      <c r="B234"/>
-      <c r="C234"/>
+      <c r="A234" t="s">
+        <v>111</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" t="s">
+        <v>45</v>
+      </c>
       <c r="D234"/>
       <c r="E234"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235"/>
-      <c r="B235"/>
-      <c r="C235"/>
+      <c r="A235" t="s">
+        <v>112</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" t="s">
+        <v>45</v>
+      </c>
       <c r="D235"/>
       <c r="E235"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236"/>
-      <c r="B236"/>
-      <c r="C236"/>
+      <c r="A236" t="s">
+        <v>112</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>45</v>
+      </c>
       <c r="D236"/>
       <c r="E236"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237"/>
-      <c r="B237"/>
-      <c r="C237"/>
+      <c r="A237" t="s">
+        <v>112</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" t="s">
+        <v>45</v>
+      </c>
       <c r="D237"/>
       <c r="E237"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238"/>
-      <c r="B238"/>
-      <c r="C238"/>
+      <c r="A238" t="s">
+        <v>113</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" t="s">
+        <v>45</v>
+      </c>
       <c r="D238"/>
       <c r="E238"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239"/>
-      <c r="B239"/>
-      <c r="C239"/>
+      <c r="A239" t="s">
+        <v>113</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" t="s">
+        <v>45</v>
+      </c>
       <c r="D239"/>
       <c r="E239"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240"/>
-      <c r="B240"/>
-      <c r="C240"/>
+      <c r="A240" t="s">
+        <v>113</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" t="s">
+        <v>45</v>
+      </c>
       <c r="D240"/>
       <c r="E240"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241"/>
-      <c r="B241"/>
-      <c r="C241"/>
+      <c r="A241" t="s">
+        <v>114</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" t="s">
+        <v>45</v>
+      </c>
       <c r="D241"/>
       <c r="E241"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242"/>
-      <c r="B242"/>
-      <c r="C242"/>
+      <c r="A242" t="s">
+        <v>114</v>
+      </c>
+      <c r="B242" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" t="s">
+        <v>45</v>
+      </c>
       <c r="D242"/>
       <c r="E242"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243"/>
-      <c r="B243"/>
-      <c r="C243"/>
+      <c r="A243" t="s">
+        <v>114</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" t="s">
+        <v>45</v>
+      </c>
       <c r="D243"/>
       <c r="E243"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244"/>
-      <c r="B244"/>
-      <c r="C244"/>
+      <c r="A244" t="s">
+        <v>115</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" t="s">
+        <v>45</v>
+      </c>
       <c r="D244"/>
       <c r="E244"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245"/>
-      <c r="B245"/>
-      <c r="C245"/>
+      <c r="A245" t="s">
+        <v>115</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>45</v>
+      </c>
       <c r="D245"/>
       <c r="E245"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246"/>
-      <c r="B246"/>
-      <c r="C246"/>
+      <c r="A246" t="s">
+        <v>115</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" t="s">
+        <v>45</v>
+      </c>
       <c r="D246"/>
       <c r="E246"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247"/>
-      <c r="B247"/>
-      <c r="C247"/>
+      <c r="A247" t="s">
+        <v>116</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" t="s">
+        <v>45</v>
+      </c>
       <c r="D247"/>
       <c r="E247"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248"/>
-      <c r="B248"/>
-      <c r="C248"/>
+      <c r="A248" t="s">
+        <v>116</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" t="s">
+        <v>45</v>
+      </c>
       <c r="D248"/>
       <c r="E248"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249"/>
-      <c r="B249"/>
-      <c r="C249"/>
+      <c r="A249" t="s">
+        <v>116</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" t="s">
+        <v>45</v>
+      </c>
       <c r="D249"/>
       <c r="E249"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250"/>
-      <c r="B250"/>
-      <c r="C250"/>
+      <c r="A250" t="s">
+        <v>117</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" t="s">
+        <v>45</v>
+      </c>
       <c r="D250"/>
       <c r="E250"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251"/>
-      <c r="B251"/>
-      <c r="C251"/>
+      <c r="A251" t="s">
+        <v>117</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" t="s">
+        <v>45</v>
+      </c>
       <c r="D251"/>
       <c r="E251"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252"/>
-      <c r="B252"/>
-      <c r="C252"/>
+      <c r="A252" t="s">
+        <v>117</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" t="s">
+        <v>45</v>
+      </c>
       <c r="D252"/>
       <c r="E252"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253"/>
-      <c r="B253"/>
-      <c r="C253"/>
+      <c r="A253" t="s">
+        <v>118</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" t="s">
+        <v>45</v>
+      </c>
       <c r="D253"/>
       <c r="E253"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254"/>
-      <c r="B254"/>
-      <c r="C254"/>
+      <c r="A254" t="s">
+        <v>118</v>
+      </c>
+      <c r="B254" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>45</v>
+      </c>
       <c r="D254"/>
       <c r="E254"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255"/>
-      <c r="B255"/>
-      <c r="C255"/>
+      <c r="A255" t="s">
+        <v>118</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" t="s">
+        <v>45</v>
+      </c>
       <c r="D255"/>
       <c r="E255"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256"/>
-      <c r="B256"/>
-      <c r="C256"/>
+      <c r="A256" t="s">
+        <v>119</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" t="s">
+        <v>45</v>
+      </c>
       <c r="D256"/>
       <c r="E256"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257"/>
-      <c r="B257"/>
-      <c r="C257"/>
+      <c r="A257" t="s">
+        <v>119</v>
+      </c>
+      <c r="B257" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>45</v>
+      </c>
       <c r="D257"/>
       <c r="E257"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258"/>
-      <c r="B258"/>
-      <c r="C258"/>
+      <c r="A258" t="s">
+        <v>119</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" t="s">
+        <v>45</v>
+      </c>
       <c r="D258"/>
       <c r="E258"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259"/>
-      <c r="B259"/>
-      <c r="C259"/>
+      <c r="A259" t="s">
+        <v>120</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" t="s">
+        <v>45</v>
+      </c>
       <c r="D259"/>
       <c r="E259"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260"/>
-      <c r="B260"/>
-      <c r="C260"/>
+      <c r="A260" t="s">
+        <v>120</v>
+      </c>
+      <c r="B260" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" t="s">
+        <v>45</v>
+      </c>
       <c r="D260"/>
       <c r="E260"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261"/>
-      <c r="B261"/>
-      <c r="C261"/>
+      <c r="A261" t="s">
+        <v>120</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" t="s">
+        <v>45</v>
+      </c>
       <c r="D261"/>
       <c r="E261"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262"/>
-      <c r="B262"/>
-      <c r="C262"/>
+      <c r="A262" t="s">
+        <v>121</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262" t="s">
+        <v>45</v>
+      </c>
       <c r="D262"/>
       <c r="E262"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263"/>
-      <c r="B263"/>
-      <c r="C263"/>
+      <c r="A263" t="s">
+        <v>121</v>
+      </c>
+      <c r="B263" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>45</v>
+      </c>
       <c r="D263"/>
       <c r="E263"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264"/>
-      <c r="B264"/>
-      <c r="C264"/>
+      <c r="A264" t="s">
+        <v>121</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" t="s">
+        <v>45</v>
+      </c>
       <c r="D264"/>
       <c r="E264"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265"/>
-      <c r="B265"/>
-      <c r="C265"/>
+      <c r="A265" t="s">
+        <v>122</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s">
+        <v>45</v>
+      </c>
       <c r="D265"/>
       <c r="E265"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266"/>
-      <c r="B266"/>
-      <c r="C266"/>
+      <c r="A266" t="s">
+        <v>122</v>
+      </c>
+      <c r="B266" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" t="s">
+        <v>45</v>
+      </c>
       <c r="D266"/>
       <c r="E266"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267"/>
-      <c r="B267"/>
-      <c r="C267"/>
+      <c r="A267" t="s">
+        <v>122</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" t="s">
+        <v>45</v>
+      </c>
       <c r="D267"/>
       <c r="E267"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268"/>
-      <c r="B268"/>
-      <c r="C268"/>
+      <c r="A268" t="s">
+        <v>123</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" t="s">
+        <v>45</v>
+      </c>
       <c r="D268"/>
       <c r="E268"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269"/>
-      <c r="B269"/>
-      <c r="C269"/>
+      <c r="A269" t="s">
+        <v>123</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269" t="s">
+        <v>45</v>
+      </c>
       <c r="D269"/>
       <c r="E269"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270"/>
-      <c r="B270"/>
-      <c r="C270"/>
+      <c r="A270" t="s">
+        <v>123</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" t="s">
+        <v>45</v>
+      </c>
       <c r="D270"/>
       <c r="E270"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271"/>
-      <c r="B271"/>
-      <c r="C271"/>
+      <c r="A271" t="s">
+        <v>124</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>45</v>
+      </c>
       <c r="D271"/>
       <c r="E271"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272"/>
-      <c r="B272"/>
-      <c r="C272"/>
+      <c r="A272" t="s">
+        <v>124</v>
+      </c>
+      <c r="B272" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" t="s">
+        <v>45</v>
+      </c>
       <c r="D272"/>
       <c r="E272"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273"/>
-      <c r="B273"/>
-      <c r="C273"/>
+      <c r="A273" t="s">
+        <v>124</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" t="s">
+        <v>45</v>
+      </c>
       <c r="D273"/>
       <c r="E273"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274"/>
-      <c r="B274"/>
-      <c r="C274"/>
+      <c r="A274" t="s">
+        <v>125</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" t="s">
+        <v>45</v>
+      </c>
       <c r="D274"/>
       <c r="E274"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275"/>
-      <c r="B275"/>
-      <c r="C275"/>
+      <c r="A275" t="s">
+        <v>125</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" t="s">
+        <v>45</v>
+      </c>
       <c r="D275"/>
       <c r="E275"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276"/>
-      <c r="B276"/>
-      <c r="C276"/>
+      <c r="A276" t="s">
+        <v>125</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C276" t="s">
+        <v>45</v>
+      </c>
       <c r="D276"/>
       <c r="E276"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277"/>
-      <c r="B277"/>
-      <c r="C277"/>
+      <c r="A277" t="s">
+        <v>125</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" t="s">
+        <v>45</v>
+      </c>
       <c r="D277"/>
       <c r="E277"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278"/>
-      <c r="B278"/>
-      <c r="C278"/>
+      <c r="A278" t="s">
+        <v>125</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" t="s">
+        <v>45</v>
+      </c>
       <c r="D278"/>
       <c r="E278"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279"/>
-      <c r="B279"/>
-      <c r="C279"/>
+      <c r="A279" t="s">
+        <v>125</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279" t="s">
+        <v>45</v>
+      </c>
       <c r="D279"/>
       <c r="E279"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280"/>
-      <c r="B280"/>
-      <c r="C280"/>
+      <c r="A280" t="s">
+        <v>126</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" t="s">
+        <v>45</v>
+      </c>
       <c r="D280"/>
       <c r="E280"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281"/>
-      <c r="B281"/>
-      <c r="C281"/>
+      <c r="A281" t="s">
+        <v>126</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" t="s">
+        <v>45</v>
+      </c>
       <c r="D281"/>
       <c r="E281"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282"/>
-      <c r="B282"/>
-      <c r="C282"/>
+      <c r="A282" t="s">
+        <v>126</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C282" t="s">
+        <v>45</v>
+      </c>
       <c r="D282"/>
       <c r="E282"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283"/>
-      <c r="B283"/>
-      <c r="C283"/>
+      <c r="A283" t="s">
+        <v>127</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" t="s">
+        <v>45</v>
+      </c>
       <c r="D283"/>
       <c r="E283"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284"/>
-      <c r="B284"/>
-      <c r="C284"/>
+      <c r="A284" t="s">
+        <v>127</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" t="s">
+        <v>45</v>
+      </c>
       <c r="D284"/>
       <c r="E284"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285"/>
-      <c r="B285"/>
-      <c r="C285"/>
+      <c r="A285" t="s">
+        <v>127</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" t="s">
+        <v>45</v>
+      </c>
       <c r="D285"/>
       <c r="E285"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286"/>
-      <c r="B286"/>
-      <c r="C286"/>
+      <c r="A286" t="s">
+        <v>128</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>45</v>
+      </c>
       <c r="D286"/>
       <c r="E286"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287"/>
-      <c r="B287"/>
-      <c r="C287"/>
+      <c r="A287" t="s">
+        <v>128</v>
+      </c>
+      <c r="B287" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287" t="s">
+        <v>45</v>
+      </c>
       <c r="D287"/>
       <c r="E287"/>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288"/>
-      <c r="B288"/>
-      <c r="C288"/>
+      <c r="A288" t="s">
+        <v>128</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288" t="s">
+        <v>45</v>
+      </c>
       <c r="D288"/>
       <c r="E288"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289"/>
-      <c r="B289"/>
-      <c r="C289"/>
+      <c r="A289" t="s">
+        <v>129</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" t="s">
+        <v>45</v>
+      </c>
       <c r="D289"/>
       <c r="E289"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290"/>
-      <c r="B290"/>
-      <c r="C290"/>
+      <c r="A290" t="s">
+        <v>129</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" t="s">
+        <v>45</v>
+      </c>
       <c r="D290"/>
       <c r="E290"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291"/>
-      <c r="B291"/>
-      <c r="C291"/>
+      <c r="A291" t="s">
+        <v>129</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C291" t="s">
+        <v>45</v>
+      </c>
       <c r="D291"/>
       <c r="E291"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292"/>
-      <c r="B292"/>
-      <c r="C292"/>
+      <c r="A292" t="s">
+        <v>130</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" t="s">
+        <v>45</v>
+      </c>
       <c r="D292"/>
       <c r="E292"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293"/>
-      <c r="B293"/>
-      <c r="C293"/>
+      <c r="A293" t="s">
+        <v>130</v>
+      </c>
+      <c r="B293" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293" t="s">
+        <v>45</v>
+      </c>
       <c r="D293"/>
       <c r="E293"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294"/>
-      <c r="B294"/>
-      <c r="C294"/>
+      <c r="A294" t="s">
+        <v>130</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294" t="s">
+        <v>45</v>
+      </c>
       <c r="D294"/>
       <c r="E294"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295"/>
-      <c r="B295"/>
-      <c r="C295"/>
+      <c r="A295" t="s">
+        <v>131</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" t="s">
+        <v>45</v>
+      </c>
       <c r="D295"/>
       <c r="E295"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296"/>
-      <c r="B296"/>
-      <c r="C296"/>
+      <c r="A296" t="s">
+        <v>131</v>
+      </c>
+      <c r="B296" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C296" t="s">
+        <v>45</v>
+      </c>
       <c r="D296"/>
       <c r="E296"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297"/>
-      <c r="B297"/>
-      <c r="C297"/>
+      <c r="A297" t="s">
+        <v>131</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" t="s">
+        <v>45</v>
+      </c>
       <c r="D297"/>
       <c r="E297"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298"/>
-      <c r="B298"/>
-      <c r="C298"/>
+      <c r="A298" t="s">
+        <v>132</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298" t="s">
+        <v>45</v>
+      </c>
       <c r="D298"/>
       <c r="E298"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299"/>
-      <c r="B299"/>
-      <c r="C299"/>
+      <c r="A299" t="s">
+        <v>132</v>
+      </c>
+      <c r="B299" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C299" t="s">
+        <v>45</v>
+      </c>
       <c r="D299"/>
       <c r="E299"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300"/>
-      <c r="B300"/>
-      <c r="C300"/>
+      <c r="A300" t="s">
+        <v>132</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C300" t="s">
+        <v>45</v>
+      </c>
       <c r="D300"/>
       <c r="E300"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301"/>
-      <c r="B301"/>
-      <c r="C301"/>
+      <c r="A301" t="s">
+        <v>133</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C301" t="s">
+        <v>45</v>
+      </c>
       <c r="D301"/>
       <c r="E301"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302"/>
-      <c r="B302"/>
-      <c r="C302"/>
+      <c r="A302" t="s">
+        <v>133</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" t="s">
+        <v>45</v>
+      </c>
       <c r="D302"/>
       <c r="E302"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303"/>
-      <c r="B303"/>
-      <c r="C303"/>
+      <c r="A303" t="s">
+        <v>133</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C303" t="s">
+        <v>45</v>
+      </c>
       <c r="D303"/>
       <c r="E303"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304"/>
-      <c r="B304"/>
-      <c r="C304"/>
+      <c r="A304" t="s">
+        <v>134</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C304" t="s">
+        <v>137</v>
+      </c>
       <c r="D304"/>
       <c r="E304"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305"/>
-      <c r="B305"/>
-      <c r="C305"/>
+      <c r="A305" t="s">
+        <v>135</v>
+      </c>
+      <c r="B305" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C305" t="s">
+        <v>137</v>
+      </c>
       <c r="D305"/>
       <c r="E305"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306"/>
-      <c r="B306"/>
-      <c r="C306"/>
+      <c r="A306" t="s">
+        <v>136</v>
+      </c>
+      <c r="B306" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C306" t="s">
+        <v>137</v>
+      </c>
       <c r="D306"/>
       <c r="E306"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307"/>
-      <c r="B307"/>
-      <c r="C307"/>
+      <c r="A307" t="s">
+        <v>138</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C307" t="s">
+        <v>137</v>
+      </c>
       <c r="D307"/>
       <c r="E307"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308"/>
-      <c r="B308"/>
-      <c r="C308"/>
+      <c r="A308" t="s">
+        <v>139</v>
+      </c>
+      <c r="B308" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C308" t="s">
+        <v>137</v>
+      </c>
       <c r="D308"/>
       <c r="E308"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309"/>
-      <c r="B309"/>
-      <c r="C309"/>
+      <c r="A309" t="s">
+        <v>140</v>
+      </c>
+      <c r="B309" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C309" t="s">
+        <v>137</v>
+      </c>
       <c r="D309"/>
       <c r="E309"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310"/>
-      <c r="B310"/>
-      <c r="C310"/>
+      <c r="A310" t="s">
+        <v>141</v>
+      </c>
+      <c r="B310" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" t="s">
+        <v>137</v>
+      </c>
       <c r="D310"/>
       <c r="E310"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311"/>
-      <c r="B311"/>
-      <c r="C311"/>
+      <c r="A311" t="s">
+        <v>142</v>
+      </c>
+      <c r="B311" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C311" t="s">
+        <v>137</v>
+      </c>
       <c r="D311"/>
       <c r="E311"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312"/>
-      <c r="B312"/>
-      <c r="C312"/>
+      <c r="A312" t="s">
+        <v>143</v>
+      </c>
+      <c r="B312" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C312" t="s">
+        <v>137</v>
+      </c>
       <c r="D312"/>
       <c r="E312"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313"/>
-      <c r="B313"/>
-      <c r="C313"/>
+      <c r="A313" t="s">
+        <v>144</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C313" t="s">
+        <v>137</v>
+      </c>
       <c r="D313"/>
       <c r="E313"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314"/>
-      <c r="B314"/>
-      <c r="C314"/>
+      <c r="A314" t="s">
+        <v>145</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C314" t="s">
+        <v>137</v>
+      </c>
       <c r="D314"/>
       <c r="E314"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315"/>
-      <c r="B315"/>
-      <c r="C315"/>
+      <c r="A315" t="s">
+        <v>146</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C315" t="s">
+        <v>137</v>
+      </c>
       <c r="D315"/>
       <c r="E315"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316"/>
-      <c r="B316"/>
-      <c r="C316"/>
+      <c r="A316" t="s">
+        <v>147</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C316" t="s">
+        <v>137</v>
+      </c>
       <c r="D316"/>
       <c r="E316"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317"/>
-      <c r="B317"/>
-      <c r="C317"/>
+      <c r="A317" t="s">
+        <v>148</v>
+      </c>
+      <c r="B317" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C317" t="s">
+        <v>137</v>
+      </c>
       <c r="D317"/>
       <c r="E317"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318"/>
-      <c r="B318"/>
-      <c r="C318"/>
+      <c r="A318" t="s">
+        <v>149</v>
+      </c>
+      <c r="B318" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C318" t="s">
+        <v>137</v>
+      </c>
       <c r="D318"/>
       <c r="E318"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319"/>
-      <c r="B319"/>
-      <c r="C319"/>
+      <c r="A319" t="s">
+        <v>150</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C319" t="s">
+        <v>151</v>
+      </c>
       <c r="D319"/>
       <c r="E319"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320"/>
-      <c r="B320"/>
-      <c r="C320"/>
+      <c r="A320" t="s">
+        <v>152</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C320" t="s">
+        <v>151</v>
+      </c>
       <c r="D320"/>
       <c r="E320"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321"/>
-      <c r="B321"/>
-      <c r="C321"/>
+      <c r="A321" t="s">
+        <v>153</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s">
+        <v>151</v>
+      </c>
       <c r="D321"/>
       <c r="E321"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322"/>
-      <c r="B322"/>
-      <c r="C322"/>
+      <c r="A322" t="s">
+        <v>154</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C322" t="s">
+        <v>151</v>
+      </c>
       <c r="D322"/>
       <c r="E322"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323"/>
-      <c r="B323"/>
-      <c r="C323"/>
+      <c r="A323" t="s">
+        <v>155</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C323" t="s">
+        <v>151</v>
+      </c>
       <c r="D323"/>
       <c r="E323"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324"/>
-      <c r="B324"/>
-      <c r="C324"/>
+      <c r="A324" t="s">
+        <v>156</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C324" t="s">
+        <v>151</v>
+      </c>
       <c r="D324"/>
       <c r="E324"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325"/>
-      <c r="B325"/>
-      <c r="C325"/>
+      <c r="A325" t="s">
+        <v>157</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C325" t="s">
+        <v>151</v>
+      </c>
       <c r="D325"/>
       <c r="E325"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326"/>
-      <c r="B326"/>
-      <c r="C326"/>
+      <c r="A326" t="s">
+        <v>158</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C326" t="s">
+        <v>151</v>
+      </c>
       <c r="D326"/>
       <c r="E326"/>
     </row>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="162">
   <si>
     <t>ID Code</t>
   </si>
@@ -82,9 +82,6 @@
     <t>P. Scripts</t>
   </si>
   <si>
-    <t>Guns | Movement | Camera | Enemy | Environment | Dialog | Jumpscares| HUD |</t>
-  </si>
-  <si>
     <t>C. Weapons</t>
   </si>
   <si>
@@ -494,6 +491,18 @@
   </si>
   <si>
     <t>H_HUD_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guns | Movement | Camera | Enemy | Environment | Dialog | Jumpscares| HUD | </t>
+  </si>
+  <si>
+    <t>H. Sounds</t>
+  </si>
+  <si>
+    <t>Gun | Movement | Enemy | Environment | Dialog | Jumpscares | HUD | Tv | Doors | LightKill | FlashlightOnOff | Reload | Switch Weapon |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of Ammo | Low on Ammo | Low on Health | Sanity | Cleaver | </t>
   </si>
 </sst>
 </file>
@@ -967,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A327" sqref="A327"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,13 +1032,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
@@ -1039,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1047,13 +1056,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>13</v>
@@ -1062,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1070,22 +1079,22 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1099,22 +1108,22 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1128,22 +1137,22 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1157,13 +1166,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -1171,10 +1180,10 @@
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1188,13 +1197,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1203,7 +1212,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1217,13 +1226,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1232,7 +1241,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1246,13 +1255,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -1261,7 +1270,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1275,19 +1284,19 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1301,19 +1310,19 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1327,19 +1336,19 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1353,21 +1362,21 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="H14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1381,19 +1390,19 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1407,18 +1416,22 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1431,18 +1444,20 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1455,13 +1470,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -1479,13 +1494,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -1493,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1507,13 +1522,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -1529,13 +1544,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1551,13 +1566,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -1573,13 +1588,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1595,13 +1610,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -1617,13 +1632,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -1639,13 +1654,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1661,13 +1676,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -1684,13 +1699,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -1707,13 +1722,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -1730,13 +1745,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -1753,13 +1768,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -1776,13 +1791,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -1800,13 +1815,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -1824,13 +1839,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -1848,13 +1863,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -1872,13 +1887,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -1896,13 +1911,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -1920,13 +1935,13 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -1935,13 +1950,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1950,13 +1965,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -1965,936 +1980,936 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D110"/>
       <c r="E110"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D111"/>
       <c r="E111"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D112"/>
       <c r="E112"/>
@@ -2902,13 +2917,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D113"/>
       <c r="E113"/>
@@ -2916,13 +2931,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D114"/>
       <c r="E114"/>
@@ -2930,247 +2945,247 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D115"/>
       <c r="E115"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D116"/>
       <c r="E116"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D117"/>
       <c r="E117"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D118"/>
       <c r="E118"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D119"/>
       <c r="E119"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D120"/>
       <c r="E120"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D121"/>
       <c r="E121"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D122"/>
       <c r="E122"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D123"/>
       <c r="E123"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D124"/>
       <c r="E124"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D125"/>
       <c r="E125"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D126"/>
       <c r="E126"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D127"/>
       <c r="E127"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D128"/>
       <c r="E128"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B129" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D129"/>
       <c r="E129"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D130"/>
       <c r="E130"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D131"/>
       <c r="E131"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B132" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D132"/>
       <c r="E132"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D133"/>
       <c r="E133"/>
@@ -3178,13 +3193,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D134"/>
       <c r="E134"/>
@@ -3192,13 +3207,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B135" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D135"/>
       <c r="E135"/>
@@ -3206,13 +3221,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D136"/>
       <c r="E136"/>
@@ -3220,13 +3235,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D137"/>
       <c r="E137"/>
@@ -3234,13 +3249,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D138"/>
       <c r="E138"/>
@@ -3248,13 +3263,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D139"/>
       <c r="E139"/>
@@ -3262,13 +3277,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D140"/>
       <c r="E140"/>
@@ -3276,13 +3291,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B141" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D141"/>
       <c r="E141"/>
@@ -3290,13 +3305,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D142"/>
       <c r="E142"/>
@@ -3304,13 +3319,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D143"/>
       <c r="E143"/>
@@ -3318,13 +3333,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D144"/>
       <c r="E144"/>
@@ -3332,13 +3347,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D145"/>
       <c r="E145"/>
@@ -3346,13 +3361,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D146"/>
       <c r="E146"/>
@@ -3360,13 +3375,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B147" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D147"/>
       <c r="E147"/>
@@ -3374,13 +3389,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D148"/>
       <c r="E148"/>
@@ -3388,13 +3403,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D149"/>
       <c r="E149"/>
@@ -3402,13 +3417,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D150"/>
       <c r="E150"/>
@@ -3416,13 +3431,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D151"/>
       <c r="E151"/>
@@ -3430,13 +3445,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D152"/>
       <c r="E152"/>
@@ -3444,13 +3459,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B153" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D153"/>
       <c r="E153"/>
@@ -3458,13 +3473,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D154"/>
       <c r="E154"/>
@@ -3472,13 +3487,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D155"/>
       <c r="E155"/>
@@ -3486,1716 +3501,1716 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B156" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D156"/>
       <c r="E156"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D157"/>
       <c r="E157"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D158"/>
       <c r="E158"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B159" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D159"/>
       <c r="E159"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D160"/>
       <c r="E160"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D161"/>
       <c r="E161"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B162" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D162"/>
       <c r="E162"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D163"/>
       <c r="E163"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D164"/>
       <c r="E164"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B165" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D165"/>
       <c r="E165"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D166"/>
       <c r="E166"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D167"/>
       <c r="E167"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B168" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D168"/>
       <c r="E168"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D169"/>
       <c r="E169"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D170"/>
       <c r="E170"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B171" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D171"/>
       <c r="E171"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D172"/>
       <c r="E172"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D173"/>
       <c r="E173"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B174" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D174"/>
       <c r="E174"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D175"/>
       <c r="E175"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D176"/>
       <c r="E176"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B177" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D177"/>
       <c r="E177"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D178"/>
       <c r="E178"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D179"/>
       <c r="E179"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B180" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D180"/>
       <c r="E180"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D181"/>
       <c r="E181"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D182"/>
       <c r="E182"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B183" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D183"/>
       <c r="E183"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D184"/>
       <c r="E184"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D185"/>
       <c r="E185"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B186" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D186"/>
       <c r="E186"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D187"/>
       <c r="E187"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D188"/>
       <c r="E188"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B189" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D189"/>
       <c r="E189"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D190"/>
       <c r="E190"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D191"/>
       <c r="E191"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B192" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D192"/>
       <c r="E192"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D193"/>
       <c r="E193"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D194"/>
       <c r="E194"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B195" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D195"/>
       <c r="E195"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D196"/>
       <c r="E196"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D197"/>
       <c r="E197"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B198" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D198"/>
       <c r="E198"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D199"/>
       <c r="E199"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D200"/>
       <c r="E200"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B201" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D201"/>
       <c r="E201"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C202" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D202"/>
       <c r="E202"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D203"/>
       <c r="E203"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B204" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D204"/>
       <c r="E204"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D205"/>
       <c r="E205"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D206"/>
       <c r="E206"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B207" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D207"/>
       <c r="E207"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D208"/>
       <c r="E208"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D209"/>
       <c r="E209"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D210"/>
       <c r="E210"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D211"/>
       <c r="E211"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D212"/>
       <c r="E212"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D213"/>
       <c r="E213"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D214"/>
       <c r="E214"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B215" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D215"/>
       <c r="E215"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D216"/>
       <c r="E216"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D217"/>
       <c r="E217"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B218" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D218"/>
       <c r="E218"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C219" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D219"/>
       <c r="E219"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D220"/>
       <c r="E220"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B221" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D221"/>
       <c r="E221"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D222"/>
       <c r="E222"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D223"/>
       <c r="E223"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B224" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D224"/>
       <c r="E224"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C225" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D225"/>
       <c r="E225"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D226"/>
       <c r="E226"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B227" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D227"/>
       <c r="E227"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D228"/>
       <c r="E228"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D229"/>
       <c r="E229"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B230" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D230"/>
       <c r="E230"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D231"/>
       <c r="E231"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D232"/>
       <c r="E232"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B233" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C233" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D233"/>
       <c r="E233"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D234"/>
       <c r="E234"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D235"/>
       <c r="E235"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B236" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D236"/>
       <c r="E236"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C237" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D237"/>
       <c r="E237"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D238"/>
       <c r="E238"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B239" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D239"/>
       <c r="E239"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D240"/>
       <c r="E240"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D241"/>
       <c r="E241"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B242" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D242"/>
       <c r="E242"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C243" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D243"/>
       <c r="E243"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D244"/>
       <c r="E244"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B245" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D245"/>
       <c r="E245"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D246"/>
       <c r="E246"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D247"/>
       <c r="E247"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B248" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C248" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D248"/>
       <c r="E248"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D249"/>
       <c r="E249"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D250"/>
       <c r="E250"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B251" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D251"/>
       <c r="E251"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D252"/>
       <c r="E252"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D253"/>
       <c r="E253"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B254" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D254"/>
       <c r="E254"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C255" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D255"/>
       <c r="E255"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D256"/>
       <c r="E256"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B257" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D257"/>
       <c r="E257"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D258"/>
       <c r="E258"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D259"/>
       <c r="E259"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B260" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D260"/>
       <c r="E260"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D261"/>
       <c r="E261"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C262" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D262"/>
       <c r="E262"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C263" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D263"/>
       <c r="E263"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C264" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D264"/>
       <c r="E264"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D265"/>
       <c r="E265"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B266" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D266"/>
       <c r="E266"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C267" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D267"/>
       <c r="E267"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C268" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D268"/>
       <c r="E268"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B269" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D269"/>
       <c r="E269"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C270" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D270"/>
       <c r="E270"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D271"/>
       <c r="E271"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B272" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D272"/>
       <c r="E272"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C273" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D273"/>
       <c r="E273"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D274"/>
       <c r="E274"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B275" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D275"/>
       <c r="E275"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C276" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D276"/>
       <c r="E276"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B277" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C277" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D277"/>
       <c r="E277"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B278" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D278"/>
       <c r="E278"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B279" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D279"/>
       <c r="E279"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D280"/>
       <c r="E280"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B281" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D281"/>
       <c r="E281"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D282"/>
       <c r="E282"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D283"/>
       <c r="E283"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B284" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D284"/>
       <c r="E284"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D285"/>
       <c r="E285"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D286"/>
       <c r="E286"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B287" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D287"/>
       <c r="E287"/>
@@ -5203,507 +5218,507 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D288"/>
       <c r="E288"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C289" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D289"/>
       <c r="E289"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B290" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D290"/>
       <c r="E290"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C291" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D291"/>
       <c r="E291"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C292" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D292"/>
       <c r="E292"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B293" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D293"/>
       <c r="E293"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C294" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D294"/>
       <c r="E294"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B295" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C295" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D295"/>
       <c r="E295"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B296" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D296"/>
       <c r="E296"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C297" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D297"/>
       <c r="E297"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C298" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D298"/>
       <c r="E298"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B299" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D299"/>
       <c r="E299"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C300" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D300"/>
       <c r="E300"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D301"/>
       <c r="E301"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B302" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D302"/>
       <c r="E302"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D303"/>
       <c r="E303"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B304" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C304" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D304"/>
       <c r="E304"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B305" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C305" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D305"/>
       <c r="E305"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B306" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C306" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D306"/>
       <c r="E306"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B307" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D307"/>
       <c r="E307"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B308" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C308" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D308"/>
       <c r="E308"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B309" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C309" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D309"/>
       <c r="E309"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B310" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C310" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D310"/>
       <c r="E310"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B311" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D311"/>
       <c r="E311"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B312" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D312"/>
       <c r="E312"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B313" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C313" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D313"/>
       <c r="E313"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B314" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D314"/>
       <c r="E314"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B315" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D315"/>
       <c r="E315"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B316" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D316"/>
       <c r="E316"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B317" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D317"/>
       <c r="E317"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B318" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C318" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D318"/>
       <c r="E318"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B319" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C319" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D319"/>
       <c r="E319"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B320" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C320" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D320"/>
       <c r="E320"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B321" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C321" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D321"/>
       <c r="E321"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B322" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C322" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D322"/>
       <c r="E322"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B323" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D323"/>
       <c r="E323"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B324" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D324"/>
       <c r="E324"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B325" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D325"/>
       <c r="E325"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D326"/>
       <c r="E326"/>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="201">
   <si>
     <t>ID Code</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Animation</t>
   </si>
   <si>
-    <t>P. Scripts</t>
-  </si>
-  <si>
     <t>C. Weapons</t>
   </si>
   <si>
@@ -472,37 +469,157 @@
     <t>H</t>
   </si>
   <si>
-    <t>H_M_01</t>
-  </si>
-  <si>
-    <t>H_C_01</t>
-  </si>
-  <si>
-    <t>H_E_01</t>
-  </si>
-  <si>
-    <t>H_En_01</t>
-  </si>
-  <si>
-    <t>H_D_01</t>
-  </si>
-  <si>
-    <t>H_J_01</t>
-  </si>
-  <si>
-    <t>H_HUD_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guns | Movement | Camera | Enemy | Environment | Dialog | Jumpscares| HUD | </t>
-  </si>
-  <si>
-    <t>H. Sounds</t>
-  </si>
-  <si>
     <t>Gun | Movement | Enemy | Environment | Dialog | Jumpscares | HUD | Tv | Doors | LightKill | FlashlightOnOff | Reload | Switch Weapon |</t>
   </si>
   <si>
     <t xml:space="preserve">Out of Ammo | Low on Ammo | Low on Health | Sanity | Cleaver | </t>
+  </si>
+  <si>
+    <t>I_G_01</t>
+  </si>
+  <si>
+    <t>I_M_01</t>
+  </si>
+  <si>
+    <t>I_E_01</t>
+  </si>
+  <si>
+    <t>I_En_01</t>
+  </si>
+  <si>
+    <t>I_D_01</t>
+  </si>
+  <si>
+    <t>I_J_01</t>
+  </si>
+  <si>
+    <t>I_HUD_01</t>
+  </si>
+  <si>
+    <t>I_TV_01</t>
+  </si>
+  <si>
+    <t>I_Do_01</t>
+  </si>
+  <si>
+    <t>I_LK_01</t>
+  </si>
+  <si>
+    <t>I_FL_01</t>
+  </si>
+  <si>
+    <t>I_R_01</t>
+  </si>
+  <si>
+    <t>I_SW_01</t>
+  </si>
+  <si>
+    <t>I_OoA_01</t>
+  </si>
+  <si>
+    <t>I_LoA_01</t>
+  </si>
+  <si>
+    <t>I_LoH_01</t>
+  </si>
+  <si>
+    <t>I_Sa_01</t>
+  </si>
+  <si>
+    <t>I_C_01</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>H. Scripts</t>
+  </si>
+  <si>
+    <t>I. Sounds</t>
+  </si>
+  <si>
+    <t>MenuManager | OptionManager | PlayerController | GunManager | GunBaseClass | GunDelegate | DamageManager | Flashlight | EnemyManager |</t>
+  </si>
+  <si>
+    <t>EnemyMovement | InspectObjects | Light Flicker | (Hallucinations) | UI Manager | DoorOpenClose | AirVent | Environment Events |</t>
+  </si>
+  <si>
+    <t>H_OM_01</t>
+  </si>
+  <si>
+    <t>H_MM_01</t>
+  </si>
+  <si>
+    <t>H_PC_01</t>
+  </si>
+  <si>
+    <t>H_GM_01</t>
+  </si>
+  <si>
+    <t>H_GBC_01</t>
+  </si>
+  <si>
+    <t>H_GD_01</t>
+  </si>
+  <si>
+    <t>H_DM_01</t>
+  </si>
+  <si>
+    <t>H_F_01</t>
+  </si>
+  <si>
+    <t>H_EM_01</t>
+  </si>
+  <si>
+    <t>H_S_01</t>
+  </si>
+  <si>
+    <t>H_VE_01</t>
+  </si>
+  <si>
+    <t>H_BE_01</t>
+  </si>
+  <si>
+    <t>H_BM_01</t>
+  </si>
+  <si>
+    <t>H_CM_01</t>
+  </si>
+  <si>
+    <t>H_SE_01</t>
+  </si>
+  <si>
+    <t>H_PE_01</t>
+  </si>
+  <si>
+    <t>H_Cu_01</t>
+  </si>
+  <si>
+    <t>H_IO_01</t>
+  </si>
+  <si>
+    <t>H_LF_01</t>
+  </si>
+  <si>
+    <t>H_H_01</t>
+  </si>
+  <si>
+    <t>H_UIM_01</t>
+  </si>
+  <si>
+    <t>H_DOC_01</t>
+  </si>
+  <si>
+    <t>H_AV_01</t>
+  </si>
+  <si>
+    <t>H_EE_01</t>
+  </si>
+  <si>
+    <t>Sanity | Gadgets | VisualEffects | BossEvents | BossManager | ClueManager | SoundEvents | ParticleEvents | Cutscenes | KeySystem |</t>
+  </si>
+  <si>
+    <t>H_KS_01</t>
   </si>
 </sst>
 </file>
@@ -976,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,13 +1149,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
@@ -1048,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1056,13 +1173,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>13</v>
@@ -1071,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1079,22 +1196,22 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1108,22 +1225,22 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1137,22 +1254,22 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1166,13 +1283,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -1180,10 +1297,10 @@
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1197,13 +1314,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1212,7 +1329,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1226,13 +1343,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1241,7 +1358,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1255,13 +1372,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -1270,7 +1387,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1284,19 +1401,19 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1310,19 +1427,19 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1336,19 +1453,19 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1362,21 +1479,21 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="H14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1390,19 +1507,19 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1416,21 +1533,21 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="H16" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1444,19 +1561,19 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1470,18 +1587,20 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1494,21 +1613,21 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="H19" s="3" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1522,19 +1641,23 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -1544,13 +1667,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1566,13 +1689,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -1588,13 +1711,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1610,13 +1733,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -1632,13 +1755,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -1654,13 +1777,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1676,13 +1799,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -1699,13 +1822,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -1722,13 +1845,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -1745,13 +1868,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -1768,13 +1891,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -1791,13 +1914,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -1815,13 +1938,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -1839,13 +1962,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -1863,13 +1986,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -1887,13 +2010,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -1911,13 +2034,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -1935,13 +2058,13 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -1950,13 +2073,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1965,13 +2088,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -1980,936 +2103,936 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D110"/>
       <c r="E110"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D111"/>
       <c r="E111"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D112"/>
       <c r="E112"/>
@@ -2917,13 +3040,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D113"/>
       <c r="E113"/>
@@ -2931,13 +3054,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D114"/>
       <c r="E114"/>
@@ -2945,247 +3068,247 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D115"/>
       <c r="E115"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D116"/>
       <c r="E116"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D117"/>
       <c r="E117"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D118"/>
       <c r="E118"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D119"/>
       <c r="E119"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D120"/>
       <c r="E120"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D121"/>
       <c r="E121"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D122"/>
       <c r="E122"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D123"/>
       <c r="E123"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D124"/>
       <c r="E124"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D125"/>
       <c r="E125"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D126"/>
       <c r="E126"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D127"/>
       <c r="E127"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D128"/>
       <c r="E128"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B129" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D129"/>
       <c r="E129"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D130"/>
       <c r="E130"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D131"/>
       <c r="E131"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B132" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D132"/>
       <c r="E132"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D133"/>
       <c r="E133"/>
@@ -3193,13 +3316,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D134"/>
       <c r="E134"/>
@@ -3207,13 +3330,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B135" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D135"/>
       <c r="E135"/>
@@ -3221,13 +3344,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D136"/>
       <c r="E136"/>
@@ -3235,13 +3358,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D137"/>
       <c r="E137"/>
@@ -3249,13 +3372,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D138"/>
       <c r="E138"/>
@@ -3263,13 +3386,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D139"/>
       <c r="E139"/>
@@ -3277,13 +3400,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D140"/>
       <c r="E140"/>
@@ -3291,13 +3414,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B141" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D141"/>
       <c r="E141"/>
@@ -3305,13 +3428,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D142"/>
       <c r="E142"/>
@@ -3319,13 +3442,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D143"/>
       <c r="E143"/>
@@ -3333,13 +3456,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D144"/>
       <c r="E144"/>
@@ -3347,13 +3470,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D145"/>
       <c r="E145"/>
@@ -3361,13 +3484,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D146"/>
       <c r="E146"/>
@@ -3375,13 +3498,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B147" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D147"/>
       <c r="E147"/>
@@ -3389,13 +3512,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D148"/>
       <c r="E148"/>
@@ -3403,13 +3526,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D149"/>
       <c r="E149"/>
@@ -3417,13 +3540,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D150"/>
       <c r="E150"/>
@@ -3431,13 +3554,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D151"/>
       <c r="E151"/>
@@ -3445,13 +3568,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D152"/>
       <c r="E152"/>
@@ -3459,13 +3582,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B153" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D153"/>
       <c r="E153"/>
@@ -3473,13 +3596,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D154"/>
       <c r="E154"/>
@@ -3487,13 +3610,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D155"/>
       <c r="E155"/>
@@ -3501,1716 +3624,1716 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B156" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D156"/>
       <c r="E156"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D157"/>
       <c r="E157"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D158"/>
       <c r="E158"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B159" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D159"/>
       <c r="E159"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D160"/>
       <c r="E160"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D161"/>
       <c r="E161"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B162" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D162"/>
       <c r="E162"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D163"/>
       <c r="E163"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D164"/>
       <c r="E164"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B165" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D165"/>
       <c r="E165"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D166"/>
       <c r="E166"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D167"/>
       <c r="E167"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B168" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D168"/>
       <c r="E168"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D169"/>
       <c r="E169"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D170"/>
       <c r="E170"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B171" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D171"/>
       <c r="E171"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D172"/>
       <c r="E172"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D173"/>
       <c r="E173"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B174" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D174"/>
       <c r="E174"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D175"/>
       <c r="E175"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D176"/>
       <c r="E176"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B177" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D177"/>
       <c r="E177"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D178"/>
       <c r="E178"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D179"/>
       <c r="E179"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B180" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D180"/>
       <c r="E180"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D181"/>
       <c r="E181"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D182"/>
       <c r="E182"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B183" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D183"/>
       <c r="E183"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D184"/>
       <c r="E184"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D185"/>
       <c r="E185"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B186" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D186"/>
       <c r="E186"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D187"/>
       <c r="E187"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D188"/>
       <c r="E188"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B189" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D189"/>
       <c r="E189"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D190"/>
       <c r="E190"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D191"/>
       <c r="E191"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B192" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D192"/>
       <c r="E192"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D193"/>
       <c r="E193"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D194"/>
       <c r="E194"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B195" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D195"/>
       <c r="E195"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D196"/>
       <c r="E196"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D197"/>
       <c r="E197"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B198" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D198"/>
       <c r="E198"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D199"/>
       <c r="E199"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D200"/>
       <c r="E200"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B201" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D201"/>
       <c r="E201"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C202" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D202"/>
       <c r="E202"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D203"/>
       <c r="E203"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B204" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D204"/>
       <c r="E204"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D205"/>
       <c r="E205"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D206"/>
       <c r="E206"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B207" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D207"/>
       <c r="E207"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D208"/>
       <c r="E208"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D209"/>
       <c r="E209"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D210"/>
       <c r="E210"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D211"/>
       <c r="E211"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D212"/>
       <c r="E212"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D213"/>
       <c r="E213"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D214"/>
       <c r="E214"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B215" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D215"/>
       <c r="E215"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D216"/>
       <c r="E216"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D217"/>
       <c r="E217"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B218" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D218"/>
       <c r="E218"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C219" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D219"/>
       <c r="E219"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D220"/>
       <c r="E220"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B221" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D221"/>
       <c r="E221"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C222" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D222"/>
       <c r="E222"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D223"/>
       <c r="E223"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B224" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D224"/>
       <c r="E224"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C225" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D225"/>
       <c r="E225"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D226"/>
       <c r="E226"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B227" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D227"/>
       <c r="E227"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D228"/>
       <c r="E228"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D229"/>
       <c r="E229"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B230" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D230"/>
       <c r="E230"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D231"/>
       <c r="E231"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D232"/>
       <c r="E232"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B233" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C233" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D233"/>
       <c r="E233"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D234"/>
       <c r="E234"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D235"/>
       <c r="E235"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B236" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D236"/>
       <c r="E236"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C237" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D237"/>
       <c r="E237"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D238"/>
       <c r="E238"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B239" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D239"/>
       <c r="E239"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D240"/>
       <c r="E240"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D241"/>
       <c r="E241"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B242" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D242"/>
       <c r="E242"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C243" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D243"/>
       <c r="E243"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D244"/>
       <c r="E244"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B245" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D245"/>
       <c r="E245"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D246"/>
       <c r="E246"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D247"/>
       <c r="E247"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B248" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C248" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D248"/>
       <c r="E248"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D249"/>
       <c r="E249"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D250"/>
       <c r="E250"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B251" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D251"/>
       <c r="E251"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C252" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D252"/>
       <c r="E252"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D253"/>
       <c r="E253"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B254" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D254"/>
       <c r="E254"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C255" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D255"/>
       <c r="E255"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D256"/>
       <c r="E256"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B257" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D257"/>
       <c r="E257"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D258"/>
       <c r="E258"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D259"/>
       <c r="E259"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B260" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D260"/>
       <c r="E260"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D261"/>
       <c r="E261"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C262" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D262"/>
       <c r="E262"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C263" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D263"/>
       <c r="E263"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C264" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D264"/>
       <c r="E264"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D265"/>
       <c r="E265"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B266" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D266"/>
       <c r="E266"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C267" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D267"/>
       <c r="E267"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C268" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D268"/>
       <c r="E268"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B269" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D269"/>
       <c r="E269"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C270" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D270"/>
       <c r="E270"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D271"/>
       <c r="E271"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B272" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D272"/>
       <c r="E272"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C273" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D273"/>
       <c r="E273"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D274"/>
       <c r="E274"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B275" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D275"/>
       <c r="E275"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C276" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D276"/>
       <c r="E276"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B277" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C277" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D277"/>
       <c r="E277"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B278" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D278"/>
       <c r="E278"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B279" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D279"/>
       <c r="E279"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D280"/>
       <c r="E280"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B281" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D281"/>
       <c r="E281"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C282" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D282"/>
       <c r="E282"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D283"/>
       <c r="E283"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B284" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D284"/>
       <c r="E284"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D285"/>
       <c r="E285"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D286"/>
       <c r="E286"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B287" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D287"/>
       <c r="E287"/>
@@ -5218,760 +5341,976 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D288"/>
       <c r="E288"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C289" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D289"/>
       <c r="E289"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B290" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D290"/>
       <c r="E290"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C291" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D291"/>
       <c r="E291"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C292" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D292"/>
       <c r="E292"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B293" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D293"/>
       <c r="E293"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C294" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D294"/>
       <c r="E294"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B295" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C295" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D295"/>
       <c r="E295"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B296" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D296"/>
       <c r="E296"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D297"/>
       <c r="E297"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C298" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D298"/>
       <c r="E298"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B299" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D299"/>
       <c r="E299"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C300" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D300"/>
       <c r="E300"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D301"/>
       <c r="E301"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B302" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D302"/>
       <c r="E302"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D303"/>
       <c r="E303"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B304" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C304" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D304"/>
       <c r="E304"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B305" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C305" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D305"/>
       <c r="E305"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B306" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C306" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D306"/>
       <c r="E306"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B307" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D307"/>
       <c r="E307"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B308" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C308" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D308"/>
       <c r="E308"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B309" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C309" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D309"/>
       <c r="E309"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B310" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C310" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D310"/>
       <c r="E310"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B311" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D311"/>
       <c r="E311"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B312" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D312"/>
       <c r="E312"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B313" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C313" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D313"/>
       <c r="E313"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B314" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D314"/>
       <c r="E314"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B315" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D315"/>
       <c r="E315"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B316" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D316"/>
       <c r="E316"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B317" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D317"/>
       <c r="E317"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B318" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C318" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D318"/>
       <c r="E318"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B319" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C319" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D319"/>
       <c r="E319"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B320" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C320" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D320"/>
       <c r="E320"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="B321" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C321" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D321"/>
       <c r="E321"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B322" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C322" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D322"/>
       <c r="E322"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B323" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D323"/>
       <c r="E323"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B324" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D324"/>
       <c r="E324"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B325" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D325"/>
       <c r="E325"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D326"/>
       <c r="E326"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327"/>
-      <c r="B327"/>
-      <c r="C327"/>
+      <c r="A327" t="s">
+        <v>183</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C327" t="s">
+        <v>149</v>
+      </c>
       <c r="D327"/>
       <c r="E327"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328"/>
-      <c r="B328"/>
-      <c r="C328"/>
+      <c r="A328" t="s">
+        <v>184</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C328" t="s">
+        <v>149</v>
+      </c>
       <c r="D328"/>
       <c r="E328"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329"/>
-      <c r="B329"/>
-      <c r="C329"/>
+      <c r="A329" t="s">
+        <v>148</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C329" t="s">
+        <v>149</v>
+      </c>
       <c r="D329"/>
       <c r="E329"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330"/>
-      <c r="B330"/>
-      <c r="C330"/>
+      <c r="A330" t="s">
+        <v>185</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C330" t="s">
+        <v>149</v>
+      </c>
       <c r="D330"/>
       <c r="E330"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331"/>
-      <c r="B331"/>
-      <c r="C331"/>
+      <c r="A331" t="s">
+        <v>186</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331" t="s">
+        <v>149</v>
+      </c>
       <c r="D331"/>
       <c r="E331"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332"/>
-      <c r="B332"/>
-      <c r="C332"/>
+      <c r="A332" t="s">
+        <v>187</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C332" t="s">
+        <v>149</v>
+      </c>
       <c r="D332"/>
       <c r="E332"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333"/>
-      <c r="B333"/>
-      <c r="C333"/>
+      <c r="A333" t="s">
+        <v>188</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C333" t="s">
+        <v>149</v>
+      </c>
       <c r="D333"/>
       <c r="E333"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334"/>
-      <c r="B334"/>
-      <c r="C334"/>
+      <c r="A334" t="s">
+        <v>189</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C334" t="s">
+        <v>149</v>
+      </c>
       <c r="D334"/>
       <c r="E334"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335"/>
-      <c r="B335"/>
-      <c r="C335"/>
+      <c r="A335" t="s">
+        <v>190</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" t="s">
+        <v>149</v>
+      </c>
       <c r="D335"/>
       <c r="E335"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336"/>
-      <c r="B336"/>
-      <c r="C336"/>
+      <c r="A336" t="s">
+        <v>191</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C336" t="s">
+        <v>149</v>
+      </c>
       <c r="D336"/>
       <c r="E336"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337"/>
-      <c r="B337"/>
-      <c r="C337"/>
+      <c r="A337" t="s">
+        <v>192</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C337" t="s">
+        <v>149</v>
+      </c>
       <c r="D337"/>
       <c r="E337"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338"/>
-      <c r="B338"/>
-      <c r="C338"/>
+      <c r="A338" t="s">
+        <v>193</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C338" t="s">
+        <v>149</v>
+      </c>
       <c r="D338"/>
       <c r="E338"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339"/>
-      <c r="B339"/>
-      <c r="C339"/>
+      <c r="A339" t="s">
+        <v>194</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339" t="s">
+        <v>149</v>
+      </c>
       <c r="D339"/>
       <c r="E339"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340"/>
-      <c r="B340"/>
-      <c r="C340"/>
+      <c r="A340" t="s">
+        <v>195</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" t="s">
+        <v>149</v>
+      </c>
       <c r="D340"/>
       <c r="E340"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341"/>
-      <c r="B341"/>
-      <c r="C341"/>
+      <c r="A341" t="s">
+        <v>196</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" t="s">
+        <v>149</v>
+      </c>
       <c r="D341"/>
       <c r="E341"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342"/>
-      <c r="B342"/>
-      <c r="C342"/>
+      <c r="A342" t="s">
+        <v>197</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" t="s">
+        <v>149</v>
+      </c>
       <c r="D342"/>
       <c r="E342"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343"/>
-      <c r="B343"/>
-      <c r="C343"/>
+      <c r="A343" t="s">
+        <v>198</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C343" t="s">
+        <v>149</v>
+      </c>
       <c r="D343"/>
       <c r="E343"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344"/>
-      <c r="B344"/>
-      <c r="C344"/>
+      <c r="A344" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C344" t="s">
+        <v>149</v>
+      </c>
       <c r="D344"/>
       <c r="E344"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345"/>
-      <c r="B345"/>
-      <c r="C345"/>
+      <c r="A345" t="s">
+        <v>152</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" t="s">
+        <v>170</v>
+      </c>
       <c r="D345"/>
       <c r="E345"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346"/>
-      <c r="B346"/>
-      <c r="C346"/>
+      <c r="A346" t="s">
+        <v>153</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" t="s">
+        <v>170</v>
+      </c>
       <c r="D346"/>
       <c r="E346"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347"/>
-      <c r="B347"/>
-      <c r="C347"/>
+      <c r="A347" t="s">
+        <v>154</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C347" t="s">
+        <v>170</v>
+      </c>
       <c r="D347"/>
       <c r="E347"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348"/>
-      <c r="B348"/>
-      <c r="C348"/>
+      <c r="A348" t="s">
+        <v>155</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" t="s">
+        <v>170</v>
+      </c>
       <c r="D348"/>
       <c r="E348"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349"/>
-      <c r="B349"/>
-      <c r="C349"/>
+      <c r="A349" t="s">
+        <v>156</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" t="s">
+        <v>170</v>
+      </c>
       <c r="D349"/>
       <c r="E349"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350"/>
-      <c r="B350"/>
-      <c r="C350"/>
+      <c r="A350" t="s">
+        <v>157</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C350" t="s">
+        <v>170</v>
+      </c>
       <c r="D350"/>
       <c r="E350"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351"/>
-      <c r="B351"/>
-      <c r="C351"/>
+      <c r="A351" t="s">
+        <v>158</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351" t="s">
+        <v>170</v>
+      </c>
       <c r="D351"/>
       <c r="E351"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352"/>
-      <c r="B352"/>
-      <c r="C352"/>
+      <c r="A352" t="s">
+        <v>159</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" t="s">
+        <v>170</v>
+      </c>
       <c r="D352"/>
       <c r="E352"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353"/>
-      <c r="B353"/>
-      <c r="C353"/>
+      <c r="A353" t="s">
+        <v>160</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" t="s">
+        <v>170</v>
+      </c>
       <c r="D353"/>
       <c r="E353"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354"/>
-      <c r="B354"/>
-      <c r="C354"/>
+      <c r="A354" t="s">
+        <v>161</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" t="s">
+        <v>170</v>
+      </c>
       <c r="D354"/>
       <c r="E354"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355"/>
-      <c r="B355"/>
-      <c r="C355"/>
+      <c r="A355" t="s">
+        <v>162</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" t="s">
+        <v>170</v>
+      </c>
       <c r="D355"/>
       <c r="E355"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356"/>
-      <c r="B356"/>
-      <c r="C356"/>
+      <c r="A356" t="s">
+        <v>163</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C356" t="s">
+        <v>170</v>
+      </c>
       <c r="D356"/>
       <c r="E356"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357"/>
-      <c r="B357"/>
-      <c r="C357"/>
+      <c r="A357" t="s">
+        <v>164</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" t="s">
+        <v>170</v>
+      </c>
       <c r="D357"/>
       <c r="E357"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358"/>
-      <c r="B358"/>
-      <c r="C358"/>
+      <c r="A358" t="s">
+        <v>165</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C358" t="s">
+        <v>170</v>
+      </c>
       <c r="D358"/>
       <c r="E358"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359"/>
-      <c r="B359"/>
-      <c r="C359"/>
+      <c r="A359" t="s">
+        <v>166</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" t="s">
+        <v>170</v>
+      </c>
       <c r="D359"/>
       <c r="E359"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360"/>
-      <c r="B360"/>
-      <c r="C360"/>
+      <c r="A360" t="s">
+        <v>167</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C360" t="s">
+        <v>170</v>
+      </c>
       <c r="D360"/>
       <c r="E360"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361"/>
-      <c r="B361"/>
-      <c r="C361"/>
+      <c r="A361" t="s">
+        <v>168</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C361" t="s">
+        <v>170</v>
+      </c>
       <c r="D361"/>
       <c r="E361"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362"/>
-      <c r="B362"/>
-      <c r="C362"/>
+      <c r="A362" t="s">
+        <v>169</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C362" t="s">
+        <v>170</v>
+      </c>
       <c r="D362"/>
       <c r="E362"/>
     </row>
@@ -6214,128 +6553,74 @@
       <c r="E396"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A397"/>
-      <c r="B397"/>
-      <c r="C397"/>
       <c r="D397"/>
       <c r="E397"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A398"/>
-      <c r="B398"/>
-      <c r="C398"/>
       <c r="D398"/>
       <c r="E398"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A399"/>
-      <c r="B399"/>
-      <c r="C399"/>
       <c r="D399"/>
       <c r="E399"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A400"/>
-      <c r="B400"/>
-      <c r="C400"/>
       <c r="D400"/>
       <c r="E400"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A401"/>
-      <c r="B401"/>
-      <c r="C401"/>
       <c r="D401"/>
       <c r="E401"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A402"/>
-      <c r="B402"/>
-      <c r="C402"/>
       <c r="D402"/>
       <c r="E402"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A403"/>
-      <c r="B403"/>
-      <c r="C403"/>
       <c r="D403"/>
       <c r="E403"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A404"/>
-      <c r="B404"/>
-      <c r="C404"/>
       <c r="D404"/>
       <c r="E404"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A405"/>
-      <c r="B405"/>
-      <c r="C405"/>
       <c r="D405"/>
       <c r="E405"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A406"/>
-      <c r="B406"/>
-      <c r="C406"/>
       <c r="D406"/>
       <c r="E406"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A407"/>
-      <c r="B407"/>
-      <c r="C407"/>
       <c r="D407"/>
       <c r="E407"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A408"/>
-      <c r="B408"/>
-      <c r="C408"/>
       <c r="D408"/>
       <c r="E408"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A409"/>
-      <c r="B409"/>
-      <c r="C409"/>
       <c r="D409"/>
       <c r="E409"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A410"/>
-      <c r="B410"/>
-      <c r="C410"/>
       <c r="D410"/>
       <c r="E410"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A411"/>
-      <c r="B411"/>
-      <c r="C411"/>
       <c r="D411"/>
       <c r="E411"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A412"/>
-      <c r="B412"/>
-      <c r="C412"/>
       <c r="D412"/>
       <c r="E412"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A413"/>
-      <c r="B413"/>
-      <c r="C413"/>
       <c r="D413"/>
       <c r="E413"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A414"/>
-      <c r="B414"/>
-      <c r="C414"/>
       <c r="D414"/>
       <c r="E414"/>
     </row>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="204">
   <si>
     <t>ID Code</t>
   </si>
@@ -620,6 +620,15 @@
   </si>
   <si>
     <t>H_KS_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercom | Puzzles | </t>
+  </si>
+  <si>
+    <t>H_Int_01</t>
+  </si>
+  <si>
+    <t>H_P_01</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1623,11 +1632,9 @@
       </c>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="H19" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1651,9 +1658,11 @@
       </c>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="I20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1677,9 +1686,13 @@
       </c>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
@@ -6081,34 +6094,34 @@
       <c r="E344"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>152</v>
-      </c>
-      <c r="B345" s="12" t="s">
-        <v>12</v>
+      <c r="A345" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D345"/>
       <c r="E345"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>153</v>
-      </c>
-      <c r="B346" s="12" t="s">
-        <v>12</v>
+      <c r="A346" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D346"/>
       <c r="E346"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B347" s="12" t="s">
         <v>12</v>
@@ -6121,7 +6134,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B348" s="12" t="s">
         <v>12</v>
@@ -6134,7 +6147,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B349" s="12" t="s">
         <v>12</v>
@@ -6147,7 +6160,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B350" s="12" t="s">
         <v>12</v>
@@ -6160,7 +6173,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B351" s="12" t="s">
         <v>12</v>
@@ -6173,7 +6186,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B352" s="12" t="s">
         <v>12</v>
@@ -6186,7 +6199,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B353" s="12" t="s">
         <v>12</v>
@@ -6199,7 +6212,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B354" s="12" t="s">
         <v>12</v>
@@ -6212,7 +6225,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B355" s="12" t="s">
         <v>12</v>
@@ -6225,7 +6238,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B356" s="12" t="s">
         <v>12</v>
@@ -6238,7 +6251,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B357" s="12" t="s">
         <v>12</v>
@@ -6251,7 +6264,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B358" s="12" t="s">
         <v>12</v>
@@ -6264,7 +6277,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B359" s="12" t="s">
         <v>12</v>
@@ -6277,7 +6290,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B360" s="12" t="s">
         <v>12</v>
@@ -6290,7 +6303,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B361" s="12" t="s">
         <v>12</v>
@@ -6303,7 +6316,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B362" s="12" t="s">
         <v>12</v>
@@ -6315,16 +6328,28 @@
       <c r="E362"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363"/>
-      <c r="B363"/>
-      <c r="C363"/>
+      <c r="A363" t="s">
+        <v>168</v>
+      </c>
+      <c r="B363" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C363" t="s">
+        <v>170</v>
+      </c>
       <c r="D363"/>
       <c r="E363"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364"/>
-      <c r="B364"/>
-      <c r="C364"/>
+      <c r="A364" t="s">
+        <v>169</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C364" t="s">
+        <v>170</v>
+      </c>
       <c r="D364"/>
       <c r="E364"/>
     </row>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,6 +787,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1102,32 +1105,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A347" sqref="A347"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1180,7 +1183,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1203,7 +1206,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1232,7 +1235,7 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1261,7 +1264,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1290,7 +1293,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>39</v>
       </c>
       <c r="D7"/>
-      <c r="E7"/>
+      <c r="E7" s="1"/>
       <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1324,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>39</v>
       </c>
       <c r="D8"/>
-      <c r="E8"/>
+      <c r="E8" s="1"/>
       <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1350,7 +1353,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>39</v>
       </c>
       <c r="D9"/>
-      <c r="E9"/>
+      <c r="E9" s="1"/>
       <c r="G9" s="12" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1382,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>39</v>
       </c>
       <c r="D10"/>
-      <c r="E10"/>
+      <c r="E10" s="1"/>
       <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
@@ -1408,7 +1411,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>39</v>
       </c>
       <c r="D11"/>
-      <c r="E11"/>
+      <c r="E11" s="1"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
         <v>28</v>
@@ -1434,7 +1437,7 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>39</v>
       </c>
       <c r="D12"/>
-      <c r="E12"/>
+      <c r="E12" s="1"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
         <v>32</v>
@@ -1460,7 +1463,7 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>39</v>
       </c>
       <c r="D13"/>
-      <c r="E13"/>
+      <c r="E13" s="1"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
         <v>34</v>
@@ -1486,7 +1489,7 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>39</v>
       </c>
       <c r="D14"/>
-      <c r="E14"/>
+      <c r="E14" s="1"/>
       <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1514,7 +1517,7 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>39</v>
       </c>
       <c r="D15"/>
-      <c r="E15"/>
+      <c r="E15" s="1"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
         <v>37</v>
@@ -1540,7 +1543,7 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="D16"/>
-      <c r="E16"/>
+      <c r="E16" s="1"/>
       <c r="H16" s="3" t="s">
         <v>171</v>
       </c>
@@ -1568,7 +1571,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>39</v>
       </c>
       <c r="D17"/>
-      <c r="E17"/>
+      <c r="E17" s="1"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
         <v>174</v>
@@ -1594,7 +1597,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>39</v>
       </c>
       <c r="D18"/>
-      <c r="E18"/>
+      <c r="E18" s="1"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
         <v>199</v>
@@ -1620,7 +1623,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>39</v>
       </c>
       <c r="D19"/>
-      <c r="E19"/>
+      <c r="E19" s="1"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
         <v>201</v>
@@ -1646,7 +1649,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>39</v>
       </c>
       <c r="D20"/>
-      <c r="E20"/>
+      <c r="E20" s="1"/>
       <c r="H20" s="3" t="s">
         <v>172</v>
       </c>
@@ -1674,7 +1677,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>39</v>
       </c>
       <c r="D21"/>
-      <c r="E21"/>
+      <c r="E21" s="1"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
         <v>151</v>
@@ -1700,7 +1703,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>39</v>
       </c>
       <c r="D22"/>
-      <c r="E22"/>
+      <c r="E22" s="1"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -1722,7 +1725,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>39</v>
       </c>
       <c r="D23"/>
-      <c r="E23"/>
+      <c r="E23" s="1"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -1744,7 +1747,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>39</v>
       </c>
       <c r="D24"/>
-      <c r="E24"/>
+      <c r="E24" s="1"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -1766,7 +1769,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>39</v>
       </c>
       <c r="D25"/>
-      <c r="E25"/>
+      <c r="E25" s="1"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -1788,7 +1791,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>39</v>
       </c>
       <c r="D26"/>
-      <c r="E26"/>
+      <c r="E26" s="1"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -1810,7 +1813,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>39</v>
       </c>
       <c r="D27"/>
-      <c r="E27"/>
+      <c r="E27" s="1"/>
       <c r="I27" s="16"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -1833,7 +1836,7 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>39</v>
       </c>
       <c r="D28"/>
-      <c r="E28"/>
+      <c r="E28" s="1"/>
       <c r="I28" s="16"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -1856,7 +1859,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>39</v>
       </c>
       <c r="D29"/>
-      <c r="E29"/>
+      <c r="E29" s="1"/>
       <c r="I29" s="16"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -1879,7 +1882,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>39</v>
       </c>
       <c r="D30"/>
-      <c r="E30"/>
+      <c r="E30" s="1"/>
       <c r="I30" s="16"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -1902,7 +1905,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>39</v>
       </c>
       <c r="D31"/>
-      <c r="E31"/>
+      <c r="E31" s="1"/>
       <c r="I31" s="16"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -1925,7 +1928,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1936,7 +1939,7 @@
         <v>39</v>
       </c>
       <c r="D32"/>
-      <c r="E32"/>
+      <c r="E32" s="1"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32"/>
@@ -1949,7 +1952,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>40</v>
       </c>
       <c r="D33"/>
-      <c r="E33"/>
+      <c r="E33" s="1"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33"/>
@@ -1973,7 +1976,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>40</v>
       </c>
       <c r="D34"/>
-      <c r="E34"/>
+      <c r="E34" s="1"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34"/>
@@ -1997,7 +2000,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>40</v>
       </c>
       <c r="D35"/>
-      <c r="E35"/>
+      <c r="E35" s="1"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35"/>
@@ -2021,7 +2024,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>40</v>
       </c>
       <c r="D36"/>
-      <c r="E36"/>
+      <c r="E36" s="1"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36"/>
@@ -2045,7 +2048,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="D37"/>
-      <c r="E37"/>
+      <c r="E37" s="1"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37"/>
@@ -2069,7 +2072,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2080,11 +2083,13 @@
         <v>40</v>
       </c>
       <c r="D38"/>
-      <c r="E38"/>
+      <c r="E38" s="1">
+        <v>7</v>
+      </c>
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2095,11 +2100,13 @@
         <v>40</v>
       </c>
       <c r="D39"/>
-      <c r="E39"/>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
       <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2110,11 +2117,13 @@
         <v>40</v>
       </c>
       <c r="D40"/>
-      <c r="E40"/>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2125,9 +2134,9 @@
         <v>40</v>
       </c>
       <c r="D41"/>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2138,9 +2147,9 @@
         <v>40</v>
       </c>
       <c r="D42"/>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2151,9 +2160,9 @@
         <v>40</v>
       </c>
       <c r="D43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -2164,9 +2173,9 @@
         <v>40</v>
       </c>
       <c r="D44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2177,9 +2186,9 @@
         <v>40</v>
       </c>
       <c r="D45"/>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2190,9 +2199,11 @@
         <v>40</v>
       </c>
       <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E46" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2203,9 +2214,11 @@
         <v>40</v>
       </c>
       <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2216,9 +2229,11 @@
         <v>40</v>
       </c>
       <c r="D48"/>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2229,9 +2244,9 @@
         <v>40</v>
       </c>
       <c r="D49"/>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2242,9 +2257,9 @@
         <v>40</v>
       </c>
       <c r="D50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2255,9 +2270,9 @@
         <v>40</v>
       </c>
       <c r="D51"/>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2268,9 +2283,9 @@
         <v>40</v>
       </c>
       <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2281,9 +2296,9 @@
         <v>40</v>
       </c>
       <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2294,9 +2309,11 @@
         <v>40</v>
       </c>
       <c r="D54"/>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2307,9 +2324,11 @@
         <v>40</v>
       </c>
       <c r="D55"/>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2320,9 +2339,11 @@
         <v>40</v>
       </c>
       <c r="D56"/>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2333,9 +2354,9 @@
         <v>40</v>
       </c>
       <c r="D57"/>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2346,9 +2367,9 @@
         <v>40</v>
       </c>
       <c r="D58"/>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2359,9 +2380,9 @@
         <v>40</v>
       </c>
       <c r="D59"/>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2372,9 +2393,9 @@
         <v>40</v>
       </c>
       <c r="D60"/>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2385,9 +2406,9 @@
         <v>40</v>
       </c>
       <c r="D61"/>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2398,9 +2419,11 @@
         <v>40</v>
       </c>
       <c r="D62"/>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E62" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2411,9 +2434,11 @@
         <v>40</v>
       </c>
       <c r="D63"/>
-      <c r="E63"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2424,9 +2449,11 @@
         <v>40</v>
       </c>
       <c r="D64"/>
-      <c r="E64"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2437,9 +2464,9 @@
         <v>41</v>
       </c>
       <c r="D65"/>
-      <c r="E65"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -2450,9 +2477,9 @@
         <v>41</v>
       </c>
       <c r="D66"/>
-      <c r="E66"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -2463,9 +2490,9 @@
         <v>41</v>
       </c>
       <c r="D67"/>
-      <c r="E67"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -2476,9 +2503,9 @@
         <v>41</v>
       </c>
       <c r="D68"/>
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -2489,9 +2516,9 @@
         <v>41</v>
       </c>
       <c r="D69"/>
-      <c r="E69"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -2502,9 +2529,11 @@
         <v>41</v>
       </c>
       <c r="D70"/>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2544,11 @@
         <v>41</v>
       </c>
       <c r="D71"/>
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -2528,9 +2559,11 @@
         <v>41</v>
       </c>
       <c r="D72"/>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -2541,9 +2574,9 @@
         <v>42</v>
       </c>
       <c r="D73"/>
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -2554,9 +2587,9 @@
         <v>42</v>
       </c>
       <c r="D74"/>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -2567,9 +2600,9 @@
         <v>42</v>
       </c>
       <c r="D75"/>
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>61</v>
       </c>
@@ -2580,9 +2613,9 @@
         <v>42</v>
       </c>
       <c r="D76"/>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -2593,9 +2626,9 @@
         <v>42</v>
       </c>
       <c r="D77"/>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -2606,9 +2639,11 @@
         <v>42</v>
       </c>
       <c r="D78"/>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -2619,9 +2654,11 @@
         <v>42</v>
       </c>
       <c r="D79"/>
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -2632,9 +2669,11 @@
         <v>42</v>
       </c>
       <c r="D80"/>
-      <c r="E80"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -2645,9 +2684,9 @@
         <v>42</v>
       </c>
       <c r="D81"/>
-      <c r="E81"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -2658,9 +2697,9 @@
         <v>42</v>
       </c>
       <c r="D82"/>
-      <c r="E82"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -2671,9 +2710,9 @@
         <v>42</v>
       </c>
       <c r="D83"/>
-      <c r="E83"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>63</v>
       </c>
@@ -2684,9 +2723,9 @@
         <v>42</v>
       </c>
       <c r="D84"/>
-      <c r="E84"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>63</v>
       </c>
@@ -2697,9 +2736,9 @@
         <v>42</v>
       </c>
       <c r="D85"/>
-      <c r="E85"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>63</v>
       </c>
@@ -2710,9 +2749,9 @@
         <v>42</v>
       </c>
       <c r="D86"/>
-      <c r="E86"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>63</v>
       </c>
@@ -2723,9 +2762,9 @@
         <v>42</v>
       </c>
       <c r="D87"/>
-      <c r="E87"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>63</v>
       </c>
@@ -2736,9 +2775,11 @@
         <v>42</v>
       </c>
       <c r="D88"/>
-      <c r="E88"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E88" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>63</v>
       </c>
@@ -2749,9 +2790,11 @@
         <v>42</v>
       </c>
       <c r="D89"/>
-      <c r="E89"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -2762,9 +2805,11 @@
         <v>42</v>
       </c>
       <c r="D90"/>
-      <c r="E90"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>64</v>
       </c>
@@ -2775,9 +2820,9 @@
         <v>42</v>
       </c>
       <c r="D91"/>
-      <c r="E91"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -2788,9 +2833,9 @@
         <v>43</v>
       </c>
       <c r="D92"/>
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -2801,9 +2846,9 @@
         <v>43</v>
       </c>
       <c r="D93"/>
-      <c r="E93"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -2814,9 +2859,9 @@
         <v>43</v>
       </c>
       <c r="D94"/>
-      <c r="E94"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -2827,9 +2872,9 @@
         <v>43</v>
       </c>
       <c r="D95"/>
-      <c r="E95"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -2840,9 +2885,9 @@
         <v>43</v>
       </c>
       <c r="D96"/>
-      <c r="E96"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -2853,9 +2898,9 @@
         <v>43</v>
       </c>
       <c r="D97"/>
-      <c r="E97"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>68</v>
       </c>
@@ -2866,9 +2911,9 @@
         <v>43</v>
       </c>
       <c r="D98"/>
-      <c r="E98"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -2879,9 +2924,9 @@
         <v>43</v>
       </c>
       <c r="D99"/>
-      <c r="E99"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>68</v>
       </c>
@@ -2892,9 +2937,9 @@
         <v>43</v>
       </c>
       <c r="D100"/>
-      <c r="E100"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>69</v>
       </c>
@@ -2905,9 +2950,9 @@
         <v>43</v>
       </c>
       <c r="D101"/>
-      <c r="E101"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>69</v>
       </c>
@@ -2918,9 +2963,9 @@
         <v>43</v>
       </c>
       <c r="D102"/>
-      <c r="E102"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -2931,9 +2976,9 @@
         <v>43</v>
       </c>
       <c r="D103"/>
-      <c r="E103"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -2944,9 +2989,9 @@
         <v>43</v>
       </c>
       <c r="D104"/>
-      <c r="E104"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>70</v>
       </c>
@@ -2957,9 +3002,9 @@
         <v>43</v>
       </c>
       <c r="D105"/>
-      <c r="E105"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -2970,9 +3015,9 @@
         <v>43</v>
       </c>
       <c r="D106"/>
-      <c r="E106"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>71</v>
       </c>
@@ -2983,9 +3028,9 @@
         <v>43</v>
       </c>
       <c r="D107"/>
-      <c r="E107"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>71</v>
       </c>
@@ -2996,9 +3041,9 @@
         <v>43</v>
       </c>
       <c r="D108"/>
-      <c r="E108"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>71</v>
       </c>
@@ -3009,9 +3054,9 @@
         <v>43</v>
       </c>
       <c r="D109"/>
-      <c r="E109"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>74</v>
       </c>
@@ -3022,9 +3067,9 @@
         <v>43</v>
       </c>
       <c r="D110"/>
-      <c r="E110"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>74</v>
       </c>
@@ -3035,9 +3080,9 @@
         <v>43</v>
       </c>
       <c r="D111"/>
-      <c r="E111"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>74</v>
       </c>
@@ -3048,10 +3093,10 @@
         <v>43</v>
       </c>
       <c r="D112"/>
-      <c r="E112"/>
+      <c r="E112" s="1"/>
       <c r="F112"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>74</v>
       </c>
@@ -3062,10 +3107,12 @@
         <v>43</v>
       </c>
       <c r="D113"/>
-      <c r="E113"/>
+      <c r="E113" s="1">
+        <v>2</v>
+      </c>
       <c r="F113"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>74</v>
       </c>
@@ -3076,10 +3123,12 @@
         <v>43</v>
       </c>
       <c r="D114"/>
-      <c r="E114"/>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
       <c r="F114"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>74</v>
       </c>
@@ -3090,9 +3139,11 @@
         <v>43</v>
       </c>
       <c r="D115"/>
-      <c r="E115"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>72</v>
       </c>
@@ -3103,9 +3154,9 @@
         <v>43</v>
       </c>
       <c r="D116"/>
-      <c r="E116"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>72</v>
       </c>
@@ -3116,9 +3167,9 @@
         <v>43</v>
       </c>
       <c r="D117"/>
-      <c r="E117"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -3129,9 +3180,9 @@
         <v>43</v>
       </c>
       <c r="D118"/>
-      <c r="E118"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>73</v>
       </c>
@@ -3142,9 +3193,9 @@
         <v>43</v>
       </c>
       <c r="D119"/>
-      <c r="E119"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>73</v>
       </c>
@@ -3155,9 +3206,9 @@
         <v>43</v>
       </c>
       <c r="D120"/>
-      <c r="E120"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3219,9 @@
         <v>43</v>
       </c>
       <c r="D121"/>
-      <c r="E121"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>75</v>
       </c>
@@ -3181,9 +3232,9 @@
         <v>43</v>
       </c>
       <c r="D122"/>
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>75</v>
       </c>
@@ -3194,9 +3245,9 @@
         <v>43</v>
       </c>
       <c r="D123"/>
-      <c r="E123"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>75</v>
       </c>
@@ -3207,9 +3258,9 @@
         <v>43</v>
       </c>
       <c r="D124"/>
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -3220,9 +3271,9 @@
         <v>43</v>
       </c>
       <c r="D125"/>
-      <c r="E125"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>76</v>
       </c>
@@ -3233,9 +3284,9 @@
         <v>43</v>
       </c>
       <c r="D126"/>
-      <c r="E126"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>76</v>
       </c>
@@ -3246,9 +3297,9 @@
         <v>43</v>
       </c>
       <c r="D127"/>
-      <c r="E127"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>77</v>
       </c>
@@ -3259,9 +3310,9 @@
         <v>43</v>
       </c>
       <c r="D128"/>
-      <c r="E128"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -3272,9 +3323,9 @@
         <v>43</v>
       </c>
       <c r="D129"/>
-      <c r="E129"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -3285,9 +3336,9 @@
         <v>43</v>
       </c>
       <c r="D130"/>
-      <c r="E130"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>80</v>
       </c>
@@ -3298,9 +3349,9 @@
         <v>43</v>
       </c>
       <c r="D131"/>
-      <c r="E131"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>80</v>
       </c>
@@ -3311,9 +3362,9 @@
         <v>43</v>
       </c>
       <c r="D132"/>
-      <c r="E132"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -3324,10 +3375,10 @@
         <v>43</v>
       </c>
       <c r="D133"/>
-      <c r="E133"/>
+      <c r="E133" s="1"/>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>78</v>
       </c>
@@ -3338,10 +3389,10 @@
         <v>43</v>
       </c>
       <c r="D134"/>
-      <c r="E134"/>
+      <c r="E134" s="1"/>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>78</v>
       </c>
@@ -3352,10 +3403,10 @@
         <v>43</v>
       </c>
       <c r="D135"/>
-      <c r="E135"/>
+      <c r="E135" s="1"/>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>78</v>
       </c>
@@ -3366,10 +3417,10 @@
         <v>43</v>
       </c>
       <c r="D136"/>
-      <c r="E136"/>
+      <c r="E136" s="1"/>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>79</v>
       </c>
@@ -3380,10 +3431,10 @@
         <v>43</v>
       </c>
       <c r="D137"/>
-      <c r="E137"/>
+      <c r="E137" s="1"/>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>79</v>
       </c>
@@ -3394,10 +3445,10 @@
         <v>43</v>
       </c>
       <c r="D138"/>
-      <c r="E138"/>
+      <c r="E138" s="1"/>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -3408,10 +3459,10 @@
         <v>43</v>
       </c>
       <c r="D139"/>
-      <c r="E139"/>
+      <c r="E139" s="1"/>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -3422,10 +3473,10 @@
         <v>43</v>
       </c>
       <c r="D140"/>
-      <c r="E140"/>
+      <c r="E140" s="1"/>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>81</v>
       </c>
@@ -3436,10 +3487,10 @@
         <v>43</v>
       </c>
       <c r="D141"/>
-      <c r="E141"/>
+      <c r="E141" s="1"/>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>81</v>
       </c>
@@ -3450,10 +3501,10 @@
         <v>43</v>
       </c>
       <c r="D142"/>
-      <c r="E142"/>
+      <c r="E142" s="1"/>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>81</v>
       </c>
@@ -3464,10 +3515,12 @@
         <v>43</v>
       </c>
       <c r="D143"/>
-      <c r="E143"/>
+      <c r="E143" s="1">
+        <v>2</v>
+      </c>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>81</v>
       </c>
@@ -3478,10 +3531,12 @@
         <v>43</v>
       </c>
       <c r="D144"/>
-      <c r="E144"/>
+      <c r="E144" s="1">
+        <v>2</v>
+      </c>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>81</v>
       </c>
@@ -3492,10 +3547,12 @@
         <v>43</v>
       </c>
       <c r="D145"/>
-      <c r="E145"/>
+      <c r="E145" s="1">
+        <v>2</v>
+      </c>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>82</v>
       </c>
@@ -3506,10 +3563,10 @@
         <v>43</v>
       </c>
       <c r="D146"/>
-      <c r="E146"/>
+      <c r="E146" s="1"/>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>82</v>
       </c>
@@ -3520,10 +3577,10 @@
         <v>43</v>
       </c>
       <c r="D147"/>
-      <c r="E147"/>
+      <c r="E147" s="1"/>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>82</v>
       </c>
@@ -3534,10 +3591,10 @@
         <v>43</v>
       </c>
       <c r="D148"/>
-      <c r="E148"/>
+      <c r="E148" s="1"/>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>83</v>
       </c>
@@ -3548,10 +3605,10 @@
         <v>43</v>
       </c>
       <c r="D149"/>
-      <c r="E149"/>
+      <c r="E149" s="1"/>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>83</v>
       </c>
@@ -3562,10 +3619,10 @@
         <v>43</v>
       </c>
       <c r="D150"/>
-      <c r="E150"/>
+      <c r="E150" s="1"/>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>83</v>
       </c>
@@ -3576,10 +3633,10 @@
         <v>43</v>
       </c>
       <c r="D151"/>
-      <c r="E151"/>
+      <c r="E151" s="1"/>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>84</v>
       </c>
@@ -3590,10 +3647,10 @@
         <v>43</v>
       </c>
       <c r="D152"/>
-      <c r="E152"/>
+      <c r="E152" s="1"/>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>84</v>
       </c>
@@ -3604,10 +3661,10 @@
         <v>43</v>
       </c>
       <c r="D153"/>
-      <c r="E153"/>
+      <c r="E153" s="1"/>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>84</v>
       </c>
@@ -3618,10 +3675,10 @@
         <v>43</v>
       </c>
       <c r="D154"/>
-      <c r="E154"/>
+      <c r="E154" s="1"/>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>85</v>
       </c>
@@ -3632,10 +3689,10 @@
         <v>43</v>
       </c>
       <c r="D155"/>
-      <c r="E155"/>
+      <c r="E155" s="1"/>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>85</v>
       </c>
@@ -3646,9 +3703,9 @@
         <v>43</v>
       </c>
       <c r="D156"/>
-      <c r="E156"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>85</v>
       </c>
@@ -3659,9 +3716,9 @@
         <v>43</v>
       </c>
       <c r="D157"/>
-      <c r="E157"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>86</v>
       </c>
@@ -3672,9 +3729,9 @@
         <v>43</v>
       </c>
       <c r="D158"/>
-      <c r="E158"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>86</v>
       </c>
@@ -3685,9 +3742,9 @@
         <v>43</v>
       </c>
       <c r="D159"/>
-      <c r="E159"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>86</v>
       </c>
@@ -3698,9 +3755,9 @@
         <v>43</v>
       </c>
       <c r="D160"/>
-      <c r="E160"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>87</v>
       </c>
@@ -3711,9 +3768,9 @@
         <v>43</v>
       </c>
       <c r="D161"/>
-      <c r="E161"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>87</v>
       </c>
@@ -3724,9 +3781,9 @@
         <v>43</v>
       </c>
       <c r="D162"/>
-      <c r="E162"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>87</v>
       </c>
@@ -3737,9 +3794,9 @@
         <v>43</v>
       </c>
       <c r="D163"/>
-      <c r="E163"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>88</v>
       </c>
@@ -3750,9 +3807,9 @@
         <v>43</v>
       </c>
       <c r="D164"/>
-      <c r="E164"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>88</v>
       </c>
@@ -3763,9 +3820,9 @@
         <v>43</v>
       </c>
       <c r="D165"/>
-      <c r="E165"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>88</v>
       </c>
@@ -3776,9 +3833,9 @@
         <v>43</v>
       </c>
       <c r="D166"/>
-      <c r="E166"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -3789,9 +3846,9 @@
         <v>43</v>
       </c>
       <c r="D167"/>
-      <c r="E167"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -3802,9 +3859,9 @@
         <v>43</v>
       </c>
       <c r="D168"/>
-      <c r="E168"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -3815,9 +3872,9 @@
         <v>43</v>
       </c>
       <c r="D169"/>
-      <c r="E169"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>90</v>
       </c>
@@ -3828,9 +3885,9 @@
         <v>43</v>
       </c>
       <c r="D170"/>
-      <c r="E170"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -3841,9 +3898,9 @@
         <v>43</v>
       </c>
       <c r="D171"/>
-      <c r="E171"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -3854,9 +3911,9 @@
         <v>43</v>
       </c>
       <c r="D172"/>
-      <c r="E172"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>91</v>
       </c>
@@ -3867,9 +3924,9 @@
         <v>43</v>
       </c>
       <c r="D173"/>
-      <c r="E173"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>91</v>
       </c>
@@ -3880,9 +3937,9 @@
         <v>43</v>
       </c>
       <c r="D174"/>
-      <c r="E174"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>91</v>
       </c>
@@ -3893,9 +3950,9 @@
         <v>43</v>
       </c>
       <c r="D175"/>
-      <c r="E175"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>68</v>
       </c>
@@ -3906,9 +3963,9 @@
         <v>43</v>
       </c>
       <c r="D176"/>
-      <c r="E176"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>68</v>
       </c>
@@ -3919,9 +3976,9 @@
         <v>43</v>
       </c>
       <c r="D177"/>
-      <c r="E177"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>68</v>
       </c>
@@ -3932,9 +3989,9 @@
         <v>43</v>
       </c>
       <c r="D178"/>
-      <c r="E178"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>92</v>
       </c>
@@ -3945,9 +4002,9 @@
         <v>43</v>
       </c>
       <c r="D179"/>
-      <c r="E179"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>92</v>
       </c>
@@ -3958,9 +4015,9 @@
         <v>43</v>
       </c>
       <c r="D180"/>
-      <c r="E180"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>92</v>
       </c>
@@ -3971,9 +4028,9 @@
         <v>43</v>
       </c>
       <c r="D181"/>
-      <c r="E181"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>93</v>
       </c>
@@ -3984,9 +4041,9 @@
         <v>43</v>
       </c>
       <c r="D182"/>
-      <c r="E182"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>93</v>
       </c>
@@ -3997,9 +4054,9 @@
         <v>43</v>
       </c>
       <c r="D183"/>
-      <c r="E183"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>93</v>
       </c>
@@ -4010,9 +4067,9 @@
         <v>43</v>
       </c>
       <c r="D184"/>
-      <c r="E184"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>94</v>
       </c>
@@ -4023,9 +4080,9 @@
         <v>43</v>
       </c>
       <c r="D185"/>
-      <c r="E185"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>94</v>
       </c>
@@ -4036,9 +4093,9 @@
         <v>43</v>
       </c>
       <c r="D186"/>
-      <c r="E186"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>94</v>
       </c>
@@ -4049,9 +4106,9 @@
         <v>43</v>
       </c>
       <c r="D187"/>
-      <c r="E187"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>95</v>
       </c>
@@ -4062,9 +4119,9 @@
         <v>43</v>
       </c>
       <c r="D188"/>
-      <c r="E188"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>95</v>
       </c>
@@ -4075,9 +4132,9 @@
         <v>43</v>
       </c>
       <c r="D189"/>
-      <c r="E189"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>95</v>
       </c>
@@ -4088,9 +4145,9 @@
         <v>43</v>
       </c>
       <c r="D190"/>
-      <c r="E190"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>96</v>
       </c>
@@ -4101,9 +4158,9 @@
         <v>43</v>
       </c>
       <c r="D191"/>
-      <c r="E191"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>96</v>
       </c>
@@ -4114,9 +4171,9 @@
         <v>43</v>
       </c>
       <c r="D192"/>
-      <c r="E192"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>96</v>
       </c>
@@ -4127,9 +4184,9 @@
         <v>43</v>
       </c>
       <c r="D193"/>
-      <c r="E193"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>97</v>
       </c>
@@ -4140,9 +4197,9 @@
         <v>43</v>
       </c>
       <c r="D194"/>
-      <c r="E194"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>97</v>
       </c>
@@ -4153,9 +4210,9 @@
         <v>43</v>
       </c>
       <c r="D195"/>
-      <c r="E195"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>97</v>
       </c>
@@ -4166,9 +4223,9 @@
         <v>43</v>
       </c>
       <c r="D196"/>
-      <c r="E196"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>98</v>
       </c>
@@ -4179,9 +4236,9 @@
         <v>43</v>
       </c>
       <c r="D197"/>
-      <c r="E197"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>98</v>
       </c>
@@ -4192,9 +4249,9 @@
         <v>43</v>
       </c>
       <c r="D198"/>
-      <c r="E198"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>98</v>
       </c>
@@ -4205,9 +4262,9 @@
         <v>43</v>
       </c>
       <c r="D199"/>
-      <c r="E199"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>99</v>
       </c>
@@ -4218,9 +4275,9 @@
         <v>43</v>
       </c>
       <c r="D200"/>
-      <c r="E200"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>99</v>
       </c>
@@ -4231,9 +4288,9 @@
         <v>43</v>
       </c>
       <c r="D201"/>
-      <c r="E201"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>99</v>
       </c>
@@ -4244,9 +4301,9 @@
         <v>43</v>
       </c>
       <c r="D202"/>
-      <c r="E202"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>100</v>
       </c>
@@ -4257,9 +4314,9 @@
         <v>43</v>
       </c>
       <c r="D203"/>
-      <c r="E203"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>100</v>
       </c>
@@ -4270,9 +4327,9 @@
         <v>43</v>
       </c>
       <c r="D204"/>
-      <c r="E204"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>100</v>
       </c>
@@ -4283,9 +4340,9 @@
         <v>43</v>
       </c>
       <c r="D205"/>
-      <c r="E205"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>101</v>
       </c>
@@ -4296,9 +4353,9 @@
         <v>43</v>
       </c>
       <c r="D206"/>
-      <c r="E206"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>101</v>
       </c>
@@ -4309,9 +4366,9 @@
         <v>43</v>
       </c>
       <c r="D207"/>
-      <c r="E207"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>101</v>
       </c>
@@ -4322,9 +4379,9 @@
         <v>43</v>
       </c>
       <c r="D208"/>
-      <c r="E208"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>102</v>
       </c>
@@ -4335,9 +4392,9 @@
         <v>43</v>
       </c>
       <c r="D209"/>
-      <c r="E209"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>102</v>
       </c>
@@ -4348,9 +4405,9 @@
         <v>43</v>
       </c>
       <c r="D210"/>
-      <c r="E210"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>102</v>
       </c>
@@ -4361,9 +4418,9 @@
         <v>43</v>
       </c>
       <c r="D211"/>
-      <c r="E211"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>103</v>
       </c>
@@ -4374,9 +4431,9 @@
         <v>43</v>
       </c>
       <c r="D212"/>
-      <c r="E212"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>103</v>
       </c>
@@ -4387,9 +4444,9 @@
         <v>43</v>
       </c>
       <c r="D213"/>
-      <c r="E213"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>103</v>
       </c>
@@ -4400,9 +4457,9 @@
         <v>43</v>
       </c>
       <c r="D214"/>
-      <c r="E214"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>103</v>
       </c>
@@ -4413,9 +4470,11 @@
         <v>43</v>
       </c>
       <c r="D215"/>
-      <c r="E215"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E215" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>103</v>
       </c>
@@ -4426,9 +4485,11 @@
         <v>43</v>
       </c>
       <c r="D216"/>
-      <c r="E216"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E216" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>104</v>
       </c>
@@ -4439,9 +4500,9 @@
         <v>43</v>
       </c>
       <c r="D217"/>
-      <c r="E217"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>104</v>
       </c>
@@ -4452,9 +4513,9 @@
         <v>43</v>
       </c>
       <c r="D218"/>
-      <c r="E218"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>104</v>
       </c>
@@ -4465,9 +4526,9 @@
         <v>43</v>
       </c>
       <c r="D219"/>
-      <c r="E219"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>105</v>
       </c>
@@ -4478,9 +4539,9 @@
         <v>43</v>
       </c>
       <c r="D220"/>
-      <c r="E220"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>105</v>
       </c>
@@ -4491,9 +4552,9 @@
         <v>43</v>
       </c>
       <c r="D221"/>
-      <c r="E221"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>105</v>
       </c>
@@ -4504,9 +4565,9 @@
         <v>43</v>
       </c>
       <c r="D222"/>
-      <c r="E222"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>106</v>
       </c>
@@ -4517,9 +4578,9 @@
         <v>43</v>
       </c>
       <c r="D223"/>
-      <c r="E223"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>106</v>
       </c>
@@ -4530,9 +4591,9 @@
         <v>43</v>
       </c>
       <c r="D224"/>
-      <c r="E224"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>106</v>
       </c>
@@ -4543,9 +4604,9 @@
         <v>43</v>
       </c>
       <c r="D225"/>
-      <c r="E225"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>108</v>
       </c>
@@ -4556,9 +4617,9 @@
         <v>43</v>
       </c>
       <c r="D226"/>
-      <c r="E226"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>108</v>
       </c>
@@ -4569,9 +4630,9 @@
         <v>43</v>
       </c>
       <c r="D227"/>
-      <c r="E227"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>108</v>
       </c>
@@ -4582,9 +4643,9 @@
         <v>43</v>
       </c>
       <c r="D228"/>
-      <c r="E228"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>107</v>
       </c>
@@ -4595,9 +4656,9 @@
         <v>43</v>
       </c>
       <c r="D229"/>
-      <c r="E229"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>107</v>
       </c>
@@ -4608,9 +4669,9 @@
         <v>43</v>
       </c>
       <c r="D230"/>
-      <c r="E230"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>107</v>
       </c>
@@ -4621,9 +4682,9 @@
         <v>43</v>
       </c>
       <c r="D231"/>
-      <c r="E231"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>109</v>
       </c>
@@ -4634,9 +4695,9 @@
         <v>43</v>
       </c>
       <c r="D232"/>
-      <c r="E232"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>109</v>
       </c>
@@ -4647,9 +4708,9 @@
         <v>43</v>
       </c>
       <c r="D233"/>
-      <c r="E233"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>109</v>
       </c>
@@ -4660,9 +4721,9 @@
         <v>43</v>
       </c>
       <c r="D234"/>
-      <c r="E234"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>110</v>
       </c>
@@ -4673,9 +4734,9 @@
         <v>43</v>
       </c>
       <c r="D235"/>
-      <c r="E235"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>110</v>
       </c>
@@ -4686,9 +4747,9 @@
         <v>43</v>
       </c>
       <c r="D236"/>
-      <c r="E236"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>110</v>
       </c>
@@ -4699,9 +4760,9 @@
         <v>43</v>
       </c>
       <c r="D237"/>
-      <c r="E237"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>111</v>
       </c>
@@ -4712,9 +4773,9 @@
         <v>43</v>
       </c>
       <c r="D238"/>
-      <c r="E238"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>111</v>
       </c>
@@ -4725,9 +4786,9 @@
         <v>43</v>
       </c>
       <c r="D239"/>
-      <c r="E239"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>111</v>
       </c>
@@ -4738,9 +4799,9 @@
         <v>43</v>
       </c>
       <c r="D240"/>
-      <c r="E240"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>112</v>
       </c>
@@ -4751,9 +4812,9 @@
         <v>43</v>
       </c>
       <c r="D241"/>
-      <c r="E241"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>112</v>
       </c>
@@ -4764,9 +4825,9 @@
         <v>43</v>
       </c>
       <c r="D242"/>
-      <c r="E242"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>112</v>
       </c>
@@ -4777,9 +4838,9 @@
         <v>43</v>
       </c>
       <c r="D243"/>
-      <c r="E243"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E243" s="1"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>113</v>
       </c>
@@ -4790,9 +4851,9 @@
         <v>43</v>
       </c>
       <c r="D244"/>
-      <c r="E244"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>113</v>
       </c>
@@ -4803,9 +4864,9 @@
         <v>43</v>
       </c>
       <c r="D245"/>
-      <c r="E245"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>113</v>
       </c>
@@ -4816,9 +4877,9 @@
         <v>43</v>
       </c>
       <c r="D246"/>
-      <c r="E246"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>114</v>
       </c>
@@ -4829,9 +4890,9 @@
         <v>43</v>
       </c>
       <c r="D247"/>
-      <c r="E247"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>114</v>
       </c>
@@ -4842,9 +4903,9 @@
         <v>43</v>
       </c>
       <c r="D248"/>
-      <c r="E248"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>114</v>
       </c>
@@ -4855,9 +4916,9 @@
         <v>43</v>
       </c>
       <c r="D249"/>
-      <c r="E249"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>115</v>
       </c>
@@ -4868,9 +4929,9 @@
         <v>43</v>
       </c>
       <c r="D250"/>
-      <c r="E250"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>115</v>
       </c>
@@ -4881,9 +4942,9 @@
         <v>43</v>
       </c>
       <c r="D251"/>
-      <c r="E251"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E251" s="1"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>115</v>
       </c>
@@ -4894,9 +4955,9 @@
         <v>43</v>
       </c>
       <c r="D252"/>
-      <c r="E252"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E252" s="1"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>116</v>
       </c>
@@ -4907,9 +4968,9 @@
         <v>43</v>
       </c>
       <c r="D253"/>
-      <c r="E253"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>116</v>
       </c>
@@ -4920,9 +4981,9 @@
         <v>43</v>
       </c>
       <c r="D254"/>
-      <c r="E254"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>116</v>
       </c>
@@ -4933,9 +4994,9 @@
         <v>43</v>
       </c>
       <c r="D255"/>
-      <c r="E255"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E255" s="1"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>117</v>
       </c>
@@ -4946,9 +5007,9 @@
         <v>43</v>
       </c>
       <c r="D256"/>
-      <c r="E256"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E256" s="1"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>117</v>
       </c>
@@ -4959,9 +5020,9 @@
         <v>43</v>
       </c>
       <c r="D257"/>
-      <c r="E257"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E257" s="1"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>117</v>
       </c>
@@ -4972,9 +5033,9 @@
         <v>43</v>
       </c>
       <c r="D258"/>
-      <c r="E258"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E258" s="1"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>118</v>
       </c>
@@ -4985,9 +5046,9 @@
         <v>43</v>
       </c>
       <c r="D259"/>
-      <c r="E259"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E259" s="1"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>118</v>
       </c>
@@ -4998,9 +5059,9 @@
         <v>43</v>
       </c>
       <c r="D260"/>
-      <c r="E260"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>118</v>
       </c>
@@ -5011,9 +5072,9 @@
         <v>43</v>
       </c>
       <c r="D261"/>
-      <c r="E261"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>119</v>
       </c>
@@ -5024,9 +5085,9 @@
         <v>43</v>
       </c>
       <c r="D262"/>
-      <c r="E262"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>119</v>
       </c>
@@ -5037,9 +5098,9 @@
         <v>43</v>
       </c>
       <c r="D263"/>
-      <c r="E263"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E263" s="1"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>119</v>
       </c>
@@ -5050,9 +5111,9 @@
         <v>43</v>
       </c>
       <c r="D264"/>
-      <c r="E264"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>120</v>
       </c>
@@ -5063,9 +5124,9 @@
         <v>43</v>
       </c>
       <c r="D265"/>
-      <c r="E265"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>120</v>
       </c>
@@ -5076,9 +5137,9 @@
         <v>43</v>
       </c>
       <c r="D266"/>
-      <c r="E266"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>120</v>
       </c>
@@ -5089,9 +5150,9 @@
         <v>43</v>
       </c>
       <c r="D267"/>
-      <c r="E267"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E267" s="1"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>121</v>
       </c>
@@ -5102,9 +5163,9 @@
         <v>43</v>
       </c>
       <c r="D268"/>
-      <c r="E268"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>121</v>
       </c>
@@ -5115,9 +5176,9 @@
         <v>43</v>
       </c>
       <c r="D269"/>
-      <c r="E269"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E269" s="1"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>121</v>
       </c>
@@ -5128,9 +5189,9 @@
         <v>43</v>
       </c>
       <c r="D270"/>
-      <c r="E270"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E270" s="1"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>122</v>
       </c>
@@ -5141,9 +5202,9 @@
         <v>43</v>
       </c>
       <c r="D271"/>
-      <c r="E271"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E271" s="1"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>122</v>
       </c>
@@ -5154,9 +5215,9 @@
         <v>43</v>
       </c>
       <c r="D272"/>
-      <c r="E272"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E272" s="1"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>122</v>
       </c>
@@ -5167,9 +5228,9 @@
         <v>43</v>
       </c>
       <c r="D273"/>
-      <c r="E273"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E273" s="1"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>123</v>
       </c>
@@ -5180,9 +5241,9 @@
         <v>43</v>
       </c>
       <c r="D274"/>
-      <c r="E274"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E274" s="1"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>123</v>
       </c>
@@ -5193,9 +5254,9 @@
         <v>43</v>
       </c>
       <c r="D275"/>
-      <c r="E275"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E275" s="1"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>123</v>
       </c>
@@ -5206,9 +5267,9 @@
         <v>43</v>
       </c>
       <c r="D276"/>
-      <c r="E276"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E276" s="1"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>123</v>
       </c>
@@ -5219,9 +5280,11 @@
         <v>43</v>
       </c>
       <c r="D277"/>
-      <c r="E277"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E277" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>123</v>
       </c>
@@ -5232,9 +5295,11 @@
         <v>43</v>
       </c>
       <c r="D278"/>
-      <c r="E278"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E278" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>123</v>
       </c>
@@ -5245,9 +5310,11 @@
         <v>43</v>
       </c>
       <c r="D279"/>
-      <c r="E279"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E279" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>124</v>
       </c>
@@ -5258,9 +5325,9 @@
         <v>43</v>
       </c>
       <c r="D280"/>
-      <c r="E280"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>124</v>
       </c>
@@ -5271,9 +5338,9 @@
         <v>43</v>
       </c>
       <c r="D281"/>
-      <c r="E281"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>124</v>
       </c>
@@ -5284,9 +5351,9 @@
         <v>43</v>
       </c>
       <c r="D282"/>
-      <c r="E282"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>125</v>
       </c>
@@ -5297,9 +5364,9 @@
         <v>43</v>
       </c>
       <c r="D283"/>
-      <c r="E283"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>125</v>
       </c>
@@ -5310,9 +5377,9 @@
         <v>43</v>
       </c>
       <c r="D284"/>
-      <c r="E284"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E284" s="1"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>125</v>
       </c>
@@ -5323,9 +5390,9 @@
         <v>43</v>
       </c>
       <c r="D285"/>
-      <c r="E285"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>126</v>
       </c>
@@ -5336,9 +5403,9 @@
         <v>43</v>
       </c>
       <c r="D286"/>
-      <c r="E286"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>126</v>
       </c>
@@ -5349,10 +5416,10 @@
         <v>43</v>
       </c>
       <c r="D287"/>
-      <c r="E287"/>
+      <c r="E287" s="1"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>126</v>
       </c>
@@ -5363,9 +5430,9 @@
         <v>43</v>
       </c>
       <c r="D288"/>
-      <c r="E288"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>127</v>
       </c>
@@ -5376,9 +5443,9 @@
         <v>43</v>
       </c>
       <c r="D289"/>
-      <c r="E289"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>127</v>
       </c>
@@ -5389,9 +5456,9 @@
         <v>43</v>
       </c>
       <c r="D290"/>
-      <c r="E290"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>127</v>
       </c>
@@ -5402,9 +5469,9 @@
         <v>43</v>
       </c>
       <c r="D291"/>
-      <c r="E291"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E291" s="1"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>128</v>
       </c>
@@ -5415,9 +5482,9 @@
         <v>43</v>
       </c>
       <c r="D292"/>
-      <c r="E292"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E292" s="1"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>128</v>
       </c>
@@ -5428,9 +5495,9 @@
         <v>43</v>
       </c>
       <c r="D293"/>
-      <c r="E293"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E293" s="1"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>128</v>
       </c>
@@ -5441,9 +5508,9 @@
         <v>43</v>
       </c>
       <c r="D294"/>
-      <c r="E294"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E294" s="1"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>129</v>
       </c>
@@ -5454,9 +5521,9 @@
         <v>43</v>
       </c>
       <c r="D295"/>
-      <c r="E295"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E295" s="1"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>129</v>
       </c>
@@ -5467,9 +5534,9 @@
         <v>43</v>
       </c>
       <c r="D296"/>
-      <c r="E296"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E296" s="1"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>129</v>
       </c>
@@ -5480,9 +5547,9 @@
         <v>43</v>
       </c>
       <c r="D297"/>
-      <c r="E297"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E297" s="1"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>130</v>
       </c>
@@ -5493,9 +5560,9 @@
         <v>43</v>
       </c>
       <c r="D298"/>
-      <c r="E298"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E298" s="1"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>130</v>
       </c>
@@ -5506,9 +5573,9 @@
         <v>43</v>
       </c>
       <c r="D299"/>
-      <c r="E299"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E299" s="1"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>130</v>
       </c>
@@ -5519,9 +5586,9 @@
         <v>43</v>
       </c>
       <c r="D300"/>
-      <c r="E300"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E300" s="1"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>131</v>
       </c>
@@ -5532,9 +5599,9 @@
         <v>43</v>
       </c>
       <c r="D301"/>
-      <c r="E301"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E301" s="1"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>131</v>
       </c>
@@ -5545,9 +5612,9 @@
         <v>43</v>
       </c>
       <c r="D302"/>
-      <c r="E302"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E302" s="1"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>131</v>
       </c>
@@ -5558,9 +5625,9 @@
         <v>43</v>
       </c>
       <c r="D303"/>
-      <c r="E303"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E303" s="1"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>132</v>
       </c>
@@ -5571,9 +5638,11 @@
         <v>135</v>
       </c>
       <c r="D304"/>
-      <c r="E304"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E304" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -5584,9 +5653,11 @@
         <v>135</v>
       </c>
       <c r="D305"/>
-      <c r="E305"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E305" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>134</v>
       </c>
@@ -5597,9 +5668,11 @@
         <v>135</v>
       </c>
       <c r="D306"/>
-      <c r="E306"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E306" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>136</v>
       </c>
@@ -5610,9 +5683,11 @@
         <v>135</v>
       </c>
       <c r="D307"/>
-      <c r="E307"/>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E307" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>137</v>
       </c>
@@ -5623,9 +5698,11 @@
         <v>135</v>
       </c>
       <c r="D308"/>
-      <c r="E308"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E308" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>138</v>
       </c>
@@ -5636,9 +5713,11 @@
         <v>135</v>
       </c>
       <c r="D309"/>
-      <c r="E309"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E309" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>139</v>
       </c>
@@ -5649,9 +5728,11 @@
         <v>135</v>
       </c>
       <c r="D310"/>
-      <c r="E310"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E310" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>140</v>
       </c>
@@ -5662,9 +5743,11 @@
         <v>135</v>
       </c>
       <c r="D311"/>
-      <c r="E311"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E311" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>141</v>
       </c>
@@ -5675,9 +5758,11 @@
         <v>135</v>
       </c>
       <c r="D312"/>
-      <c r="E312"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E312" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>142</v>
       </c>
@@ -5688,9 +5773,11 @@
         <v>135</v>
       </c>
       <c r="D313"/>
-      <c r="E313"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E313" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>143</v>
       </c>
@@ -5701,9 +5788,11 @@
         <v>135</v>
       </c>
       <c r="D314"/>
-      <c r="E314"/>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E314" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>144</v>
       </c>
@@ -5714,9 +5803,11 @@
         <v>135</v>
       </c>
       <c r="D315"/>
-      <c r="E315"/>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E315" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>145</v>
       </c>
@@ -5727,9 +5818,11 @@
         <v>135</v>
       </c>
       <c r="D316"/>
-      <c r="E316"/>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E316" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>146</v>
       </c>
@@ -5740,9 +5833,11 @@
         <v>135</v>
       </c>
       <c r="D317"/>
-      <c r="E317"/>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E317" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>147</v>
       </c>
@@ -5753,9 +5848,11 @@
         <v>135</v>
       </c>
       <c r="D318"/>
-      <c r="E318"/>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E318" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>176</v>
       </c>
@@ -5766,9 +5863,11 @@
         <v>149</v>
       </c>
       <c r="D319"/>
-      <c r="E319"/>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E319" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>175</v>
       </c>
@@ -5779,9 +5878,11 @@
         <v>149</v>
       </c>
       <c r="D320"/>
-      <c r="E320"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E320" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>177</v>
       </c>
@@ -5792,9 +5893,11 @@
         <v>149</v>
       </c>
       <c r="D321"/>
-      <c r="E321"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E321" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>178</v>
       </c>
@@ -5805,9 +5908,11 @@
         <v>149</v>
       </c>
       <c r="D322"/>
-      <c r="E322"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E322" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>179</v>
       </c>
@@ -5818,9 +5923,11 @@
         <v>149</v>
       </c>
       <c r="D323"/>
-      <c r="E323"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E323" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>180</v>
       </c>
@@ -5831,9 +5938,11 @@
         <v>149</v>
       </c>
       <c r="D324"/>
-      <c r="E324"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E324" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>181</v>
       </c>
@@ -5844,9 +5953,11 @@
         <v>149</v>
       </c>
       <c r="D325"/>
-      <c r="E325"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E325" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>182</v>
       </c>
@@ -5857,9 +5968,11 @@
         <v>149</v>
       </c>
       <c r="D326"/>
-      <c r="E326"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E326" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>183</v>
       </c>
@@ -5870,9 +5983,11 @@
         <v>149</v>
       </c>
       <c r="D327"/>
-      <c r="E327"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E327" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>184</v>
       </c>
@@ -5883,9 +5998,11 @@
         <v>149</v>
       </c>
       <c r="D328"/>
-      <c r="E328"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E328" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>148</v>
       </c>
@@ -5896,9 +6013,11 @@
         <v>149</v>
       </c>
       <c r="D329"/>
-      <c r="E329"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E329" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>185</v>
       </c>
@@ -5909,9 +6028,11 @@
         <v>149</v>
       </c>
       <c r="D330"/>
-      <c r="E330"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E330" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>186</v>
       </c>
@@ -5922,9 +6043,11 @@
         <v>149</v>
       </c>
       <c r="D331"/>
-      <c r="E331"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E331" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>187</v>
       </c>
@@ -5935,9 +6058,11 @@
         <v>149</v>
       </c>
       <c r="D332"/>
-      <c r="E332"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E332" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>188</v>
       </c>
@@ -5948,9 +6073,11 @@
         <v>149</v>
       </c>
       <c r="D333"/>
-      <c r="E333"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E333" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>189</v>
       </c>
@@ -5961,9 +6088,11 @@
         <v>149</v>
       </c>
       <c r="D334"/>
-      <c r="E334"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E334" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>190</v>
       </c>
@@ -5974,9 +6103,11 @@
         <v>149</v>
       </c>
       <c r="D335"/>
-      <c r="E335"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E335" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>191</v>
       </c>
@@ -5987,9 +6118,11 @@
         <v>149</v>
       </c>
       <c r="D336"/>
-      <c r="E336"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E336" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>192</v>
       </c>
@@ -6000,9 +6133,11 @@
         <v>149</v>
       </c>
       <c r="D337"/>
-      <c r="E337"/>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E337" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>193</v>
       </c>
@@ -6013,9 +6148,11 @@
         <v>149</v>
       </c>
       <c r="D338"/>
-      <c r="E338"/>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E338" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>194</v>
       </c>
@@ -6026,9 +6163,11 @@
         <v>149</v>
       </c>
       <c r="D339"/>
-      <c r="E339"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E339" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>195</v>
       </c>
@@ -6039,9 +6178,11 @@
         <v>149</v>
       </c>
       <c r="D340"/>
-      <c r="E340"/>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E340" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>196</v>
       </c>
@@ -6052,9 +6193,11 @@
         <v>149</v>
       </c>
       <c r="D341"/>
-      <c r="E341"/>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E341" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>197</v>
       </c>
@@ -6065,9 +6208,11 @@
         <v>149</v>
       </c>
       <c r="D342"/>
-      <c r="E342"/>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E342" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>198</v>
       </c>
@@ -6078,9 +6223,11 @@
         <v>149</v>
       </c>
       <c r="D343"/>
-      <c r="E343"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E343" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>200</v>
       </c>
@@ -6091,9 +6238,11 @@
         <v>149</v>
       </c>
       <c r="D344"/>
-      <c r="E344"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E344" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>202</v>
       </c>
@@ -6104,9 +6253,11 @@
         <v>149</v>
       </c>
       <c r="D345"/>
-      <c r="E345"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E345" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>203</v>
       </c>
@@ -6117,9 +6268,11 @@
         <v>149</v>
       </c>
       <c r="D346"/>
-      <c r="E346"/>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E346" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>152</v>
       </c>
@@ -6130,9 +6283,11 @@
         <v>170</v>
       </c>
       <c r="D347"/>
-      <c r="E347"/>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E347" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>153</v>
       </c>
@@ -6143,9 +6298,11 @@
         <v>170</v>
       </c>
       <c r="D348"/>
-      <c r="E348"/>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E348" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>154</v>
       </c>
@@ -6156,9 +6313,11 @@
         <v>170</v>
       </c>
       <c r="D349"/>
-      <c r="E349"/>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E349" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>155</v>
       </c>
@@ -6169,9 +6328,11 @@
         <v>170</v>
       </c>
       <c r="D350"/>
-      <c r="E350"/>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E350" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>156</v>
       </c>
@@ -6182,9 +6343,11 @@
         <v>170</v>
       </c>
       <c r="D351"/>
-      <c r="E351"/>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E351" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>157</v>
       </c>
@@ -6195,9 +6358,11 @@
         <v>170</v>
       </c>
       <c r="D352"/>
-      <c r="E352"/>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E352" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>158</v>
       </c>
@@ -6208,9 +6373,11 @@
         <v>170</v>
       </c>
       <c r="D353"/>
-      <c r="E353"/>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E353" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>159</v>
       </c>
@@ -6221,9 +6388,11 @@
         <v>170</v>
       </c>
       <c r="D354"/>
-      <c r="E354"/>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E354" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>160</v>
       </c>
@@ -6234,9 +6403,11 @@
         <v>170</v>
       </c>
       <c r="D355"/>
-      <c r="E355"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E355" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>161</v>
       </c>
@@ -6247,9 +6418,11 @@
         <v>170</v>
       </c>
       <c r="D356"/>
-      <c r="E356"/>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E356" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>162</v>
       </c>
@@ -6260,9 +6433,11 @@
         <v>170</v>
       </c>
       <c r="D357"/>
-      <c r="E357"/>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E357" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>163</v>
       </c>
@@ -6273,9 +6448,11 @@
         <v>170</v>
       </c>
       <c r="D358"/>
-      <c r="E358"/>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E358" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>164</v>
       </c>
@@ -6286,9 +6463,11 @@
         <v>170</v>
       </c>
       <c r="D359"/>
-      <c r="E359"/>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E359" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>165</v>
       </c>
@@ -6299,9 +6478,11 @@
         <v>170</v>
       </c>
       <c r="D360"/>
-      <c r="E360"/>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E360" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>166</v>
       </c>
@@ -6312,9 +6493,11 @@
         <v>170</v>
       </c>
       <c r="D361"/>
-      <c r="E361"/>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E361" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>167</v>
       </c>
@@ -6325,9 +6508,11 @@
         <v>170</v>
       </c>
       <c r="D362"/>
-      <c r="E362"/>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E362" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>168</v>
       </c>
@@ -6338,9 +6523,11 @@
         <v>170</v>
       </c>
       <c r="D363"/>
-      <c r="E363"/>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E363" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>169</v>
       </c>
@@ -6351,774 +6538,776 @@
         <v>170</v>
       </c>
       <c r="D364"/>
-      <c r="E364"/>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E364" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
       <c r="D365"/>
       <c r="E365"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
       <c r="D366"/>
       <c r="E366"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
       <c r="D367"/>
       <c r="E367"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
       <c r="D368"/>
       <c r="E368"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
       <c r="D369"/>
       <c r="E369"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
       <c r="D370"/>
       <c r="E370"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
       <c r="D371"/>
       <c r="E371"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
       <c r="D372"/>
       <c r="E372"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
       <c r="E373"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
       <c r="D374"/>
       <c r="E374"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
       <c r="D375"/>
       <c r="E375"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
       <c r="D376"/>
       <c r="E376"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
       <c r="D377"/>
       <c r="E377"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
       <c r="D378"/>
       <c r="E378"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
       <c r="D379"/>
       <c r="E379"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
       <c r="E380"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
       <c r="D381"/>
       <c r="E381"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
       <c r="D382"/>
       <c r="E382"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
       <c r="D383"/>
       <c r="E383"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D397"/>
       <c r="E397"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D398"/>
       <c r="E398"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D399"/>
       <c r="E399"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D400"/>
       <c r="E400"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D401"/>
       <c r="E401"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D402"/>
       <c r="E402"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D403"/>
       <c r="E403"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D404"/>
       <c r="E404"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D405"/>
       <c r="E405"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D406"/>
       <c r="E406"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D407"/>
       <c r="E407"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D408"/>
       <c r="E408"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D409"/>
       <c r="E409"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D410"/>
       <c r="E410"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D411"/>
       <c r="E411"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D412"/>
       <c r="E412"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D413"/>
       <c r="E413"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D414"/>
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
@@ -7126,7 +7315,7 @@
       <c r="E482"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
@@ -7137,7 +7326,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
@@ -7148,7 +7337,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
@@ -7159,7 +7348,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
@@ -7170,7 +7359,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
@@ -7181,7 +7370,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
@@ -7192,7 +7381,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
@@ -7203,7 +7392,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
@@ -7214,7 +7403,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
@@ -7223,7 +7412,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
@@ -7232,7 +7421,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
@@ -7241,7 +7430,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
@@ -7250,7 +7439,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
@@ -7258,14 +7447,14 @@
       <c r="E495"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
@@ -7273,7 +7462,7 @@
       <c r="E497"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
@@ -7281,7 +7470,7 @@
       <c r="E498"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
@@ -7289,324 +7478,324 @@
       <c r="E499"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
       <c r="D518"/>
       <c r="E518"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="16"/>
     </row>
-    <row r="580" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F580"/>
     </row>
-    <row r="581" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F581"/>
     </row>
-    <row r="582" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F582"/>
     </row>
-    <row r="583" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F583"/>
     </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F584"/>
     </row>
-    <row r="585" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F585"/>
     </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F586"/>
     </row>
-    <row r="587" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F587"/>
     </row>
-    <row r="588" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F588"/>
     </row>
-    <row r="589" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F589"/>
     </row>
-    <row r="590" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F590"/>
     </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F591"/>
     </row>
-    <row r="592" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F592"/>
     </row>
-    <row r="593" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F593"/>
     </row>
   </sheetData>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="205">
   <si>
     <t>ID Code</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>H_P_01</t>
+  </si>
+  <si>
+    <t>F_ML_01</t>
   </si>
 </sst>
 </file>
@@ -1105,32 +1108,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1168,6 +1171,9 @@
       </c>
       <c r="C2" t="s">
         <v>38</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
@@ -1183,7 +1189,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1192,6 +1198,9 @@
       </c>
       <c r="C3" t="s">
         <v>39</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>13</v>
@@ -1206,7 +1215,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1215,6 +1224,9 @@
       </c>
       <c r="C4" t="s">
         <v>39</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>10</v>
@@ -1235,7 +1247,7 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1244,6 +1256,9 @@
       </c>
       <c r="C5" t="s">
         <v>39</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>14</v>
@@ -1264,7 +1279,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1273,6 +1288,9 @@
       </c>
       <c r="C6" t="s">
         <v>39</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
@@ -1293,7 +1311,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1304,7 +1322,9 @@
         <v>39</v>
       </c>
       <c r="D7"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +1344,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1335,7 +1355,9 @@
         <v>39</v>
       </c>
       <c r="D8"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1353,7 +1375,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1364,7 +1386,9 @@
         <v>39</v>
       </c>
       <c r="D9"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="12" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1406,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1393,7 +1417,9 @@
         <v>39</v>
       </c>
       <c r="D10"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
@@ -1411,7 +1437,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1422,7 +1448,9 @@
         <v>39</v>
       </c>
       <c r="D11"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
         <v>28</v>
@@ -1437,7 +1465,7 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1448,7 +1476,9 @@
         <v>39</v>
       </c>
       <c r="D12"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
         <v>32</v>
@@ -1463,7 +1493,7 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1474,7 +1504,9 @@
         <v>39</v>
       </c>
       <c r="D13"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
         <v>34</v>
@@ -1489,7 +1521,7 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1500,7 +1532,9 @@
         <v>39</v>
       </c>
       <c r="D14"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1517,7 +1551,7 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1528,7 +1562,9 @@
         <v>39</v>
       </c>
       <c r="D15"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
         <v>37</v>
@@ -1543,7 +1579,7 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1554,7 +1590,9 @@
         <v>39</v>
       </c>
       <c r="D16"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
       <c r="H16" s="3" t="s">
         <v>171</v>
       </c>
@@ -1571,7 +1609,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1582,7 +1620,9 @@
         <v>39</v>
       </c>
       <c r="D17"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
         <v>174</v>
@@ -1597,7 +1637,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1608,7 +1648,9 @@
         <v>39</v>
       </c>
       <c r="D18"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
         <v>199</v>
@@ -1623,7 +1665,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1634,7 +1676,9 @@
         <v>39</v>
       </c>
       <c r="D19"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
         <v>201</v>
@@ -1649,7 +1693,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1660,7 +1704,9 @@
         <v>39</v>
       </c>
       <c r="D20"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>172</v>
       </c>
@@ -1677,7 +1723,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1688,7 +1734,9 @@
         <v>39</v>
       </c>
       <c r="D21"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
         <v>151</v>
@@ -1703,7 +1751,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1714,7 +1762,9 @@
         <v>39</v>
       </c>
       <c r="D22"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -1725,7 +1775,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1736,7 +1786,9 @@
         <v>39</v>
       </c>
       <c r="D23"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -1747,7 +1799,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1758,7 +1810,9 @@
         <v>39</v>
       </c>
       <c r="D24"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -1769,7 +1823,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1780,7 +1834,9 @@
         <v>39</v>
       </c>
       <c r="D25"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -1791,7 +1847,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1802,7 +1858,9 @@
         <v>39</v>
       </c>
       <c r="D26"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -1813,7 +1871,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1824,7 +1882,9 @@
         <v>39</v>
       </c>
       <c r="D27"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
       <c r="I27" s="16"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -1836,7 +1896,7 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1847,7 +1907,9 @@
         <v>39</v>
       </c>
       <c r="D28"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
       <c r="I28" s="16"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -1859,7 +1921,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1870,7 +1932,9 @@
         <v>39</v>
       </c>
       <c r="D29"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
       <c r="I29" s="16"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -1882,7 +1946,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1893,7 +1957,9 @@
         <v>39</v>
       </c>
       <c r="D30"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
       <c r="I30" s="16"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -1905,7 +1971,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1916,7 +1982,9 @@
         <v>39</v>
       </c>
       <c r="D31"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
       <c r="I31" s="16"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -1928,7 +1996,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1939,7 +2007,9 @@
         <v>39</v>
       </c>
       <c r="D32"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32"/>
@@ -1952,7 +2022,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1963,7 +2033,9 @@
         <v>40</v>
       </c>
       <c r="D33"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>8</v>
+      </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33"/>
@@ -1976,7 +2048,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1987,7 +2059,9 @@
         <v>40</v>
       </c>
       <c r="D34"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34"/>
@@ -2000,7 +2074,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2011,7 +2085,9 @@
         <v>40</v>
       </c>
       <c r="D35"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>8</v>
+      </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35"/>
@@ -2024,7 +2100,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -2035,7 +2111,9 @@
         <v>40</v>
       </c>
       <c r="D36"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <v>8</v>
+      </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36"/>
@@ -2048,7 +2126,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2059,7 +2137,9 @@
         <v>40</v>
       </c>
       <c r="D37"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1">
+        <v>8</v>
+      </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37"/>
@@ -2072,7 +2152,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2084,12 +2164,12 @@
       </c>
       <c r="D38"/>
       <c r="E38" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2101,12 +2181,12 @@
       </c>
       <c r="D39"/>
       <c r="E39" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2118,12 +2198,12 @@
       </c>
       <c r="D40"/>
       <c r="E40" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2134,9 +2214,11 @@
         <v>40</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2147,9 +2229,11 @@
         <v>40</v>
       </c>
       <c r="D42"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2160,9 +2244,11 @@
         <v>40</v>
       </c>
       <c r="D43"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -2173,9 +2259,11 @@
         <v>40</v>
       </c>
       <c r="D44"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2186,9 +2274,11 @@
         <v>40</v>
       </c>
       <c r="D45"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2200,10 +2290,10 @@
       </c>
       <c r="D46"/>
       <c r="E46" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2215,10 +2305,10 @@
       </c>
       <c r="D47"/>
       <c r="E47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2230,10 +2320,10 @@
       </c>
       <c r="D48"/>
       <c r="E48" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2244,9 +2334,11 @@
         <v>40</v>
       </c>
       <c r="D49"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2257,9 +2349,11 @@
         <v>40</v>
       </c>
       <c r="D50"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2270,9 +2364,11 @@
         <v>40</v>
       </c>
       <c r="D51"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2283,9 +2379,11 @@
         <v>40</v>
       </c>
       <c r="D52"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2296,9 +2394,11 @@
         <v>40</v>
       </c>
       <c r="D53"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2310,10 +2410,10 @@
       </c>
       <c r="D54"/>
       <c r="E54" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2325,10 +2425,10 @@
       </c>
       <c r="D55"/>
       <c r="E55" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2340,10 +2440,10 @@
       </c>
       <c r="D56"/>
       <c r="E56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2354,9 +2454,11 @@
         <v>40</v>
       </c>
       <c r="D57"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2367,9 +2469,11 @@
         <v>40</v>
       </c>
       <c r="D58"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2380,9 +2484,11 @@
         <v>40</v>
       </c>
       <c r="D59"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2393,9 +2499,11 @@
         <v>40</v>
       </c>
       <c r="D60"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2406,9 +2514,11 @@
         <v>40</v>
       </c>
       <c r="D61"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2420,10 +2530,10 @@
       </c>
       <c r="D62"/>
       <c r="E62" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2435,10 +2545,10 @@
       </c>
       <c r="D63"/>
       <c r="E63" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2450,10 +2560,10 @@
       </c>
       <c r="D64"/>
       <c r="E64" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2464,9 +2574,11 @@
         <v>41</v>
       </c>
       <c r="D65"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -2477,9 +2589,11 @@
         <v>41</v>
       </c>
       <c r="D66"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -2490,9 +2604,11 @@
         <v>41</v>
       </c>
       <c r="D67"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -2503,9 +2619,11 @@
         <v>41</v>
       </c>
       <c r="D68"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2634,11 @@
         <v>41</v>
       </c>
       <c r="D69"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -2530,10 +2650,10 @@
       </c>
       <c r="D70"/>
       <c r="E70" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -2545,10 +2665,10 @@
       </c>
       <c r="D71"/>
       <c r="E71" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -2560,10 +2680,10 @@
       </c>
       <c r="D72"/>
       <c r="E72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -2574,9 +2694,11 @@
         <v>42</v>
       </c>
       <c r="D73"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -2587,9 +2709,11 @@
         <v>42</v>
       </c>
       <c r="D74"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -2600,9 +2724,11 @@
         <v>42</v>
       </c>
       <c r="D75"/>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>61</v>
       </c>
@@ -2613,9 +2739,11 @@
         <v>42</v>
       </c>
       <c r="D76"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -2626,9 +2754,11 @@
         <v>42</v>
       </c>
       <c r="D77"/>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -2640,10 +2770,10 @@
       </c>
       <c r="D78"/>
       <c r="E78" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -2655,10 +2785,10 @@
       </c>
       <c r="D79"/>
       <c r="E79" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -2670,10 +2800,10 @@
       </c>
       <c r="D80"/>
       <c r="E80" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -2684,9 +2814,11 @@
         <v>42</v>
       </c>
       <c r="D81"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -2697,9 +2829,11 @@
         <v>42</v>
       </c>
       <c r="D82"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -2710,9 +2844,11 @@
         <v>42</v>
       </c>
       <c r="D83"/>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>63</v>
       </c>
@@ -2723,9 +2859,11 @@
         <v>42</v>
       </c>
       <c r="D84"/>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>63</v>
       </c>
@@ -2736,9 +2874,11 @@
         <v>42</v>
       </c>
       <c r="D85"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>63</v>
       </c>
@@ -2749,9 +2889,11 @@
         <v>42</v>
       </c>
       <c r="D86"/>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>63</v>
       </c>
@@ -2762,9 +2904,11 @@
         <v>42</v>
       </c>
       <c r="D87"/>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>63</v>
       </c>
@@ -2776,10 +2920,10 @@
       </c>
       <c r="D88"/>
       <c r="E88" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>63</v>
       </c>
@@ -2791,10 +2935,10 @@
       </c>
       <c r="D89"/>
       <c r="E89" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -2806,10 +2950,10 @@
       </c>
       <c r="D90"/>
       <c r="E90" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>64</v>
       </c>
@@ -2820,9 +2964,11 @@
         <v>42</v>
       </c>
       <c r="D91"/>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -2833,9 +2979,11 @@
         <v>43</v>
       </c>
       <c r="D92"/>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -2846,9 +2994,11 @@
         <v>43</v>
       </c>
       <c r="D93"/>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -2859,9 +3009,11 @@
         <v>43</v>
       </c>
       <c r="D94"/>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -2872,9 +3024,11 @@
         <v>43</v>
       </c>
       <c r="D95"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -2885,9 +3039,11 @@
         <v>43</v>
       </c>
       <c r="D96"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>67</v>
       </c>
@@ -2898,9 +3054,11 @@
         <v>43</v>
       </c>
       <c r="D97"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>68</v>
       </c>
@@ -2911,9 +3069,11 @@
         <v>43</v>
       </c>
       <c r="D98"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -2924,9 +3084,11 @@
         <v>43</v>
       </c>
       <c r="D99"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>68</v>
       </c>
@@ -2937,9 +3099,11 @@
         <v>43</v>
       </c>
       <c r="D100"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>69</v>
       </c>
@@ -2950,9 +3114,11 @@
         <v>43</v>
       </c>
       <c r="D101"/>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>69</v>
       </c>
@@ -2963,9 +3129,11 @@
         <v>43</v>
       </c>
       <c r="D102"/>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -2976,9 +3144,11 @@
         <v>43</v>
       </c>
       <c r="D103"/>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -2989,9 +3159,11 @@
         <v>43</v>
       </c>
       <c r="D104"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>70</v>
       </c>
@@ -3002,9 +3174,11 @@
         <v>43</v>
       </c>
       <c r="D105"/>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -3015,9 +3189,11 @@
         <v>43</v>
       </c>
       <c r="D106"/>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>71</v>
       </c>
@@ -3028,9 +3204,11 @@
         <v>43</v>
       </c>
       <c r="D107"/>
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>71</v>
       </c>
@@ -3041,9 +3219,11 @@
         <v>43</v>
       </c>
       <c r="D108"/>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>71</v>
       </c>
@@ -3054,9 +3234,11 @@
         <v>43</v>
       </c>
       <c r="D109"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>74</v>
       </c>
@@ -3067,9 +3249,11 @@
         <v>43</v>
       </c>
       <c r="D110"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>74</v>
       </c>
@@ -3080,9 +3264,11 @@
         <v>43</v>
       </c>
       <c r="D111"/>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>74</v>
       </c>
@@ -3093,10 +3279,12 @@
         <v>43</v>
       </c>
       <c r="D112"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1">
+        <v>7</v>
+      </c>
       <c r="F112"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>74</v>
       </c>
@@ -3108,11 +3296,11 @@
       </c>
       <c r="D113"/>
       <c r="E113" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F113"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>74</v>
       </c>
@@ -3124,11 +3312,11 @@
       </c>
       <c r="D114"/>
       <c r="E114" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F114"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>74</v>
       </c>
@@ -3140,10 +3328,10 @@
       </c>
       <c r="D115"/>
       <c r="E115" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>72</v>
       </c>
@@ -3154,9 +3342,11 @@
         <v>43</v>
       </c>
       <c r="D116"/>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>72</v>
       </c>
@@ -3167,9 +3357,11 @@
         <v>43</v>
       </c>
       <c r="D117"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -3180,9 +3372,11 @@
         <v>43</v>
       </c>
       <c r="D118"/>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>73</v>
       </c>
@@ -3193,9 +3387,11 @@
         <v>43</v>
       </c>
       <c r="D119"/>
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>73</v>
       </c>
@@ -3206,9 +3402,11 @@
         <v>43</v>
       </c>
       <c r="D120"/>
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>73</v>
       </c>
@@ -3219,9 +3417,11 @@
         <v>43</v>
       </c>
       <c r="D121"/>
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>75</v>
       </c>
@@ -3232,9 +3432,11 @@
         <v>43</v>
       </c>
       <c r="D122"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>75</v>
       </c>
@@ -3245,9 +3447,11 @@
         <v>43</v>
       </c>
       <c r="D123"/>
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>75</v>
       </c>
@@ -3258,9 +3462,11 @@
         <v>43</v>
       </c>
       <c r="D124"/>
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -3271,9 +3477,11 @@
         <v>43</v>
       </c>
       <c r="D125"/>
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>76</v>
       </c>
@@ -3284,9 +3492,11 @@
         <v>43</v>
       </c>
       <c r="D126"/>
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>76</v>
       </c>
@@ -3297,9 +3507,11 @@
         <v>43</v>
       </c>
       <c r="D127"/>
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>77</v>
       </c>
@@ -3310,9 +3522,11 @@
         <v>43</v>
       </c>
       <c r="D128"/>
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E128" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -3323,9 +3537,11 @@
         <v>43</v>
       </c>
       <c r="D129"/>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E129" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -3336,9 +3552,11 @@
         <v>43</v>
       </c>
       <c r="D130"/>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E130" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>80</v>
       </c>
@@ -3349,9 +3567,11 @@
         <v>43</v>
       </c>
       <c r="D131"/>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E131" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>80</v>
       </c>
@@ -3362,9 +3582,11 @@
         <v>43</v>
       </c>
       <c r="D132"/>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E132" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -3375,10 +3597,12 @@
         <v>43</v>
       </c>
       <c r="D133"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1">
+        <v>6</v>
+      </c>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>78</v>
       </c>
@@ -3389,10 +3613,12 @@
         <v>43</v>
       </c>
       <c r="D134"/>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1">
+        <v>5</v>
+      </c>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>78</v>
       </c>
@@ -3403,10 +3629,12 @@
         <v>43</v>
       </c>
       <c r="D135"/>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1">
+        <v>5</v>
+      </c>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>78</v>
       </c>
@@ -3417,10 +3645,12 @@
         <v>43</v>
       </c>
       <c r="D136"/>
-      <c r="E136" s="1"/>
+      <c r="E136" s="1">
+        <v>5</v>
+      </c>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>79</v>
       </c>
@@ -3431,10 +3661,12 @@
         <v>43</v>
       </c>
       <c r="D137"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="1">
+        <v>5</v>
+      </c>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>79</v>
       </c>
@@ -3445,10 +3677,12 @@
         <v>43</v>
       </c>
       <c r="D138"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1">
+        <v>5</v>
+      </c>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -3459,10 +3693,12 @@
         <v>43</v>
       </c>
       <c r="D139"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1">
+        <v>5</v>
+      </c>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -3473,10 +3709,12 @@
         <v>43</v>
       </c>
       <c r="D140"/>
-      <c r="E140" s="1"/>
+      <c r="E140" s="1">
+        <v>6</v>
+      </c>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>81</v>
       </c>
@@ -3487,10 +3725,12 @@
         <v>43</v>
       </c>
       <c r="D141"/>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1">
+        <v>6</v>
+      </c>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>81</v>
       </c>
@@ -3501,10 +3741,12 @@
         <v>43</v>
       </c>
       <c r="D142"/>
-      <c r="E142" s="1"/>
+      <c r="E142" s="1">
+        <v>6</v>
+      </c>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>81</v>
       </c>
@@ -3516,11 +3758,11 @@
       </c>
       <c r="D143"/>
       <c r="E143" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>81</v>
       </c>
@@ -3532,11 +3774,11 @@
       </c>
       <c r="D144"/>
       <c r="E144" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>81</v>
       </c>
@@ -3548,11 +3790,11 @@
       </c>
       <c r="D145"/>
       <c r="E145" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>82</v>
       </c>
@@ -3563,10 +3805,12 @@
         <v>43</v>
       </c>
       <c r="D146"/>
-      <c r="E146" s="1"/>
+      <c r="E146" s="1">
+        <v>3</v>
+      </c>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>82</v>
       </c>
@@ -3577,10 +3821,12 @@
         <v>43</v>
       </c>
       <c r="D147"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="1">
+        <v>3</v>
+      </c>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>82</v>
       </c>
@@ -3591,10 +3837,12 @@
         <v>43</v>
       </c>
       <c r="D148"/>
-      <c r="E148" s="1"/>
+      <c r="E148" s="1">
+        <v>3</v>
+      </c>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>83</v>
       </c>
@@ -3605,10 +3853,12 @@
         <v>43</v>
       </c>
       <c r="D149"/>
-      <c r="E149" s="1"/>
+      <c r="E149" s="1">
+        <v>4</v>
+      </c>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>83</v>
       </c>
@@ -3619,10 +3869,12 @@
         <v>43</v>
       </c>
       <c r="D150"/>
-      <c r="E150" s="1"/>
+      <c r="E150" s="1">
+        <v>4</v>
+      </c>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>83</v>
       </c>
@@ -3633,10 +3885,12 @@
         <v>43</v>
       </c>
       <c r="D151"/>
-      <c r="E151" s="1"/>
+      <c r="E151" s="1">
+        <v>4</v>
+      </c>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>84</v>
       </c>
@@ -3647,10 +3901,12 @@
         <v>43</v>
       </c>
       <c r="D152"/>
-      <c r="E152" s="1"/>
+      <c r="E152" s="1">
+        <v>4</v>
+      </c>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>84</v>
       </c>
@@ -3661,10 +3917,12 @@
         <v>43</v>
       </c>
       <c r="D153"/>
-      <c r="E153" s="1"/>
+      <c r="E153" s="1">
+        <v>4</v>
+      </c>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>84</v>
       </c>
@@ -3675,10 +3933,12 @@
         <v>43</v>
       </c>
       <c r="D154"/>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1">
+        <v>4</v>
+      </c>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>85</v>
       </c>
@@ -3689,10 +3949,12 @@
         <v>43</v>
       </c>
       <c r="D155"/>
-      <c r="E155" s="1"/>
+      <c r="E155" s="1">
+        <v>5</v>
+      </c>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>85</v>
       </c>
@@ -3703,9 +3965,11 @@
         <v>43</v>
       </c>
       <c r="D156"/>
-      <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E156" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>85</v>
       </c>
@@ -3716,9 +3980,11 @@
         <v>43</v>
       </c>
       <c r="D157"/>
-      <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E157" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>86</v>
       </c>
@@ -3729,9 +3995,11 @@
         <v>43</v>
       </c>
       <c r="D158"/>
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>86</v>
       </c>
@@ -3742,9 +4010,11 @@
         <v>43</v>
       </c>
       <c r="D159"/>
-      <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E159" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>86</v>
       </c>
@@ -3755,9 +4025,11 @@
         <v>43</v>
       </c>
       <c r="D160"/>
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>87</v>
       </c>
@@ -3768,9 +4040,11 @@
         <v>43</v>
       </c>
       <c r="D161"/>
-      <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E161" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>87</v>
       </c>
@@ -3781,9 +4055,11 @@
         <v>43</v>
       </c>
       <c r="D162"/>
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>87</v>
       </c>
@@ -3794,9 +4070,11 @@
         <v>43</v>
       </c>
       <c r="D163"/>
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E163" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>88</v>
       </c>
@@ -3807,9 +4085,11 @@
         <v>43</v>
       </c>
       <c r="D164"/>
-      <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>88</v>
       </c>
@@ -3820,9 +4100,11 @@
         <v>43</v>
       </c>
       <c r="D165"/>
-      <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E165" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>88</v>
       </c>
@@ -3833,9 +4115,11 @@
         <v>43</v>
       </c>
       <c r="D166"/>
-      <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -3846,9 +4130,11 @@
         <v>43</v>
       </c>
       <c r="D167"/>
-      <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E167" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -3859,9 +4145,11 @@
         <v>43</v>
       </c>
       <c r="D168"/>
-      <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -3872,9 +4160,11 @@
         <v>43</v>
       </c>
       <c r="D169"/>
-      <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E169" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>90</v>
       </c>
@@ -3885,9 +4175,11 @@
         <v>43</v>
       </c>
       <c r="D170"/>
-      <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -3898,9 +4190,11 @@
         <v>43</v>
       </c>
       <c r="D171"/>
-      <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E171" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -3911,9 +4205,11 @@
         <v>43</v>
       </c>
       <c r="D172"/>
-      <c r="E172" s="1"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>91</v>
       </c>
@@ -3924,9 +4220,11 @@
         <v>43</v>
       </c>
       <c r="D173"/>
-      <c r="E173" s="1"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E173" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>91</v>
       </c>
@@ -3937,9 +4235,11 @@
         <v>43</v>
       </c>
       <c r="D174"/>
-      <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E174" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>91</v>
       </c>
@@ -3950,9 +4250,11 @@
         <v>43</v>
       </c>
       <c r="D175"/>
-      <c r="E175" s="1"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E175" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>68</v>
       </c>
@@ -3963,9 +4265,11 @@
         <v>43</v>
       </c>
       <c r="D176"/>
-      <c r="E176" s="1"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E176" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>68</v>
       </c>
@@ -3976,9 +4280,11 @@
         <v>43</v>
       </c>
       <c r="D177"/>
-      <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E177" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>68</v>
       </c>
@@ -3989,9 +4295,11 @@
         <v>43</v>
       </c>
       <c r="D178"/>
-      <c r="E178" s="1"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E178" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>92</v>
       </c>
@@ -4002,9 +4310,11 @@
         <v>43</v>
       </c>
       <c r="D179"/>
-      <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E179" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>92</v>
       </c>
@@ -4015,9 +4325,11 @@
         <v>43</v>
       </c>
       <c r="D180"/>
-      <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E180" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>92</v>
       </c>
@@ -4028,9 +4340,11 @@
         <v>43</v>
       </c>
       <c r="D181"/>
-      <c r="E181" s="1"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E181" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>93</v>
       </c>
@@ -4041,9 +4355,11 @@
         <v>43</v>
       </c>
       <c r="D182"/>
-      <c r="E182" s="1"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E182" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>93</v>
       </c>
@@ -4054,9 +4370,11 @@
         <v>43</v>
       </c>
       <c r="D183"/>
-      <c r="E183" s="1"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E183" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>93</v>
       </c>
@@ -4067,9 +4385,11 @@
         <v>43</v>
       </c>
       <c r="D184"/>
-      <c r="E184" s="1"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E184" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>94</v>
       </c>
@@ -4080,9 +4400,11 @@
         <v>43</v>
       </c>
       <c r="D185"/>
-      <c r="E185" s="1"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E185" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>94</v>
       </c>
@@ -4093,9 +4415,11 @@
         <v>43</v>
       </c>
       <c r="D186"/>
-      <c r="E186" s="1"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E186" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>94</v>
       </c>
@@ -4106,9 +4430,11 @@
         <v>43</v>
       </c>
       <c r="D187"/>
-      <c r="E187" s="1"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E187" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>95</v>
       </c>
@@ -4119,9 +4445,11 @@
         <v>43</v>
       </c>
       <c r="D188"/>
-      <c r="E188" s="1"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E188" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>95</v>
       </c>
@@ -4132,9 +4460,11 @@
         <v>43</v>
       </c>
       <c r="D189"/>
-      <c r="E189" s="1"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E189" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>95</v>
       </c>
@@ -4145,9 +4475,11 @@
         <v>43</v>
       </c>
       <c r="D190"/>
-      <c r="E190" s="1"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E190" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>96</v>
       </c>
@@ -4158,9 +4490,11 @@
         <v>43</v>
       </c>
       <c r="D191"/>
-      <c r="E191" s="1"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E191" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>96</v>
       </c>
@@ -4171,9 +4505,11 @@
         <v>43</v>
       </c>
       <c r="D192"/>
-      <c r="E192" s="1"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E192" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>96</v>
       </c>
@@ -4184,9 +4520,11 @@
         <v>43</v>
       </c>
       <c r="D193"/>
-      <c r="E193" s="1"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E193" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>97</v>
       </c>
@@ -4197,9 +4535,11 @@
         <v>43</v>
       </c>
       <c r="D194"/>
-      <c r="E194" s="1"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E194" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>97</v>
       </c>
@@ -4210,9 +4550,11 @@
         <v>43</v>
       </c>
       <c r="D195"/>
-      <c r="E195" s="1"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E195" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>97</v>
       </c>
@@ -4223,9 +4565,11 @@
         <v>43</v>
       </c>
       <c r="D196"/>
-      <c r="E196" s="1"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E196" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>98</v>
       </c>
@@ -4236,9 +4580,11 @@
         <v>43</v>
       </c>
       <c r="D197"/>
-      <c r="E197" s="1"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>98</v>
       </c>
@@ -4249,9 +4595,11 @@
         <v>43</v>
       </c>
       <c r="D198"/>
-      <c r="E198" s="1"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E198" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>98</v>
       </c>
@@ -4262,9 +4610,11 @@
         <v>43</v>
       </c>
       <c r="D199"/>
-      <c r="E199" s="1"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E199" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>99</v>
       </c>
@@ -4275,9 +4625,11 @@
         <v>43</v>
       </c>
       <c r="D200"/>
-      <c r="E200" s="1"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E200" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>99</v>
       </c>
@@ -4288,9 +4640,11 @@
         <v>43</v>
       </c>
       <c r="D201"/>
-      <c r="E201" s="1"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E201" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>99</v>
       </c>
@@ -4301,9 +4655,11 @@
         <v>43</v>
       </c>
       <c r="D202"/>
-      <c r="E202" s="1"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E202" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>100</v>
       </c>
@@ -4314,9 +4670,11 @@
         <v>43</v>
       </c>
       <c r="D203"/>
-      <c r="E203" s="1"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E203" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>100</v>
       </c>
@@ -4327,9 +4685,11 @@
         <v>43</v>
       </c>
       <c r="D204"/>
-      <c r="E204" s="1"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E204" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>100</v>
       </c>
@@ -4340,9 +4700,11 @@
         <v>43</v>
       </c>
       <c r="D205"/>
-      <c r="E205" s="1"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E205" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>101</v>
       </c>
@@ -4353,9 +4715,11 @@
         <v>43</v>
       </c>
       <c r="D206"/>
-      <c r="E206" s="1"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E206" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>101</v>
       </c>
@@ -4366,9 +4730,11 @@
         <v>43</v>
       </c>
       <c r="D207"/>
-      <c r="E207" s="1"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E207" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>101</v>
       </c>
@@ -4379,9 +4745,11 @@
         <v>43</v>
       </c>
       <c r="D208"/>
-      <c r="E208" s="1"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E208" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>102</v>
       </c>
@@ -4392,9 +4760,11 @@
         <v>43</v>
       </c>
       <c r="D209"/>
-      <c r="E209" s="1"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E209" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>102</v>
       </c>
@@ -4405,9 +4775,11 @@
         <v>43</v>
       </c>
       <c r="D210"/>
-      <c r="E210" s="1"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E210" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>102</v>
       </c>
@@ -4418,9 +4790,11 @@
         <v>43</v>
       </c>
       <c r="D211"/>
-      <c r="E211" s="1"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E211" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>103</v>
       </c>
@@ -4431,9 +4805,11 @@
         <v>43</v>
       </c>
       <c r="D212"/>
-      <c r="E212" s="1"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E212" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>103</v>
       </c>
@@ -4444,9 +4820,11 @@
         <v>43</v>
       </c>
       <c r="D213"/>
-      <c r="E213" s="1"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E213" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>103</v>
       </c>
@@ -4457,9 +4835,11 @@
         <v>43</v>
       </c>
       <c r="D214"/>
-      <c r="E214" s="1"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E214" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>103</v>
       </c>
@@ -4471,10 +4851,10 @@
       </c>
       <c r="D215"/>
       <c r="E215" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>103</v>
       </c>
@@ -4486,10 +4866,10 @@
       </c>
       <c r="D216"/>
       <c r="E216" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>104</v>
       </c>
@@ -4500,9 +4880,11 @@
         <v>43</v>
       </c>
       <c r="D217"/>
-      <c r="E217" s="1"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>104</v>
       </c>
@@ -4513,9 +4895,11 @@
         <v>43</v>
       </c>
       <c r="D218"/>
-      <c r="E218" s="1"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>104</v>
       </c>
@@ -4526,9 +4910,11 @@
         <v>43</v>
       </c>
       <c r="D219"/>
-      <c r="E219" s="1"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>105</v>
       </c>
@@ -4539,9 +4925,11 @@
         <v>43</v>
       </c>
       <c r="D220"/>
-      <c r="E220" s="1"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E220" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>105</v>
       </c>
@@ -4552,9 +4940,11 @@
         <v>43</v>
       </c>
       <c r="D221"/>
-      <c r="E221" s="1"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E221" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>105</v>
       </c>
@@ -4565,9 +4955,11 @@
         <v>43</v>
       </c>
       <c r="D222"/>
-      <c r="E222" s="1"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E222" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>106</v>
       </c>
@@ -4578,9 +4970,11 @@
         <v>43</v>
       </c>
       <c r="D223"/>
-      <c r="E223" s="1"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E223" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>106</v>
       </c>
@@ -4591,9 +4985,11 @@
         <v>43</v>
       </c>
       <c r="D224"/>
-      <c r="E224" s="1"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E224" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>106</v>
       </c>
@@ -4604,9 +5000,11 @@
         <v>43</v>
       </c>
       <c r="D225"/>
-      <c r="E225" s="1"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E225" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>108</v>
       </c>
@@ -4617,9 +5015,11 @@
         <v>43</v>
       </c>
       <c r="D226"/>
-      <c r="E226" s="1"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E226" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>108</v>
       </c>
@@ -4630,9 +5030,11 @@
         <v>43</v>
       </c>
       <c r="D227"/>
-      <c r="E227" s="1"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E227" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>108</v>
       </c>
@@ -4643,9 +5045,11 @@
         <v>43</v>
       </c>
       <c r="D228"/>
-      <c r="E228" s="1"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E228" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>107</v>
       </c>
@@ -4656,9 +5060,11 @@
         <v>43</v>
       </c>
       <c r="D229"/>
-      <c r="E229" s="1"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E229" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>107</v>
       </c>
@@ -4669,9 +5075,11 @@
         <v>43</v>
       </c>
       <c r="D230"/>
-      <c r="E230" s="1"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>107</v>
       </c>
@@ -4682,9 +5090,11 @@
         <v>43</v>
       </c>
       <c r="D231"/>
-      <c r="E231" s="1"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E231" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>109</v>
       </c>
@@ -4695,9 +5105,11 @@
         <v>43</v>
       </c>
       <c r="D232"/>
-      <c r="E232" s="1"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E232" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>109</v>
       </c>
@@ -4708,9 +5120,11 @@
         <v>43</v>
       </c>
       <c r="D233"/>
-      <c r="E233" s="1"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E233" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>109</v>
       </c>
@@ -4721,9 +5135,11 @@
         <v>43</v>
       </c>
       <c r="D234"/>
-      <c r="E234" s="1"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E234" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>110</v>
       </c>
@@ -4734,9 +5150,11 @@
         <v>43</v>
       </c>
       <c r="D235"/>
-      <c r="E235" s="1"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E235" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>110</v>
       </c>
@@ -4747,9 +5165,11 @@
         <v>43</v>
       </c>
       <c r="D236"/>
-      <c r="E236" s="1"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E236" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>110</v>
       </c>
@@ -4760,9 +5180,11 @@
         <v>43</v>
       </c>
       <c r="D237"/>
-      <c r="E237" s="1"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E237" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>111</v>
       </c>
@@ -4773,9 +5195,11 @@
         <v>43</v>
       </c>
       <c r="D238"/>
-      <c r="E238" s="1"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E238" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>111</v>
       </c>
@@ -4786,9 +5210,11 @@
         <v>43</v>
       </c>
       <c r="D239"/>
-      <c r="E239" s="1"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>111</v>
       </c>
@@ -4799,9 +5225,11 @@
         <v>43</v>
       </c>
       <c r="D240"/>
-      <c r="E240" s="1"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E240" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>112</v>
       </c>
@@ -4812,9 +5240,11 @@
         <v>43</v>
       </c>
       <c r="D241"/>
-      <c r="E241" s="1"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E241" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>112</v>
       </c>
@@ -4825,9 +5255,11 @@
         <v>43</v>
       </c>
       <c r="D242"/>
-      <c r="E242" s="1"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E242" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>112</v>
       </c>
@@ -4838,9 +5270,11 @@
         <v>43</v>
       </c>
       <c r="D243"/>
-      <c r="E243" s="1"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E243" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>113</v>
       </c>
@@ -4851,9 +5285,11 @@
         <v>43</v>
       </c>
       <c r="D244"/>
-      <c r="E244" s="1"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>113</v>
       </c>
@@ -4864,9 +5300,11 @@
         <v>43</v>
       </c>
       <c r="D245"/>
-      <c r="E245" s="1"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E245" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>113</v>
       </c>
@@ -4877,9 +5315,11 @@
         <v>43</v>
       </c>
       <c r="D246"/>
-      <c r="E246" s="1"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E246" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>114</v>
       </c>
@@ -4890,9 +5330,11 @@
         <v>43</v>
       </c>
       <c r="D247"/>
-      <c r="E247" s="1"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>114</v>
       </c>
@@ -4903,9 +5345,11 @@
         <v>43</v>
       </c>
       <c r="D248"/>
-      <c r="E248" s="1"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>114</v>
       </c>
@@ -4916,9 +5360,11 @@
         <v>43</v>
       </c>
       <c r="D249"/>
-      <c r="E249" s="1"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E249" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>115</v>
       </c>
@@ -4929,9 +5375,11 @@
         <v>43</v>
       </c>
       <c r="D250"/>
-      <c r="E250" s="1"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E250" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>115</v>
       </c>
@@ -4942,9 +5390,11 @@
         <v>43</v>
       </c>
       <c r="D251"/>
-      <c r="E251" s="1"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E251" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>115</v>
       </c>
@@ -4955,9 +5405,11 @@
         <v>43</v>
       </c>
       <c r="D252"/>
-      <c r="E252" s="1"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E252" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>116</v>
       </c>
@@ -4968,9 +5420,11 @@
         <v>43</v>
       </c>
       <c r="D253"/>
-      <c r="E253" s="1"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>116</v>
       </c>
@@ -4981,9 +5435,11 @@
         <v>43</v>
       </c>
       <c r="D254"/>
-      <c r="E254" s="1"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E254" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>116</v>
       </c>
@@ -4994,9 +5450,11 @@
         <v>43</v>
       </c>
       <c r="D255"/>
-      <c r="E255" s="1"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E255" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>117</v>
       </c>
@@ -5007,9 +5465,11 @@
         <v>43</v>
       </c>
       <c r="D256"/>
-      <c r="E256" s="1"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>117</v>
       </c>
@@ -5020,9 +5480,11 @@
         <v>43</v>
       </c>
       <c r="D257"/>
-      <c r="E257" s="1"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E257" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>117</v>
       </c>
@@ -5033,9 +5495,11 @@
         <v>43</v>
       </c>
       <c r="D258"/>
-      <c r="E258" s="1"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E258" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>118</v>
       </c>
@@ -5046,9 +5510,11 @@
         <v>43</v>
       </c>
       <c r="D259"/>
-      <c r="E259" s="1"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E259" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>118</v>
       </c>
@@ -5059,9 +5525,11 @@
         <v>43</v>
       </c>
       <c r="D260"/>
-      <c r="E260" s="1"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E260" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>118</v>
       </c>
@@ -5072,9 +5540,11 @@
         <v>43</v>
       </c>
       <c r="D261"/>
-      <c r="E261" s="1"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E261" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>119</v>
       </c>
@@ -5085,9 +5555,11 @@
         <v>43</v>
       </c>
       <c r="D262"/>
-      <c r="E262" s="1"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E262" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>119</v>
       </c>
@@ -5098,9 +5570,11 @@
         <v>43</v>
       </c>
       <c r="D263"/>
-      <c r="E263" s="1"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E263" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>119</v>
       </c>
@@ -5111,9 +5585,11 @@
         <v>43</v>
       </c>
       <c r="D264"/>
-      <c r="E264" s="1"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E264" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>120</v>
       </c>
@@ -5124,9 +5600,11 @@
         <v>43</v>
       </c>
       <c r="D265"/>
-      <c r="E265" s="1"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E265" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>120</v>
       </c>
@@ -5137,9 +5615,11 @@
         <v>43</v>
       </c>
       <c r="D266"/>
-      <c r="E266" s="1"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E266" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>120</v>
       </c>
@@ -5150,9 +5630,11 @@
         <v>43</v>
       </c>
       <c r="D267"/>
-      <c r="E267" s="1"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E267" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>121</v>
       </c>
@@ -5163,9 +5645,11 @@
         <v>43</v>
       </c>
       <c r="D268"/>
-      <c r="E268" s="1"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E268" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>121</v>
       </c>
@@ -5176,9 +5660,11 @@
         <v>43</v>
       </c>
       <c r="D269"/>
-      <c r="E269" s="1"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E269" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>121</v>
       </c>
@@ -5189,9 +5675,11 @@
         <v>43</v>
       </c>
       <c r="D270"/>
-      <c r="E270" s="1"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>122</v>
       </c>
@@ -5202,9 +5690,11 @@
         <v>43</v>
       </c>
       <c r="D271"/>
-      <c r="E271" s="1"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>122</v>
       </c>
@@ -5215,9 +5705,11 @@
         <v>43</v>
       </c>
       <c r="D272"/>
-      <c r="E272" s="1"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E272" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>122</v>
       </c>
@@ -5228,9 +5720,11 @@
         <v>43</v>
       </c>
       <c r="D273"/>
-      <c r="E273" s="1"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E273" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>123</v>
       </c>
@@ -5241,9 +5735,11 @@
         <v>43</v>
       </c>
       <c r="D274"/>
-      <c r="E274" s="1"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E274" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>123</v>
       </c>
@@ -5254,9 +5750,11 @@
         <v>43</v>
       </c>
       <c r="D275"/>
-      <c r="E275" s="1"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E275" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>123</v>
       </c>
@@ -5267,9 +5765,11 @@
         <v>43</v>
       </c>
       <c r="D276"/>
-      <c r="E276" s="1"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E276" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>123</v>
       </c>
@@ -5281,10 +5781,10 @@
       </c>
       <c r="D277"/>
       <c r="E277" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>123</v>
       </c>
@@ -5296,10 +5796,10 @@
       </c>
       <c r="D278"/>
       <c r="E278" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>123</v>
       </c>
@@ -5311,10 +5811,10 @@
       </c>
       <c r="D279"/>
       <c r="E279" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>124</v>
       </c>
@@ -5325,9 +5825,11 @@
         <v>43</v>
       </c>
       <c r="D280"/>
-      <c r="E280" s="1"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E280" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>124</v>
       </c>
@@ -5338,9 +5840,11 @@
         <v>43</v>
       </c>
       <c r="D281"/>
-      <c r="E281" s="1"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E281" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>124</v>
       </c>
@@ -5351,9 +5855,11 @@
         <v>43</v>
       </c>
       <c r="D282"/>
-      <c r="E282" s="1"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E282" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>125</v>
       </c>
@@ -5364,9 +5870,11 @@
         <v>43</v>
       </c>
       <c r="D283"/>
-      <c r="E283" s="1"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E283" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>125</v>
       </c>
@@ -5377,9 +5885,11 @@
         <v>43</v>
       </c>
       <c r="D284"/>
-      <c r="E284" s="1"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E284" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>125</v>
       </c>
@@ -5390,9 +5900,11 @@
         <v>43</v>
       </c>
       <c r="D285"/>
-      <c r="E285" s="1"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E285" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>126</v>
       </c>
@@ -5403,9 +5915,11 @@
         <v>43</v>
       </c>
       <c r="D286"/>
-      <c r="E286" s="1"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E286" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>126</v>
       </c>
@@ -5416,10 +5930,12 @@
         <v>43</v>
       </c>
       <c r="D287"/>
-      <c r="E287" s="1"/>
+      <c r="E287" s="1">
+        <v>3</v>
+      </c>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>126</v>
       </c>
@@ -5430,9 +5946,11 @@
         <v>43</v>
       </c>
       <c r="D288"/>
-      <c r="E288" s="1"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E288" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>127</v>
       </c>
@@ -5443,9 +5961,11 @@
         <v>43</v>
       </c>
       <c r="D289"/>
-      <c r="E289" s="1"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E289" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>127</v>
       </c>
@@ -5456,9 +5976,11 @@
         <v>43</v>
       </c>
       <c r="D290"/>
-      <c r="E290" s="1"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E290" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>127</v>
       </c>
@@ -5469,9 +5991,11 @@
         <v>43</v>
       </c>
       <c r="D291"/>
-      <c r="E291" s="1"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E291" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>128</v>
       </c>
@@ -5482,9 +6006,11 @@
         <v>43</v>
       </c>
       <c r="D292"/>
-      <c r="E292" s="1"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E292" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>128</v>
       </c>
@@ -5495,9 +6021,11 @@
         <v>43</v>
       </c>
       <c r="D293"/>
-      <c r="E293" s="1"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E293" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>128</v>
       </c>
@@ -5508,9 +6036,11 @@
         <v>43</v>
       </c>
       <c r="D294"/>
-      <c r="E294" s="1"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E294" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>129</v>
       </c>
@@ -5521,9 +6051,11 @@
         <v>43</v>
       </c>
       <c r="D295"/>
-      <c r="E295" s="1"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E295" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>129</v>
       </c>
@@ -5534,9 +6066,11 @@
         <v>43</v>
       </c>
       <c r="D296"/>
-      <c r="E296" s="1"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E296" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>129</v>
       </c>
@@ -5547,9 +6081,11 @@
         <v>43</v>
       </c>
       <c r="D297"/>
-      <c r="E297" s="1"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E297" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>130</v>
       </c>
@@ -5560,9 +6096,11 @@
         <v>43</v>
       </c>
       <c r="D298"/>
-      <c r="E298" s="1"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E298" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>130</v>
       </c>
@@ -5573,9 +6111,11 @@
         <v>43</v>
       </c>
       <c r="D299"/>
-      <c r="E299" s="1"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E299" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>130</v>
       </c>
@@ -5586,9 +6126,11 @@
         <v>43</v>
       </c>
       <c r="D300"/>
-      <c r="E300" s="1"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E300" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>131</v>
       </c>
@@ -5599,9 +6141,11 @@
         <v>43</v>
       </c>
       <c r="D301"/>
-      <c r="E301" s="1"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E301" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>131</v>
       </c>
@@ -5612,9 +6156,11 @@
         <v>43</v>
       </c>
       <c r="D302"/>
-      <c r="E302" s="1"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E302" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>131</v>
       </c>
@@ -5625,56 +6171,58 @@
         <v>43</v>
       </c>
       <c r="D303"/>
-      <c r="E303" s="1"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E303" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>132</v>
-      </c>
-      <c r="B304" s="13" t="s">
-        <v>16</v>
+        <v>204</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C304" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D304"/>
       <c r="E304" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>133</v>
-      </c>
-      <c r="B305" s="13" t="s">
-        <v>16</v>
+        <v>204</v>
+      </c>
+      <c r="B305" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C305" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D305"/>
       <c r="E305" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>134</v>
-      </c>
-      <c r="B306" s="13" t="s">
-        <v>16</v>
+        <v>204</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C306" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D306"/>
       <c r="E306" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B307" s="13" t="s">
         <v>16</v>
@@ -5687,9 +6235,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B308" s="13" t="s">
         <v>16</v>
@@ -5702,9 +6250,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B309" s="13" t="s">
         <v>16</v>
@@ -5717,9 +6265,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B310" s="13" t="s">
         <v>16</v>
@@ -5732,9 +6280,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B311" s="13" t="s">
         <v>16</v>
@@ -5747,9 +6295,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B312" s="13" t="s">
         <v>16</v>
@@ -5762,9 +6310,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B313" s="13" t="s">
         <v>16</v>
@@ -5777,9 +6325,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B314" s="13" t="s">
         <v>16</v>
@@ -5792,9 +6340,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B315" s="13" t="s">
         <v>16</v>
@@ -5807,9 +6355,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B316" s="13" t="s">
         <v>16</v>
@@ -5822,9 +6370,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B317" s="13" t="s">
         <v>16</v>
@@ -5837,9 +6385,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B318" s="13" t="s">
         <v>16</v>
@@ -5852,54 +6400,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>176</v>
-      </c>
-      <c r="B319" s="11" t="s">
-        <v>15</v>
+        <v>145</v>
+      </c>
+      <c r="B319" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C319" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D319"/>
       <c r="E319" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>175</v>
-      </c>
-      <c r="B320" s="11" t="s">
-        <v>15</v>
+        <v>146</v>
+      </c>
+      <c r="B320" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C320" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D320"/>
       <c r="E320" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>177</v>
-      </c>
-      <c r="B321" s="11" t="s">
-        <v>15</v>
+        <v>147</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C321" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D321"/>
       <c r="E321" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B322" s="11" t="s">
         <v>15</v>
@@ -5909,12 +6457,12 @@
       </c>
       <c r="D322"/>
       <c r="E322" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B323" s="11" t="s">
         <v>15</v>
@@ -5924,12 +6472,12 @@
       </c>
       <c r="D323"/>
       <c r="E323" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B324" s="11" t="s">
         <v>15</v>
@@ -5939,12 +6487,12 @@
       </c>
       <c r="D324"/>
       <c r="E324" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B325" s="11" t="s">
         <v>15</v>
@@ -5954,12 +6502,12 @@
       </c>
       <c r="D325"/>
       <c r="E325" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>15</v>
@@ -5969,12 +6517,12 @@
       </c>
       <c r="D326"/>
       <c r="E326" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B327" s="11" t="s">
         <v>15</v>
@@ -5987,9 +6535,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B328" s="11" t="s">
         <v>15</v>
@@ -5999,12 +6547,12 @@
       </c>
       <c r="D328"/>
       <c r="E328" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>15</v>
@@ -6014,12 +6562,12 @@
       </c>
       <c r="D329"/>
       <c r="E329" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B330" s="11" t="s">
         <v>15</v>
@@ -6029,12 +6577,12 @@
       </c>
       <c r="D330"/>
       <c r="E330" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B331" s="11" t="s">
         <v>15</v>
@@ -6044,12 +6592,12 @@
       </c>
       <c r="D331"/>
       <c r="E331" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B332" s="11" t="s">
         <v>15</v>
@@ -6059,12 +6607,12 @@
       </c>
       <c r="D332"/>
       <c r="E332" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>15</v>
@@ -6074,12 +6622,12 @@
       </c>
       <c r="D333"/>
       <c r="E333" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B334" s="11" t="s">
         <v>15</v>
@@ -6089,12 +6637,12 @@
       </c>
       <c r="D334"/>
       <c r="E334" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B335" s="11" t="s">
         <v>15</v>
@@ -6104,12 +6652,12 @@
       </c>
       <c r="D335"/>
       <c r="E335" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B336" s="11" t="s">
         <v>15</v>
@@ -6119,12 +6667,12 @@
       </c>
       <c r="D336"/>
       <c r="E336" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B337" s="11" t="s">
         <v>15</v>
@@ -6134,12 +6682,12 @@
       </c>
       <c r="D337"/>
       <c r="E337" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B338" s="11" t="s">
         <v>15</v>
@@ -6152,9 +6700,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B339" s="11" t="s">
         <v>15</v>
@@ -6164,12 +6712,12 @@
       </c>
       <c r="D339"/>
       <c r="E339" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B340" s="11" t="s">
         <v>15</v>
@@ -6179,12 +6727,12 @@
       </c>
       <c r="D340"/>
       <c r="E340" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B341" s="11" t="s">
         <v>15</v>
@@ -6197,9 +6745,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B342" s="11" t="s">
         <v>15</v>
@@ -6209,12 +6757,12 @@
       </c>
       <c r="D342"/>
       <c r="E342" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B343" s="11" t="s">
         <v>15</v>
@@ -6224,12 +6772,12 @@
       </c>
       <c r="D343"/>
       <c r="E343" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
-        <v>200</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>196</v>
       </c>
       <c r="B344" s="11" t="s">
         <v>15</v>
@@ -6239,12 +6787,12 @@
       </c>
       <c r="D344"/>
       <c r="E344" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>202</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>197</v>
       </c>
       <c r="B345" s="11" t="s">
         <v>15</v>
@@ -6254,12 +6802,12 @@
       </c>
       <c r="D345"/>
       <c r="E345" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>203</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>198</v>
       </c>
       <c r="B346" s="11" t="s">
         <v>15</v>
@@ -6269,57 +6817,57 @@
       </c>
       <c r="D346"/>
       <c r="E346" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C347" t="s">
+        <v>149</v>
+      </c>
+      <c r="D347"/>
+      <c r="E347" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C348" t="s">
+        <v>149</v>
+      </c>
+      <c r="D348"/>
+      <c r="E348" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C349" t="s">
+        <v>149</v>
+      </c>
+      <c r="D349"/>
+      <c r="E349" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>152</v>
-      </c>
-      <c r="B347" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C347" t="s">
-        <v>170</v>
-      </c>
-      <c r="D347"/>
-      <c r="E347" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>153</v>
-      </c>
-      <c r="B348" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C348" t="s">
-        <v>170</v>
-      </c>
-      <c r="D348"/>
-      <c r="E348" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>154</v>
-      </c>
-      <c r="B349" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C349" t="s">
-        <v>170</v>
-      </c>
-      <c r="D349"/>
-      <c r="E349" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>155</v>
       </c>
       <c r="B350" s="12" t="s">
         <v>12</v>
@@ -6332,9 +6880,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B351" s="12" t="s">
         <v>12</v>
@@ -6347,9 +6895,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B352" s="12" t="s">
         <v>12</v>
@@ -6362,9 +6910,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B353" s="12" t="s">
         <v>12</v>
@@ -6377,9 +6925,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B354" s="12" t="s">
         <v>12</v>
@@ -6392,9 +6940,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B355" s="12" t="s">
         <v>12</v>
@@ -6407,9 +6955,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B356" s="12" t="s">
         <v>12</v>
@@ -6422,9 +6970,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B357" s="12" t="s">
         <v>12</v>
@@ -6437,9 +6985,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B358" s="12" t="s">
         <v>12</v>
@@ -6452,9 +7000,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B359" s="12" t="s">
         <v>12</v>
@@ -6467,9 +7015,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B360" s="12" t="s">
         <v>12</v>
@@ -6482,9 +7030,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B361" s="12" t="s">
         <v>12</v>
@@ -6497,9 +7045,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B362" s="12" t="s">
         <v>12</v>
@@ -6512,9 +7060,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B363" s="12" t="s">
         <v>12</v>
@@ -6527,9 +7075,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B364" s="12" t="s">
         <v>12</v>
@@ -6542,772 +7090,684 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365"/>
-      <c r="B365"/>
-      <c r="C365"/>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>167</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365" t="s">
+        <v>170</v>
+      </c>
       <c r="D365"/>
-      <c r="E365"/>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366"/>
-      <c r="B366"/>
-      <c r="C366"/>
+      <c r="E365" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>168</v>
+      </c>
+      <c r="B366" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C366" t="s">
+        <v>170</v>
+      </c>
       <c r="D366"/>
-      <c r="E366"/>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367"/>
-      <c r="B367"/>
-      <c r="C367"/>
+      <c r="E366" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>169</v>
+      </c>
+      <c r="B367" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C367" t="s">
+        <v>170</v>
+      </c>
       <c r="D367"/>
-      <c r="E367"/>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368"/>
-      <c r="B368"/>
-      <c r="C368"/>
-      <c r="D368"/>
-      <c r="E368"/>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369"/>
-      <c r="B369"/>
-      <c r="C369"/>
-      <c r="D369"/>
-      <c r="E369"/>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370"/>
-      <c r="B370"/>
-      <c r="C370"/>
-      <c r="D370"/>
-      <c r="E370"/>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371"/>
-      <c r="B371"/>
-      <c r="C371"/>
-      <c r="D371"/>
-      <c r="E371"/>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372"/>
-      <c r="B372"/>
-      <c r="C372"/>
-      <c r="D372"/>
-      <c r="E372"/>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373"/>
-      <c r="B373"/>
-      <c r="C373"/>
-      <c r="D373"/>
-      <c r="E373"/>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374"/>
-      <c r="B374"/>
-      <c r="C374"/>
-      <c r="D374"/>
-      <c r="E374"/>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375"/>
-      <c r="B375"/>
-      <c r="C375"/>
-      <c r="D375"/>
-      <c r="E375"/>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376"/>
-      <c r="B376"/>
-      <c r="C376"/>
-      <c r="D376"/>
-      <c r="E376"/>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377"/>
-      <c r="B377"/>
-      <c r="C377"/>
-      <c r="D377"/>
-      <c r="E377"/>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378"/>
-      <c r="B378"/>
-      <c r="C378"/>
-      <c r="D378"/>
-      <c r="E378"/>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379"/>
-      <c r="B379"/>
-      <c r="C379"/>
-      <c r="D379"/>
-      <c r="E379"/>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380"/>
-      <c r="B380"/>
-      <c r="C380"/>
-      <c r="D380"/>
-      <c r="E380"/>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381"/>
-      <c r="B381"/>
-      <c r="C381"/>
-      <c r="D381"/>
-      <c r="E381"/>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382"/>
-      <c r="B382"/>
-      <c r="C382"/>
-      <c r="D382"/>
-      <c r="E382"/>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383"/>
-      <c r="B383"/>
-      <c r="C383"/>
-      <c r="D383"/>
-      <c r="E383"/>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E367" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D397"/>
       <c r="E397"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D398"/>
       <c r="E398"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D399"/>
       <c r="E399"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D400"/>
       <c r="E400"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D401"/>
       <c r="E401"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D402"/>
       <c r="E402"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D403"/>
       <c r="E403"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D404"/>
       <c r="E404"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D405"/>
       <c r="E405"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D406"/>
       <c r="E406"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D407"/>
       <c r="E407"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D408"/>
       <c r="E408"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D409"/>
       <c r="E409"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D410"/>
       <c r="E410"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D411"/>
       <c r="E411"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D412"/>
       <c r="E412"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D413"/>
       <c r="E413"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D414"/>
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
@@ -7315,7 +7775,7 @@
       <c r="E482"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
@@ -7326,7 +7786,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
@@ -7337,7 +7797,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
@@ -7348,7 +7808,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
@@ -7359,7 +7819,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
@@ -7370,7 +7830,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
@@ -7381,7 +7841,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
@@ -7392,7 +7852,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
@@ -7403,7 +7863,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
@@ -7412,7 +7872,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
@@ -7421,7 +7881,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
@@ -7430,7 +7890,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
@@ -7439,7 +7899,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
@@ -7447,14 +7907,14 @@
       <c r="E495"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
@@ -7462,7 +7922,7 @@
       <c r="E497"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
@@ -7470,7 +7930,7 @@
       <c r="E498"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
@@ -7478,324 +7938,324 @@
       <c r="E499"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
       <c r="D518"/>
       <c r="E518"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="16"/>
     </row>
-    <row r="580" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F580"/>
     </row>
-    <row r="581" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F581"/>
     </row>
-    <row r="582" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F582"/>
     </row>
-    <row r="583" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F583"/>
     </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F584"/>
     </row>
-    <row r="585" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F585"/>
     </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F586"/>
     </row>
-    <row r="587" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F587"/>
     </row>
-    <row r="588" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F588"/>
     </row>
-    <row r="589" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F589"/>
     </row>
-    <row r="590" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F590"/>
     </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F591"/>
     </row>
-    <row r="592" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F592"/>
     </row>
-    <row r="593" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F593"/>
     </row>
   </sheetData>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="206">
   <si>
     <t>ID Code</t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>F_ML_01</t>
+  </si>
+  <si>
+    <t>H_EMo_01</t>
   </si>
 </sst>
 </file>
@@ -742,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -794,6 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -1106,10 +1110,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R593"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A389" sqref="A389"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,19 +1168,19 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
+      <c r="A2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
       <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1189,19 +1194,20 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1215,18 +1221,19 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
+      <c r="D4"/>
+      <c r="E4" s="1">
+        <v>3</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>10</v>
@@ -1247,18 +1254,19 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
+      <c r="D5"/>
+      <c r="E5" s="1">
+        <v>3</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>14</v>
@@ -1279,18 +1287,19 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
+      <c r="D6"/>
+      <c r="E6" s="1">
+        <v>3</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
@@ -1311,19 +1320,19 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="D7"/>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>19</v>
@@ -1344,19 +1353,19 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
       <c r="D8"/>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>15</v>
@@ -1375,19 +1384,19 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
       </c>
       <c r="D9"/>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>12</v>
@@ -1406,19 +1415,19 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>16</v>
@@ -1438,18 +1447,18 @@
       <c r="R10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
+      <c r="A11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
@@ -1465,19 +1474,19 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12"/>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
@@ -1493,19 +1502,19 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13"/>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
@@ -1521,19 +1530,19 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14"/>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
@@ -1551,12 +1560,12 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -1579,12 +1588,12 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -1611,17 +1620,17 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
@@ -1637,9 +1646,9 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -1665,9 +1674,9 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>10</v>
@@ -1693,9 +1702,9 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>14</v>
@@ -1723,9 +1732,9 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>13</v>
@@ -1751,9 +1760,9 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>10</v>
@@ -1776,18 +1785,18 @@
       <c r="R22"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>14</v>
+      <c r="A23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23"/>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -1799,12 +1808,12 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>13</v>
+      <c r="B24" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1823,19 +1832,19 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -1847,19 +1856,19 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26"/>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -1871,19 +1880,19 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27"/>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="17"/>
@@ -1896,19 +1905,19 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28"/>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28"/>
@@ -1922,18 +1931,18 @@
       <c r="R28"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>14</v>
+      <c r="A29" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29"/>
       <c r="E29" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29"/>
@@ -1946,19 +1955,19 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30"/>
       <c r="E30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30"/>
@@ -1971,19 +1980,19 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31"/>
       <c r="E31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31"/>
@@ -1996,19 +2005,18 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D32"/>
-      <c r="E32" s="1">
-        <v>3</v>
+      <c r="E32" s="4">
+        <v>1</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
@@ -2022,19 +2030,18 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33" s="1">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -2048,19 +2055,18 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34" s="1">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -2076,13 +2082,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D35"/>
       <c r="E35" s="1">
@@ -2100,19 +2106,18 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36" s="1">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
@@ -2126,19 +2131,19 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>19</v>
+        <v>46</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
@@ -2152,63 +2157,63 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>12</v>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>16</v>
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>13</v>
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
@@ -2220,25 +2225,25 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42"/>
       <c r="E42" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>14</v>
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>40</v>
@@ -2248,12 +2253,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>11</v>
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>40</v>
@@ -2263,12 +2268,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>19</v>
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>40</v>
@@ -2278,12 +2283,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>15</v>
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C46" t="s">
         <v>40</v>
@@ -2293,42 +2298,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>12</v>
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>40</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C48" t="s">
         <v>40</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C49" t="s">
         <v>40</v>
@@ -2338,114 +2343,114 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>10</v>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="D50"/>
       <c r="E50" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51"/>
       <c r="E51" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52"/>
       <c r="E52" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>19</v>
+        <v>63</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D53"/>
       <c r="E53" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D55"/>
       <c r="E55" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D56"/>
       <c r="E56" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>13</v>
@@ -2458,9 +2463,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>59</v>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>10</v>
@@ -2473,9 +2478,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>59</v>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>14</v>
@@ -2488,27 +2493,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>11</v>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D60"/>
       <c r="E60" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C61" t="s">
         <v>40</v>
@@ -2518,12 +2524,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>15</v>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C62" t="s">
         <v>40</v>
@@ -2533,87 +2539,87 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>12</v>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C63" t="s">
         <v>40</v>
       </c>
       <c r="D63"/>
       <c r="E63" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C64" t="s">
         <v>40</v>
       </c>
       <c r="D64"/>
       <c r="E64" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66"/>
       <c r="E66" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D67"/>
       <c r="E67" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>11</v>
+      <c r="B68" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>41</v>
@@ -2623,12 +2629,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>19</v>
+      <c r="B69" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C69" t="s">
         <v>41</v>
@@ -2639,44 +2645,43 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>60</v>
+      <c r="A70" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="D70"/>
       <c r="E70" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71" s="1">
+      <c r="A71" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>16</v>
+      <c r="A72" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="D72"/>
       <c r="E72" s="1">
@@ -2684,206 +2689,206 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>13</v>
+      <c r="A73" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="D73"/>
       <c r="E73" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>10</v>
+      <c r="A74" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="D74"/>
       <c r="E74" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D75"/>
       <c r="E75" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D76"/>
       <c r="E76" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D77"/>
       <c r="E77" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D79"/>
       <c r="E79" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D80"/>
       <c r="E80" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D81"/>
       <c r="E81" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>63</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D84"/>
       <c r="E84" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>63</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>11</v>
+      <c r="B86" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>42</v>
@@ -2893,12 +2898,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>63</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>19</v>
+      <c r="B87" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C87" t="s">
         <v>42</v>
@@ -2908,12 +2913,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>63</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>15</v>
+      <c r="B88" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>42</v>
@@ -2923,37 +2928,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>12</v>
+      <c r="B89" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C89" t="s">
         <v>42</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="13" t="s">
-        <v>16</v>
+      <c r="B90" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C90" t="s">
         <v>42</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>64</v>
       </c>
@@ -2968,132 +2973,132 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>66</v>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D94"/>
       <c r="E94" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>67</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D95"/>
       <c r="E95" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>67</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D96"/>
       <c r="E96" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>67</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D97"/>
       <c r="E97" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>68</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C98" t="s">
         <v>43</v>
       </c>
       <c r="D98"/>
       <c r="E98" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>68</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D99"/>
       <c r="E99" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>68</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C100" t="s">
         <v>43</v>
@@ -3103,209 +3108,208 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>13</v>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C101" t="s">
         <v>43</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>69</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>10</v>
+        <v>188</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>69</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D103"/>
       <c r="E103" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>70</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>70</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D105"/>
       <c r="E105" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>70</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D106"/>
       <c r="E106" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>71</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C107" t="s">
         <v>43</v>
       </c>
       <c r="D107"/>
       <c r="E107" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>71</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C108" t="s">
         <v>43</v>
       </c>
       <c r="D108"/>
       <c r="E108" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>71</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C109" t="s">
         <v>43</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>74</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C110" t="s">
         <v>43</v>
       </c>
       <c r="D110"/>
       <c r="E110" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>74</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C111" t="s">
         <v>43</v>
       </c>
       <c r="D111"/>
       <c r="E111" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>74</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C112" t="s">
         <v>43</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="1">
-        <v>7</v>
-      </c>
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>74</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>15</v>
+      <c r="B113" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C113" t="s">
         <v>43</v>
       </c>
       <c r="D113"/>
       <c r="E113" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F113"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>74</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>12</v>
+      <c r="B114" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C114" t="s">
         <v>43</v>
@@ -3314,26 +3318,25 @@
       <c r="E114" s="1">
         <v>5</v>
       </c>
-      <c r="F114"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>74</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>16</v>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>43</v>
       </c>
       <c r="D115"/>
       <c r="E115" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>13</v>
@@ -3343,12 +3346,12 @@
       </c>
       <c r="D116"/>
       <c r="E116" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>10</v>
@@ -3358,12 +3361,12 @@
       </c>
       <c r="D117"/>
       <c r="E117" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>14</v>
@@ -3373,12 +3376,12 @@
       </c>
       <c r="D118"/>
       <c r="E118" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>13</v>
@@ -3388,12 +3391,12 @@
       </c>
       <c r="D119"/>
       <c r="E119" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>10</v>
@@ -3403,12 +3406,12 @@
       </c>
       <c r="D120"/>
       <c r="E120" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>14</v>
@@ -3418,12 +3421,12 @@
       </c>
       <c r="D121"/>
       <c r="E121" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>13</v>
@@ -3433,12 +3436,12 @@
       </c>
       <c r="D122"/>
       <c r="E122" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>10</v>
@@ -3448,12 +3451,12 @@
       </c>
       <c r="D123"/>
       <c r="E123" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>14</v>
@@ -3463,12 +3466,12 @@
       </c>
       <c r="D124"/>
       <c r="E124" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>13</v>
@@ -3478,12 +3481,12 @@
       </c>
       <c r="D125"/>
       <c r="E125" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>10</v>
@@ -3493,12 +3496,12 @@
       </c>
       <c r="D126"/>
       <c r="E126" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>14</v>
@@ -3508,12 +3511,12 @@
       </c>
       <c r="D127"/>
       <c r="E127" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>77</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>13</v>
@@ -3523,12 +3526,12 @@
       </c>
       <c r="D128"/>
       <c r="E128" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>77</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="B129" s="15" t="s">
         <v>10</v>
@@ -3538,12 +3541,12 @@
       </c>
       <c r="D129"/>
       <c r="E129" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>77</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>14</v>
@@ -3553,12 +3556,12 @@
       </c>
       <c r="D130"/>
       <c r="E130" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>13</v>
@@ -3568,12 +3571,12 @@
       </c>
       <c r="D131"/>
       <c r="E131" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B132" s="15" t="s">
         <v>10</v>
@@ -3583,12 +3586,12 @@
       </c>
       <c r="D132"/>
       <c r="E132" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>14</v>
@@ -3598,13 +3601,13 @@
       </c>
       <c r="D133"/>
       <c r="E133" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>13</v>
@@ -3618,9 +3621,9 @@
       </c>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B135" s="15" t="s">
         <v>10</v>
@@ -3634,9 +3637,9 @@
       </c>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>14</v>
@@ -3650,9 +3653,9 @@
       </c>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>13</v>
@@ -3662,13 +3665,13 @@
       </c>
       <c r="D137"/>
       <c r="E137" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>10</v>
@@ -3678,13 +3681,13 @@
       </c>
       <c r="D138"/>
       <c r="E138" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>14</v>
@@ -3694,13 +3697,13 @@
       </c>
       <c r="D139"/>
       <c r="E139" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>13</v>
@@ -3710,13 +3713,13 @@
       </c>
       <c r="D140"/>
       <c r="E140" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B141" s="15" t="s">
         <v>10</v>
@@ -3726,13 +3729,13 @@
       </c>
       <c r="D141"/>
       <c r="E141" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>14</v>
@@ -3742,61 +3745,62 @@
       </c>
       <c r="D142"/>
       <c r="E142" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>81</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>15</v>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C143" t="s">
         <v>43</v>
       </c>
       <c r="D143"/>
       <c r="E143" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>81</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>12</v>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C144" t="s">
         <v>43</v>
       </c>
       <c r="D144"/>
       <c r="E144" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>81</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>16</v>
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C145" t="s">
         <v>43</v>
       </c>
       <c r="D145"/>
       <c r="E145" s="1">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F145"/>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>13</v>
@@ -3810,9 +3814,9 @@
       </c>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B147" s="15" t="s">
         <v>10</v>
@@ -3826,9 +3830,9 @@
       </c>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>14</v>
@@ -3842,9 +3846,9 @@
       </c>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>13</v>
@@ -3854,13 +3858,13 @@
       </c>
       <c r="D149"/>
       <c r="E149" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>10</v>
@@ -3870,13 +3874,13 @@
       </c>
       <c r="D150"/>
       <c r="E150" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>14</v>
@@ -3886,13 +3890,13 @@
       </c>
       <c r="D151"/>
       <c r="E151" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>84</v>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>13</v>
@@ -3902,13 +3906,13 @@
       </c>
       <c r="D152"/>
       <c r="E152" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>84</v>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="B153" s="15" t="s">
         <v>10</v>
@@ -3918,13 +3922,13 @@
       </c>
       <c r="D153"/>
       <c r="E153" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>84</v>
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>14</v>
@@ -3934,13 +3938,13 @@
       </c>
       <c r="D154"/>
       <c r="E154" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>13</v>
@@ -3950,13 +3954,13 @@
       </c>
       <c r="D155"/>
       <c r="E155" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B156" s="15" t="s">
         <v>10</v>
@@ -3966,18 +3970,18 @@
       </c>
       <c r="D156"/>
       <c r="E156" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>85</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>14</v>
+        <v>186</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D157"/>
       <c r="E157" s="1">
@@ -3986,55 +3990,55 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>86</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>13</v>
+        <v>187</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D158"/>
       <c r="E158" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>86</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>10</v>
+        <v>181</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D159"/>
       <c r="E159" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>86</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>14</v>
+      <c r="A160" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D160"/>
       <c r="E160" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>87</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C161" t="s">
         <v>43</v>
@@ -4044,12 +4048,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>87</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>10</v>
+        <v>103</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C162" t="s">
         <v>43</v>
@@ -4059,207 +4063,207 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>87</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C163" t="s">
         <v>43</v>
       </c>
       <c r="D163"/>
       <c r="E163" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>88</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C164" t="s">
         <v>43</v>
       </c>
       <c r="D164"/>
       <c r="E164" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>88</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C165" t="s">
         <v>43</v>
       </c>
       <c r="D165"/>
       <c r="E165" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>88</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>14</v>
+        <v>70</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C166" t="s">
         <v>43</v>
       </c>
       <c r="D166"/>
       <c r="E166" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>89</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C167" t="s">
         <v>43</v>
       </c>
       <c r="D167"/>
       <c r="E167" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>89</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C168" t="s">
         <v>43</v>
       </c>
       <c r="D168"/>
       <c r="E168" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>89</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C169" t="s">
         <v>43</v>
       </c>
       <c r="D169"/>
       <c r="E169" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>90</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>13</v>
+        <v>92</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C170" t="s">
         <v>43</v>
       </c>
       <c r="D170"/>
       <c r="E170" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>90</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C171" t="s">
         <v>43</v>
       </c>
       <c r="D171"/>
       <c r="E171" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>90</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>14</v>
+        <v>112</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C172" t="s">
         <v>43</v>
       </c>
       <c r="D172"/>
       <c r="E172" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>91</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C173" t="s">
         <v>43</v>
       </c>
       <c r="D173"/>
       <c r="E173" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>91</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>10</v>
+        <v>112</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C174" t="s">
         <v>43</v>
       </c>
       <c r="D174"/>
       <c r="E174" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>91</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C175" t="s">
         <v>43</v>
       </c>
       <c r="D175"/>
       <c r="E175" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>68</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C176" t="s">
         <v>43</v>
@@ -4269,12 +4273,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>68</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>10</v>
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C177" t="s">
         <v>43</v>
@@ -4284,72 +4288,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>68</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C178" t="s">
         <v>43</v>
       </c>
       <c r="D178"/>
       <c r="E178" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>92</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C179" t="s">
         <v>43</v>
       </c>
       <c r="D179"/>
       <c r="E179" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>92</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C180" t="s">
         <v>43</v>
       </c>
       <c r="D180"/>
       <c r="E180" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>92</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C181" t="s">
         <v>43</v>
       </c>
       <c r="D181"/>
       <c r="E181" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B182" s="7" t="s">
-        <v>13</v>
+      <c r="B182" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C182" t="s">
         <v>43</v>
@@ -4359,12 +4363,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B183" s="15" t="s">
-        <v>10</v>
+      <c r="B183" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C183" t="s">
         <v>43</v>
@@ -4374,27 +4378,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>93</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>14</v>
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C184" t="s">
         <v>43</v>
       </c>
       <c r="D184"/>
       <c r="E184" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B185" s="7" t="s">
-        <v>13</v>
+      <c r="B185" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C185" t="s">
         <v>43</v>
@@ -4406,21 +4410,21 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>94</v>
-      </c>
-      <c r="B186" s="15" t="s">
-        <v>10</v>
+        <v>103</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C186" t="s">
         <v>43</v>
       </c>
       <c r="D186"/>
       <c r="E186" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B187" s="8" t="s">
@@ -4434,9 +4438,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>13</v>
@@ -4446,12 +4450,12 @@
       </c>
       <c r="D188"/>
       <c r="E188" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B189" s="15" t="s">
         <v>10</v>
@@ -4461,237 +4465,238 @@
       </c>
       <c r="D189"/>
       <c r="E189" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>95</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>14</v>
+        <v>103</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C190" t="s">
         <v>43</v>
       </c>
       <c r="D190"/>
       <c r="E190" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>96</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C191" t="s">
         <v>43</v>
       </c>
       <c r="D191"/>
       <c r="E191" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>96</v>
-      </c>
-      <c r="B192" s="15" t="s">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C192" t="s">
         <v>43</v>
       </c>
       <c r="D192"/>
       <c r="E192" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>96</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>14</v>
+        <v>106</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C193" t="s">
         <v>43</v>
       </c>
       <c r="D193"/>
       <c r="E193" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>97</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C194" t="s">
         <v>43</v>
       </c>
       <c r="D194"/>
       <c r="E194" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>97</v>
-      </c>
-      <c r="B195" s="15" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C195" t="s">
         <v>43</v>
       </c>
       <c r="D195"/>
       <c r="E195" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>97</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C196" t="s">
         <v>43</v>
       </c>
       <c r="D196"/>
       <c r="E196" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>98</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C197" t="s">
         <v>43</v>
       </c>
       <c r="D197"/>
       <c r="E197" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>98</v>
-      </c>
-      <c r="B198" s="15" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C198" t="s">
         <v>43</v>
       </c>
       <c r="D198"/>
       <c r="E198" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>98</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C199" t="s">
         <v>43</v>
       </c>
       <c r="D199"/>
       <c r="E199" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>99</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C200" t="s">
         <v>43</v>
       </c>
       <c r="D200"/>
       <c r="E200" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>99</v>
-      </c>
-      <c r="B201" s="15" t="s">
-        <v>10</v>
+        <v>126</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C201" t="s">
         <v>43</v>
       </c>
       <c r="D201"/>
       <c r="E201" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>99</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>14</v>
+        <v>126</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C202" t="s">
         <v>43</v>
       </c>
       <c r="D202"/>
       <c r="E202" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>100</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C203" t="s">
         <v>43</v>
       </c>
       <c r="D203"/>
       <c r="E203" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>100</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C204" t="s">
         <v>43</v>
       </c>
       <c r="D204"/>
       <c r="E204" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>14</v>
@@ -4701,12 +4706,12 @@
       </c>
       <c r="D205"/>
       <c r="E205" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>101</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>13</v>
@@ -4719,9 +4724,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>101</v>
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B207" s="15" t="s">
         <v>10</v>
@@ -4734,9 +4739,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>101</v>
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>14</v>
@@ -4749,9 +4754,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>13</v>
@@ -4761,12 +4766,12 @@
       </c>
       <c r="D209"/>
       <c r="E209" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>10</v>
@@ -4776,12 +4781,12 @@
       </c>
       <c r="D210"/>
       <c r="E210" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>14</v>
@@ -4791,12 +4796,12 @@
       </c>
       <c r="D211"/>
       <c r="E211" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>13</v>
@@ -4806,12 +4811,12 @@
       </c>
       <c r="D212"/>
       <c r="E212" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>10</v>
@@ -4821,12 +4826,12 @@
       </c>
       <c r="D213"/>
       <c r="E213" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>14</v>
@@ -4836,270 +4841,270 @@
       </c>
       <c r="D214"/>
       <c r="E214" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>103</v>
-      </c>
-      <c r="B215" s="11" t="s">
-        <v>15</v>
+        <v>95</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C215" t="s">
         <v>43</v>
       </c>
       <c r="D215"/>
       <c r="E215" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>103</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C216" t="s">
         <v>43</v>
       </c>
       <c r="D216"/>
       <c r="E216" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>104</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C217" t="s">
         <v>43</v>
       </c>
       <c r="D217"/>
       <c r="E217" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>104</v>
-      </c>
-      <c r="B218" s="15" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C218" t="s">
         <v>43</v>
       </c>
       <c r="D218"/>
       <c r="E218" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>104</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C219" t="s">
         <v>43</v>
       </c>
       <c r="D219"/>
       <c r="E219" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>105</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C220" t="s">
         <v>43</v>
       </c>
       <c r="D220"/>
       <c r="E220" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>105</v>
-      </c>
-      <c r="B221" s="15" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C221" t="s">
         <v>43</v>
       </c>
       <c r="D221"/>
       <c r="E221" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>105</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>14</v>
+        <v>107</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C222" t="s">
         <v>43</v>
       </c>
       <c r="D222"/>
       <c r="E222" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>106</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>13</v>
+        <v>197</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D223"/>
       <c r="E223" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>106</v>
-      </c>
-      <c r="B224" s="15" t="s">
-        <v>10</v>
+        <v>191</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C224" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D224"/>
       <c r="E224" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>106</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>14</v>
+      <c r="A225" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C225" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D225"/>
       <c r="E225" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>108</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>13</v>
+        <v>182</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D226"/>
       <c r="E226" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>108</v>
-      </c>
-      <c r="B227" s="15" t="s">
-        <v>10</v>
+      <c r="A227" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D227"/>
       <c r="E227" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>108</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>14</v>
+      <c r="A228" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C228" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D228"/>
       <c r="E228" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>107</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>13</v>
+        <v>190</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C229" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D229"/>
       <c r="E229" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>107</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>10</v>
+        <v>189</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D230"/>
       <c r="E230" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>107</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>14</v>
+        <v>195</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D231"/>
       <c r="E231" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>109</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C232" t="s">
         <v>43</v>
@@ -5109,12 +5114,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>109</v>
-      </c>
-      <c r="B233" s="15" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C233" t="s">
         <v>43</v>
@@ -5124,12 +5129,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>109</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>14</v>
+        <v>82</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C234" t="s">
         <v>43</v>
@@ -5139,12 +5144,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>110</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C235" t="s">
         <v>43</v>
@@ -5154,12 +5159,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>110</v>
-      </c>
-      <c r="B236" s="15" t="s">
-        <v>10</v>
+        <v>77</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C236" t="s">
         <v>43</v>
@@ -5169,12 +5174,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>110</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C237" t="s">
         <v>43</v>
@@ -5184,219 +5189,219 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>111</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C238" t="s">
         <v>43</v>
       </c>
       <c r="D238"/>
       <c r="E238" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>111</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C239" t="s">
         <v>43</v>
       </c>
       <c r="D239"/>
       <c r="E239" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>111</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>14</v>
+        <v>97</v>
+      </c>
+      <c r="B240" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C240" t="s">
         <v>43</v>
       </c>
       <c r="D240"/>
       <c r="E240" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>112</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C241" t="s">
         <v>43</v>
       </c>
       <c r="D241"/>
       <c r="E241" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>112</v>
-      </c>
-      <c r="B242" s="15" t="s">
-        <v>10</v>
+        <v>114</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C242" t="s">
         <v>43</v>
       </c>
       <c r="D242"/>
       <c r="E242" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>112</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>14</v>
+        <v>114</v>
+      </c>
+      <c r="B243" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C243" t="s">
         <v>43</v>
       </c>
       <c r="D243"/>
       <c r="E243" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>113</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>13</v>
+        <v>114</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C244" t="s">
         <v>43</v>
       </c>
       <c r="D244"/>
       <c r="E244" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>113</v>
-      </c>
-      <c r="B245" s="15" t="s">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C245" t="s">
         <v>43</v>
       </c>
       <c r="D245"/>
       <c r="E245" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>113</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="B246" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C246" t="s">
         <v>43</v>
       </c>
       <c r="D246"/>
       <c r="E246" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>114</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C247" t="s">
         <v>43</v>
       </c>
       <c r="D247"/>
       <c r="E247" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>114</v>
-      </c>
-      <c r="B248" s="15" t="s">
-        <v>10</v>
+        <v>129</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C248" t="s">
         <v>43</v>
       </c>
       <c r="D248"/>
       <c r="E248" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>114</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>14</v>
+        <v>129</v>
+      </c>
+      <c r="B249" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C249" t="s">
         <v>43</v>
       </c>
       <c r="D249"/>
       <c r="E249" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>115</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C250" t="s">
         <v>43</v>
       </c>
       <c r="D250"/>
       <c r="E250" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>115</v>
-      </c>
-      <c r="B251" s="15" t="s">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C251" t="s">
         <v>43</v>
       </c>
       <c r="D251"/>
       <c r="E251" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>14</v>
@@ -5406,12 +5411,12 @@
       </c>
       <c r="D252"/>
       <c r="E252" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>13</v>
@@ -5421,12 +5426,12 @@
       </c>
       <c r="D253"/>
       <c r="E253" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B254" s="15" t="s">
         <v>10</v>
@@ -5436,12 +5441,12 @@
       </c>
       <c r="D254"/>
       <c r="E254" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>14</v>
@@ -5451,12 +5456,12 @@
       </c>
       <c r="D255"/>
       <c r="E255" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>117</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>13</v>
@@ -5466,12 +5471,12 @@
       </c>
       <c r="D256"/>
       <c r="E256" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>117</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="B257" s="15" t="s">
         <v>10</v>
@@ -5481,12 +5486,12 @@
       </c>
       <c r="D257"/>
       <c r="E257" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>117</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>14</v>
@@ -5496,12 +5501,12 @@
       </c>
       <c r="D258"/>
       <c r="E258" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>13</v>
@@ -5511,12 +5516,12 @@
       </c>
       <c r="D259"/>
       <c r="E259" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B260" s="15" t="s">
         <v>10</v>
@@ -5526,12 +5531,12 @@
       </c>
       <c r="D260"/>
       <c r="E260" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>14</v>
@@ -5541,12 +5546,12 @@
       </c>
       <c r="D261"/>
       <c r="E261" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>13</v>
@@ -5556,12 +5561,12 @@
       </c>
       <c r="D262"/>
       <c r="E262" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>10</v>
@@ -5571,12 +5576,12 @@
       </c>
       <c r="D263"/>
       <c r="E263" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>14</v>
@@ -5586,12 +5591,12 @@
       </c>
       <c r="D264"/>
       <c r="E264" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>13</v>
@@ -5604,9 +5609,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B266" s="15" t="s">
         <v>10</v>
@@ -5619,9 +5624,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>14</v>
@@ -5634,9 +5639,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>13</v>
@@ -5646,12 +5651,12 @@
       </c>
       <c r="D268"/>
       <c r="E268" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B269" s="15" t="s">
         <v>10</v>
@@ -5661,12 +5666,12 @@
       </c>
       <c r="D269"/>
       <c r="E269" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>14</v>
@@ -5676,12 +5681,12 @@
       </c>
       <c r="D270"/>
       <c r="E270" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>13</v>
@@ -5691,12 +5696,12 @@
       </c>
       <c r="D271"/>
       <c r="E271" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B272" s="15" t="s">
         <v>10</v>
@@ -5706,12 +5711,12 @@
       </c>
       <c r="D272"/>
       <c r="E272" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>14</v>
@@ -5721,12 +5726,12 @@
       </c>
       <c r="D273"/>
       <c r="E273" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>13</v>
@@ -5736,12 +5741,12 @@
       </c>
       <c r="D274"/>
       <c r="E274" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B275" s="15" t="s">
         <v>10</v>
@@ -5751,12 +5756,12 @@
       </c>
       <c r="D275"/>
       <c r="E275" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>14</v>
@@ -5766,57 +5771,57 @@
       </c>
       <c r="D276"/>
       <c r="E276" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>123</v>
-      </c>
-      <c r="B277" s="11" t="s">
-        <v>15</v>
+        <v>128</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C277" t="s">
         <v>43</v>
       </c>
       <c r="D277"/>
       <c r="E277" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>123</v>
-      </c>
-      <c r="B278" s="12" t="s">
-        <v>12</v>
+        <v>128</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C278" t="s">
         <v>43</v>
       </c>
       <c r="D278"/>
       <c r="E278" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>123</v>
-      </c>
-      <c r="B279" s="13" t="s">
-        <v>16</v>
+        <v>128</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C279" t="s">
         <v>43</v>
       </c>
       <c r="D279"/>
       <c r="E279" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>13</v>
@@ -5826,12 +5831,12 @@
       </c>
       <c r="D280"/>
       <c r="E280" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B281" s="15" t="s">
         <v>10</v>
@@ -5841,12 +5846,12 @@
       </c>
       <c r="D281"/>
       <c r="E281" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>14</v>
@@ -5856,12 +5861,12 @@
       </c>
       <c r="D282"/>
       <c r="E282" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>13</v>
@@ -5871,12 +5876,12 @@
       </c>
       <c r="D283"/>
       <c r="E283" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B284" s="15" t="s">
         <v>10</v>
@@ -5886,12 +5891,12 @@
       </c>
       <c r="D284"/>
       <c r="E284" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>14</v>
@@ -5901,12 +5906,12 @@
       </c>
       <c r="D285"/>
       <c r="E285" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>13</v>
@@ -5916,12 +5921,12 @@
       </c>
       <c r="D286"/>
       <c r="E286" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B287" s="15" t="s">
         <v>10</v>
@@ -5931,13 +5936,12 @@
       </c>
       <c r="D287"/>
       <c r="E287" s="1">
-        <v>3</v>
-      </c>
-      <c r="F287" s="2"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>14</v>
@@ -5947,12 +5951,12 @@
       </c>
       <c r="D288"/>
       <c r="E288" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>13</v>
@@ -5962,12 +5966,12 @@
       </c>
       <c r="D289"/>
       <c r="E289" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B290" s="15" t="s">
         <v>10</v>
@@ -5977,12 +5981,12 @@
       </c>
       <c r="D290"/>
       <c r="E290" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>14</v>
@@ -5992,12 +5996,12 @@
       </c>
       <c r="D291"/>
       <c r="E291" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>13</v>
@@ -6007,12 +6011,12 @@
       </c>
       <c r="D292"/>
       <c r="E292" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B293" s="15" t="s">
         <v>10</v>
@@ -6022,12 +6026,12 @@
       </c>
       <c r="D293"/>
       <c r="E293" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>14</v>
@@ -6037,12 +6041,12 @@
       </c>
       <c r="D294"/>
       <c r="E294" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B295" s="7" t="s">
         <v>13</v>
@@ -6052,12 +6056,12 @@
       </c>
       <c r="D295"/>
       <c r="E295" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B296" s="15" t="s">
         <v>10</v>
@@ -6067,12 +6071,12 @@
       </c>
       <c r="D296"/>
       <c r="E296" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>14</v>
@@ -6082,12 +6086,12 @@
       </c>
       <c r="D297"/>
       <c r="E297" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>13</v>
@@ -6097,12 +6101,12 @@
       </c>
       <c r="D298"/>
       <c r="E298" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B299" s="15" t="s">
         <v>10</v>
@@ -6112,18 +6116,18 @@
       </c>
       <c r="D299"/>
       <c r="E299" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>130</v>
-      </c>
-      <c r="B300" s="8" t="s">
-        <v>14</v>
+        <v>198</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C300" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D300"/>
       <c r="E300" s="1">
@@ -6132,37 +6136,37 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>131</v>
-      </c>
-      <c r="B301" s="7" t="s">
-        <v>13</v>
+        <v>194</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C301" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D301"/>
       <c r="E301" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>131</v>
-      </c>
-      <c r="B302" s="15" t="s">
-        <v>10</v>
+        <v>184</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C302" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D302"/>
       <c r="E302" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>14</v>
@@ -6175,9 +6179,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>204</v>
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>13</v>
@@ -6187,12 +6191,12 @@
       </c>
       <c r="D304"/>
       <c r="E304" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>204</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B305" s="15" t="s">
         <v>10</v>
@@ -6202,12 +6206,12 @@
       </c>
       <c r="D305"/>
       <c r="E305" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>204</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>14</v>
@@ -6217,177 +6221,177 @@
       </c>
       <c r="D306"/>
       <c r="E306" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>132</v>
-      </c>
-      <c r="B307" s="13" t="s">
-        <v>16</v>
+        <v>125</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C307" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D307"/>
       <c r="E307" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>133</v>
-      </c>
-      <c r="B308" s="13" t="s">
-        <v>16</v>
+        <v>125</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D308"/>
       <c r="E308" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>134</v>
-      </c>
-      <c r="B309" s="13" t="s">
-        <v>16</v>
+        <v>125</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C309" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D309"/>
       <c r="E309" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>136</v>
-      </c>
-      <c r="B310" s="13" t="s">
-        <v>16</v>
+        <v>90</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C310" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D310"/>
       <c r="E310" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>137</v>
-      </c>
-      <c r="B311" s="13" t="s">
-        <v>16</v>
+        <v>90</v>
+      </c>
+      <c r="B311" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D311"/>
       <c r="E311" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>138</v>
-      </c>
-      <c r="B312" s="13" t="s">
-        <v>16</v>
+        <v>90</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C312" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D312"/>
       <c r="E312" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>139</v>
-      </c>
-      <c r="B313" s="13" t="s">
-        <v>16</v>
+        <v>108</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C313" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D313"/>
       <c r="E313" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>140</v>
-      </c>
-      <c r="B314" s="13" t="s">
-        <v>16</v>
+        <v>108</v>
+      </c>
+      <c r="B314" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D314"/>
       <c r="E314" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>141</v>
-      </c>
-      <c r="B315" s="13" t="s">
-        <v>16</v>
+        <v>108</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C315" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D315"/>
       <c r="E315" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>142</v>
-      </c>
-      <c r="B316" s="13" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C316" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D316"/>
       <c r="E316" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>143</v>
-      </c>
-      <c r="B317" s="13" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D317"/>
       <c r="E317" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B318" s="13" t="s">
         <v>16</v>
@@ -6400,9 +6404,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B319" s="13" t="s">
         <v>16</v>
@@ -6415,9 +6419,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B320" s="13" t="s">
         <v>16</v>
@@ -6430,9 +6434,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B321" s="13" t="s">
         <v>16</v>
@@ -6445,165 +6449,165 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>176</v>
-      </c>
-      <c r="B322" s="11" t="s">
-        <v>15</v>
+        <v>143</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C322" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D322"/>
       <c r="E322" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>175</v>
-      </c>
-      <c r="B323" s="11" t="s">
-        <v>15</v>
+        <v>142</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C323" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D323"/>
       <c r="E323" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>177</v>
-      </c>
-      <c r="B324" s="11" t="s">
-        <v>15</v>
+        <v>147</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C324" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D324"/>
       <c r="E324" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>178</v>
-      </c>
-      <c r="B325" s="11" t="s">
-        <v>15</v>
+        <v>136</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C325" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D325"/>
       <c r="E325" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>179</v>
-      </c>
-      <c r="B326" s="11" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C326" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D326"/>
       <c r="E326" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>180</v>
-      </c>
-      <c r="B327" s="11" t="s">
-        <v>15</v>
+        <v>137</v>
+      </c>
+      <c r="B327" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C327" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D327"/>
       <c r="E327" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>181</v>
-      </c>
-      <c r="B328" s="11" t="s">
-        <v>15</v>
+        <v>138</v>
+      </c>
+      <c r="B328" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C328" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D328"/>
       <c r="E328" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>182</v>
-      </c>
-      <c r="B329" s="11" t="s">
-        <v>15</v>
+        <v>141</v>
+      </c>
+      <c r="B329" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C329" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D329"/>
       <c r="E329" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>183</v>
-      </c>
-      <c r="B330" s="11" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+      <c r="B330" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C330" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D330"/>
       <c r="E330" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>184</v>
-      </c>
-      <c r="B331" s="11" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="B331" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C331" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D331"/>
       <c r="E331" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>148</v>
-      </c>
-      <c r="B332" s="11" t="s">
-        <v>15</v>
+        <v>144</v>
+      </c>
+      <c r="B332" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C332" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D332"/>
       <c r="E332" s="1">
@@ -6612,7 +6616,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>15</v>
@@ -6627,7 +6631,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B334" s="11" t="s">
         <v>15</v>
@@ -6637,237 +6641,237 @@
       </c>
       <c r="D334"/>
       <c r="E334" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>187</v>
-      </c>
-      <c r="B335" s="11" t="s">
-        <v>15</v>
+        <v>169</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C335" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D335"/>
-      <c r="E335" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E335" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>188</v>
-      </c>
-      <c r="B336" s="11" t="s">
-        <v>15</v>
+        <v>156</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C336" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D336"/>
-      <c r="E336" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E336" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>189</v>
-      </c>
-      <c r="B337" s="11" t="s">
-        <v>15</v>
+        <v>160</v>
+      </c>
+      <c r="B337" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C337" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D337"/>
-      <c r="E337" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E337" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>190</v>
-      </c>
-      <c r="B338" s="11" t="s">
-        <v>15</v>
+        <v>154</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C338" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D338"/>
-      <c r="E338" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E338" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>191</v>
-      </c>
-      <c r="B339" s="11" t="s">
-        <v>15</v>
+        <v>155</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C339" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D339"/>
-      <c r="E339" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E339" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>192</v>
-      </c>
-      <c r="B340" s="11" t="s">
-        <v>15</v>
+        <v>162</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C340" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D340"/>
-      <c r="E340" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E340" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>193</v>
-      </c>
-      <c r="B341" s="11" t="s">
-        <v>15</v>
+        <v>152</v>
+      </c>
+      <c r="B341" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C341" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D341"/>
-      <c r="E341" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E341" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>194</v>
-      </c>
-      <c r="B342" s="11" t="s">
-        <v>15</v>
+        <v>158</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C342" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D342"/>
-      <c r="E342" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E342" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>195</v>
-      </c>
-      <c r="B343" s="11" t="s">
-        <v>15</v>
+        <v>157</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D343"/>
-      <c r="E343" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E343" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>196</v>
-      </c>
-      <c r="B344" s="11" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D344"/>
-      <c r="E344" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E344" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>197</v>
-      </c>
-      <c r="B345" s="11" t="s">
-        <v>15</v>
+        <v>166</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D345"/>
-      <c r="E345" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E345" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>198</v>
-      </c>
-      <c r="B346" s="11" t="s">
-        <v>15</v>
+        <v>167</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D346"/>
-      <c r="E346" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B347" s="11" t="s">
-        <v>15</v>
+      <c r="E346" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>153</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C347" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D347"/>
-      <c r="E347" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B348" s="11" t="s">
-        <v>15</v>
+      <c r="E347" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>165</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C348" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D348"/>
-      <c r="E348" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B349" s="11" t="s">
-        <v>15</v>
+      <c r="E348" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>163</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D349"/>
-      <c r="E349" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E349" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B350" s="12" t="s">
         <v>12</v>
@@ -6880,9 +6884,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B351" s="12" t="s">
         <v>12</v>
@@ -6895,9 +6899,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B352" s="12" t="s">
         <v>12</v>
@@ -6910,864 +6914,894 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>155</v>
-      </c>
-      <c r="B353" s="12" t="s">
-        <v>12</v>
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C353" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D353"/>
-      <c r="E353" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E353" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>156</v>
-      </c>
-      <c r="B354" s="12" t="s">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C354" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D354"/>
-      <c r="E354" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E354" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>157</v>
-      </c>
-      <c r="B355" s="12" t="s">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="B355" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D355"/>
-      <c r="E355" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E355" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>158</v>
-      </c>
-      <c r="B356" s="12" t="s">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C356" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D356"/>
-      <c r="E356" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E356" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>159</v>
-      </c>
-      <c r="B357" s="12" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C357" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D357"/>
-      <c r="E357" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E357" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>160</v>
-      </c>
-      <c r="B358" s="12" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="B358" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C358" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D358"/>
-      <c r="E358" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E358" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>161</v>
-      </c>
-      <c r="B359" s="12" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C359" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D359"/>
-      <c r="E359" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E359" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>162</v>
-      </c>
-      <c r="B360" s="12" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C360" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D360"/>
-      <c r="E360" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E360" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>163</v>
-      </c>
-      <c r="B361" s="12" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="B361" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C361" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D361"/>
-      <c r="E361" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E361" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>164</v>
-      </c>
-      <c r="B362" s="12" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C362" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D362"/>
-      <c r="E362" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E362" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>165</v>
-      </c>
-      <c r="B363" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C363" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D363"/>
-      <c r="E363" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E363" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>166</v>
-      </c>
-      <c r="B364" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="B364" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C364" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D364"/>
-      <c r="E364" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E364" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>167</v>
-      </c>
-      <c r="B365" s="12" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C365" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D365"/>
-      <c r="E365" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E365" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>168</v>
-      </c>
-      <c r="B366" s="12" t="s">
-        <v>12</v>
+        <v>120</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C366" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D366"/>
-      <c r="E366" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E366" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>169</v>
-      </c>
-      <c r="B367" s="12" t="s">
-        <v>12</v>
+        <v>120</v>
+      </c>
+      <c r="B367" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C367" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D367"/>
-      <c r="E367" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E367" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>120</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C368" t="s">
+        <v>43</v>
+      </c>
+      <c r="D368"/>
+      <c r="E368" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D397"/>
       <c r="E397"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D398"/>
       <c r="E398"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D399"/>
       <c r="E399"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D400"/>
       <c r="E400"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D401"/>
       <c r="E401"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D402"/>
       <c r="E402"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D403"/>
       <c r="E403"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D404"/>
       <c r="E404"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D405"/>
       <c r="E405"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D406"/>
       <c r="E406"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D407"/>
       <c r="E407"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D408"/>
       <c r="E408"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D409"/>
       <c r="E409"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D410"/>
       <c r="E410"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D411"/>
       <c r="E411"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D412"/>
       <c r="E412"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D413"/>
       <c r="E413"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D414"/>
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
@@ -7775,7 +7809,7 @@
       <c r="E482"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
@@ -7786,7 +7820,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
@@ -7797,7 +7831,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
@@ -7808,7 +7842,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
@@ -7819,7 +7853,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
@@ -7830,7 +7864,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
@@ -7841,7 +7875,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
@@ -7852,7 +7886,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
@@ -7863,7 +7897,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
@@ -7872,7 +7906,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
@@ -7881,7 +7915,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
@@ -7890,7 +7924,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
@@ -7899,7 +7933,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
@@ -7907,14 +7941,14 @@
       <c r="E495"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
@@ -7922,7 +7956,7 @@
       <c r="E497"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
@@ -7930,7 +7964,7 @@
       <c r="E498"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
@@ -7938,328 +7972,370 @@
       <c r="E499"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
       <c r="D518"/>
       <c r="E518"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="558" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="559" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="560" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="561" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="562" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="563" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="564" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="565" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="566" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="567" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="568" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="569" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="570" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="571" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="572" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="573" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="574" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="575" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="576" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="16"/>
     </row>
-    <row r="580" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="578" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="579" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="580" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F580"/>
     </row>
-    <row r="581" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F581"/>
     </row>
-    <row r="582" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F582"/>
     </row>
-    <row r="583" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F583"/>
     </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F584"/>
     </row>
-    <row r="585" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F585"/>
     </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F586"/>
     </row>
-    <row r="587" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F587"/>
     </row>
-    <row r="588" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F588"/>
     </row>
-    <row r="589" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F589"/>
     </row>
-    <row r="590" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F590"/>
     </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F591"/>
     </row>
-    <row r="592" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F592"/>
     </row>
-    <row r="593" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="F593"/>
     </row>
+    <row r="594" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="595" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="596" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="597" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="598" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="599" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="600" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="601" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="602" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="603" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="604" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:F604"/>
+  <autoFilter ref="A1:F604">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Script"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A3:F604">
+      <sortCondition ref="A1:A604"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1110,35 +1110,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R604"/>
+  <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1167,20 +1166,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1194,20 +1193,20 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
       <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1221,12 +1220,12 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
+      <c r="B4" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -1254,12 +1253,12 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>10</v>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -1287,12 +1286,12 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -1320,12 +1319,12 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
@@ -1353,12 +1352,12 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>10</v>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -1384,12 +1383,12 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -1415,12 +1414,12 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
+      <c r="B10" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -1446,19 +1445,19 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>15</v>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
@@ -1474,12 +1473,12 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -1502,12 +1501,12 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -1530,12 +1529,12 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
+      <c r="B14" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -1560,12 +1559,12 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -1588,12 +1587,12 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -1618,19 +1617,19 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
@@ -1646,9 +1645,9 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -1674,9 +1673,9 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>10</v>
@@ -1702,9 +1701,9 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>14</v>
@@ -1732,9 +1731,9 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>13</v>
@@ -1744,7 +1743,7 @@
       </c>
       <c r="D21"/>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
@@ -1760,9 +1759,9 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>10</v>
@@ -1772,7 +1771,7 @@
       </c>
       <c r="D22"/>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -1784,19 +1783,19 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>15</v>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23"/>
       <c r="E23" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -1808,19 +1807,19 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -1832,12 +1831,12 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1856,12 +1855,12 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1880,18 +1879,17 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="D27"/>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>1</v>
       </c>
       <c r="I27" s="16"/>
@@ -1905,18 +1903,17 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="D28"/>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="I28" s="16"/>
@@ -1930,19 +1927,18 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>15</v>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29" s="1">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29"/>
@@ -1955,18 +1951,17 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="D30"/>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>1</v>
       </c>
       <c r="I30" s="16"/>
@@ -1980,12 +1975,12 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -2005,17 +2000,18 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="4">
+      <c r="D32"/>
+      <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="H32" s="16"/>
@@ -2030,18 +2026,19 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>10</v>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" s="1">
+        <v>8</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -2055,18 +2052,19 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>14</v>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" s="1">
+        <v>8</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -2080,15 +2078,15 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>15</v>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35"/>
       <c r="E35" s="1">
@@ -2106,18 +2104,19 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>13</v>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" s="1">
+        <v>8</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
@@ -2131,19 +2130,19 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>10</v>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
@@ -2157,63 +2156,63 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>14</v>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>13</v>
+      <c r="B39" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>10</v>
+      <c r="B40" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>14</v>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
@@ -2223,27 +2222,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>15</v>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D42"/>
       <c r="E42" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C43" t="s">
         <v>40</v>
@@ -2253,12 +2252,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>40</v>
@@ -2268,12 +2267,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>13</v>
+      <c r="B45" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>40</v>
@@ -2283,12 +2282,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>10</v>
+      <c r="B46" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C46" t="s">
         <v>40</v>
@@ -2298,42 +2297,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>14</v>
+      <c r="B47" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>40</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>11</v>
+      <c r="B48" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C48" t="s">
         <v>40</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>40</v>
@@ -2343,117 +2342,117 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="D50"/>
       <c r="E50" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>12</v>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51"/>
       <c r="E51" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52"/>
       <c r="E52" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D53"/>
       <c r="E53" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D55"/>
       <c r="E55" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D56"/>
       <c r="E56" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C57" t="s">
         <v>40</v>
@@ -2463,12 +2462,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>40</v>
@@ -2478,12 +2477,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C59" t="s">
         <v>40</v>
@@ -2493,25 +2492,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D60"/>
       <c r="E60" s="1">
-        <v>7</v>
-      </c>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>11</v>
@@ -2524,9 +2522,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>19</v>
@@ -2539,87 +2537,87 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>13</v>
+      <c r="B63" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>40</v>
       </c>
       <c r="D63"/>
       <c r="E63" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>10</v>
+      <c r="B64" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C64" t="s">
         <v>40</v>
       </c>
       <c r="D64"/>
       <c r="E64" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D66"/>
       <c r="E66" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D67"/>
       <c r="E67" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>13</v>
+      <c r="B68" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>41</v>
@@ -2629,12 +2627,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>10</v>
+      <c r="B69" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C69" t="s">
         <v>41</v>
@@ -2644,251 +2642,252 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="D70"/>
       <c r="E70" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E71" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>15</v>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="D72"/>
       <c r="E72" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
-        <v>180</v>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>63</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="D73"/>
       <c r="E73" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="D74"/>
       <c r="E74" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D75"/>
       <c r="E75" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>57</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D76"/>
       <c r="E76" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D77"/>
       <c r="E77" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D79"/>
       <c r="E79" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D80"/>
       <c r="E80" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D81"/>
       <c r="E81" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D84"/>
       <c r="E84" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C86" t="s">
         <v>42</v>
@@ -2898,12 +2897,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>10</v>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C87" t="s">
         <v>42</v>
@@ -2913,42 +2912,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>42</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>42</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>42</v>
@@ -2958,9 +2957,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>64</v>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>14</v>
@@ -2973,132 +2972,132 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>13</v>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>14</v>
+        <v>123</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D94"/>
       <c r="E94" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>11</v>
+        <v>123</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D95"/>
       <c r="E95" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D96"/>
       <c r="E96" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D97"/>
       <c r="E97" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C98" t="s">
         <v>43</v>
       </c>
       <c r="D98"/>
       <c r="E98" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>14</v>
+        <v>89</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D99"/>
       <c r="E99" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C100" t="s">
         <v>43</v>
@@ -3108,12 +3107,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>10</v>
+        <v>119</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C101" t="s">
         <v>43</v>
@@ -3123,87 +3122,87 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>188</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>15</v>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>15</v>
+        <v>119</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D103"/>
       <c r="E103" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D105"/>
       <c r="E105" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D106"/>
       <c r="E106" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C107" t="s">
         <v>43</v>
@@ -3213,12 +3212,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>13</v>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C108" t="s">
         <v>43</v>
@@ -3228,12 +3227,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>10</v>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C109" t="s">
         <v>43</v>
@@ -3243,12 +3242,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>14</v>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C110" t="s">
         <v>43</v>
@@ -3258,12 +3257,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>13</v>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C111" t="s">
         <v>43</v>
@@ -3273,12 +3272,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>10</v>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C112" t="s">
         <v>43</v>
@@ -3288,40 +3287,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>74</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C113" t="s">
         <v>43</v>
       </c>
       <c r="D113"/>
       <c r="E113" s="1">
-        <v>5</v>
-      </c>
-      <c r="F113"/>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>74</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C114" t="s">
         <v>43</v>
       </c>
       <c r="D114"/>
       <c r="E114" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="19" t="s">
-        <v>119</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>96</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>14</v>
@@ -3334,9 +3332,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>13</v>
@@ -3346,12 +3344,12 @@
       </c>
       <c r="D116"/>
       <c r="E116" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>10</v>
@@ -3361,12 +3359,12 @@
       </c>
       <c r="D117"/>
       <c r="E117" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>14</v>
@@ -3376,12 +3374,12 @@
       </c>
       <c r="D118"/>
       <c r="E118" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>13</v>
@@ -3391,12 +3389,12 @@
       </c>
       <c r="D119"/>
       <c r="E119" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>10</v>
@@ -3406,12 +3404,12 @@
       </c>
       <c r="D120"/>
       <c r="E120" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>14</v>
@@ -3421,12 +3419,12 @@
       </c>
       <c r="D121"/>
       <c r="E121" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>13</v>
@@ -3436,12 +3434,12 @@
       </c>
       <c r="D122"/>
       <c r="E122" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>10</v>
@@ -3451,12 +3449,12 @@
       </c>
       <c r="D123"/>
       <c r="E123" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>14</v>
@@ -3466,12 +3464,12 @@
       </c>
       <c r="D124"/>
       <c r="E124" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>13</v>
@@ -3484,9 +3482,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>10</v>
@@ -3499,9 +3497,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>14</v>
@@ -3514,9 +3512,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="19" t="s">
-        <v>127</v>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>118</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>13</v>
@@ -3526,12 +3524,12 @@
       </c>
       <c r="D128"/>
       <c r="E128" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="19" t="s">
-        <v>127</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>118</v>
       </c>
       <c r="B129" s="15" t="s">
         <v>10</v>
@@ -3541,12 +3539,12 @@
       </c>
       <c r="D129"/>
       <c r="E129" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="19" t="s">
-        <v>127</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>118</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>14</v>
@@ -3556,77 +3554,79 @@
       </c>
       <c r="D130"/>
       <c r="E130" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>121</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C131" t="s">
         <v>43</v>
       </c>
       <c r="D131"/>
       <c r="E131" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>121</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C132" t="s">
         <v>43</v>
       </c>
       <c r="D132"/>
       <c r="E132" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>121</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C133" t="s">
         <v>43</v>
       </c>
       <c r="D133"/>
       <c r="E133" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>67</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>13</v>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C134" t="s">
         <v>43</v>
       </c>
       <c r="D134"/>
       <c r="E134" s="1">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F134"/>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>67</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C135" t="s">
         <v>43</v>
@@ -3635,14 +3635,15 @@
       <c r="E135" s="1">
         <v>5</v>
       </c>
+      <c r="F135"/>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>67</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C136" t="s">
         <v>43</v>
@@ -3653,9 +3654,9 @@
       </c>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>13</v>
@@ -3665,13 +3666,13 @@
       </c>
       <c r="D137"/>
       <c r="E137" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>10</v>
@@ -3681,13 +3682,13 @@
       </c>
       <c r="D138"/>
       <c r="E138" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>14</v>
@@ -3697,13 +3698,13 @@
       </c>
       <c r="D139"/>
       <c r="E139" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>13</v>
@@ -3717,9 +3718,9 @@
       </c>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B141" s="15" t="s">
         <v>10</v>
@@ -3733,9 +3734,9 @@
       </c>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>14</v>
@@ -3749,9 +3750,9 @@
       </c>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>13</v>
@@ -3761,13 +3762,13 @@
       </c>
       <c r="D143"/>
       <c r="E143" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>10</v>
@@ -3777,13 +3778,13 @@
       </c>
       <c r="D144"/>
       <c r="E144" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>14</v>
@@ -3793,113 +3794,112 @@
       </c>
       <c r="D145"/>
       <c r="E145" s="1">
-        <v>7</v>
-      </c>
-      <c r="F145"/>
+        <v>5</v>
+      </c>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>110</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C146" t="s">
         <v>43</v>
       </c>
       <c r="D146"/>
       <c r="E146" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>110</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>10</v>
+        <v>103</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C147" t="s">
         <v>43</v>
       </c>
       <c r="D147"/>
       <c r="E147" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>110</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>14</v>
+        <v>103</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C148" t="s">
         <v>43</v>
       </c>
       <c r="D148"/>
       <c r="E148" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>113</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C149" t="s">
         <v>43</v>
       </c>
       <c r="D149"/>
       <c r="E149" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>113</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>10</v>
+        <v>103</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C150" t="s">
         <v>43</v>
       </c>
       <c r="D150"/>
       <c r="E150" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>113</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C151" t="s">
         <v>43</v>
       </c>
       <c r="D151"/>
       <c r="E151" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>13</v>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>71</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C152" t="s">
         <v>43</v>
@@ -3910,12 +3910,12 @@
       </c>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>10</v>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>71</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C153" t="s">
         <v>43</v>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>14</v>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C154" t="s">
         <v>43</v>
@@ -3942,115 +3942,115 @@
       </c>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>103</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C155" t="s">
         <v>43</v>
       </c>
       <c r="D155"/>
       <c r="E155" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>103</v>
-      </c>
-      <c r="B156" s="15" t="s">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C156" t="s">
         <v>43</v>
       </c>
       <c r="D156"/>
       <c r="E156" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>186</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D157"/>
       <c r="E157" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>187</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D158"/>
       <c r="E158" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>181</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D159"/>
       <c r="E159" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D160"/>
       <c r="E160" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>123</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>15</v>
+        <v>112</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C161" t="s">
         <v>43</v>
       </c>
       <c r="D161"/>
       <c r="E161" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>14</v>
@@ -4060,12 +4060,12 @@
       </c>
       <c r="D162"/>
       <c r="E162" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>71</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>13</v>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="D163"/>
       <c r="E163" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="B164" s="15" t="s">
         <v>10</v>
@@ -4090,12 +4090,12 @@
       </c>
       <c r="D164"/>
       <c r="E164" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>14</v>
@@ -4105,12 +4105,12 @@
       </c>
       <c r="D165"/>
       <c r="E165" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>13</v>
@@ -4123,9 +4123,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B167" s="15" t="s">
         <v>10</v>
@@ -4138,9 +4138,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>14</v>
@@ -4153,9 +4153,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>92</v>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>13</v>
@@ -4165,12 +4165,12 @@
       </c>
       <c r="D169"/>
       <c r="E169" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="B170" s="15" t="s">
         <v>10</v>
@@ -4180,12 +4180,12 @@
       </c>
       <c r="D170"/>
       <c r="E170" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>14</v>
@@ -4195,12 +4195,12 @@
       </c>
       <c r="D171"/>
       <c r="E171" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>112</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>13</v>
@@ -4210,12 +4210,12 @@
       </c>
       <c r="D172"/>
       <c r="E172" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="B173" s="15" t="s">
         <v>10</v>
@@ -4225,12 +4225,12 @@
       </c>
       <c r="D173"/>
       <c r="E173" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>14</v>
@@ -4240,12 +4240,12 @@
       </c>
       <c r="D174"/>
       <c r="E174" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="19" t="s">
-        <v>130</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>124</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>13</v>
@@ -4255,12 +4255,12 @@
       </c>
       <c r="D175"/>
       <c r="E175" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="19" t="s">
-        <v>130</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>124</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>10</v>
@@ -4270,12 +4270,12 @@
       </c>
       <c r="D176"/>
       <c r="E176" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="19" t="s">
-        <v>130</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>124</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>14</v>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="D177"/>
       <c r="E177" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>13</v>
@@ -4300,12 +4300,12 @@
       </c>
       <c r="D178"/>
       <c r="E178" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B179" s="15" t="s">
         <v>10</v>
@@ -4315,12 +4315,12 @@
       </c>
       <c r="D179"/>
       <c r="E179" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>14</v>
@@ -4330,12 +4330,12 @@
       </c>
       <c r="D180"/>
       <c r="E180" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>13</v>
@@ -4348,9 +4348,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B182" s="15" t="s">
         <v>10</v>
@@ -4363,9 +4363,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>14</v>
@@ -4378,9 +4378,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>13</v>
@@ -4390,12 +4390,12 @@
       </c>
       <c r="D184"/>
       <c r="E184" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B185" s="15" t="s">
         <v>10</v>
@@ -4405,150 +4405,151 @@
       </c>
       <c r="D185"/>
       <c r="E185" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>103</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C186" t="s">
         <v>43</v>
       </c>
       <c r="D186"/>
       <c r="E186" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>126</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C187" t="s">
         <v>43</v>
       </c>
       <c r="D187"/>
       <c r="E187" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>124</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C188" t="s">
         <v>43</v>
       </c>
       <c r="D188"/>
       <c r="E188" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>124</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>10</v>
+        <v>126</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C189" t="s">
         <v>43</v>
       </c>
       <c r="D189"/>
       <c r="E189" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>103</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C190" t="s">
         <v>43</v>
       </c>
       <c r="D190"/>
       <c r="E190" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>124</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C191" t="s">
         <v>43</v>
       </c>
       <c r="D191"/>
       <c r="E191" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>106</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C192" t="s">
         <v>43</v>
       </c>
       <c r="D192"/>
       <c r="E192" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>106</v>
-      </c>
-      <c r="B193" s="15" t="s">
-        <v>10</v>
+        <v>91</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C193" t="s">
         <v>43</v>
       </c>
       <c r="D193"/>
       <c r="E193" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>106</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>14</v>
+        <v>91</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C194" t="s">
         <v>43</v>
       </c>
       <c r="D194"/>
       <c r="E194" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>91</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C195" t="s">
         <v>43</v>
@@ -4558,87 +4559,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B196" s="15" t="s">
-        <v>10</v>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>109</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C196" t="s">
         <v>43</v>
       </c>
       <c r="D196"/>
       <c r="E196" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>109</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C197" t="s">
         <v>43</v>
       </c>
       <c r="D197"/>
       <c r="E197" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>109</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C198" t="s">
         <v>43</v>
       </c>
       <c r="D198"/>
       <c r="E198" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B199" s="15" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>95</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C199" t="s">
         <v>43</v>
       </c>
       <c r="D199"/>
       <c r="E199" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>95</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C200" t="s">
         <v>43</v>
       </c>
       <c r="D200"/>
       <c r="E200" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>126</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C201" t="s">
         <v>43</v>
@@ -4648,58 +4649,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>126</v>
-      </c>
-      <c r="B202" s="15" t="s">
-        <v>10</v>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C202" t="s">
         <v>43</v>
       </c>
       <c r="D202"/>
       <c r="E202" s="1">
-        <v>3</v>
-      </c>
-      <c r="F202" s="2"/>
-    </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>81</v>
-      </c>
-      <c r="B203" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C203" t="s">
         <v>43</v>
       </c>
       <c r="D203"/>
       <c r="E203" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>81</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C204" t="s">
         <v>43</v>
       </c>
       <c r="D204"/>
       <c r="E204" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>126</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>14</v>
+        <v>107</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C205" t="s">
         <v>43</v>
@@ -4709,102 +4709,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>13</v>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>107</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C206" t="s">
         <v>43</v>
       </c>
       <c r="D206"/>
       <c r="E206" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B207" s="15" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>107</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C207" t="s">
         <v>43</v>
       </c>
       <c r="D207"/>
       <c r="E207" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>82</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C208" t="s">
         <v>43</v>
       </c>
       <c r="D208"/>
       <c r="E208" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>91</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C209" t="s">
         <v>43</v>
       </c>
       <c r="D209"/>
       <c r="E209" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>91</v>
-      </c>
-      <c r="B210" s="15" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C210" t="s">
         <v>43</v>
       </c>
       <c r="D210"/>
       <c r="E210" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>91</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C211" t="s">
         <v>43</v>
       </c>
       <c r="D211"/>
       <c r="E211" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>109</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C212" t="s">
         <v>43</v>
@@ -4814,12 +4814,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>109</v>
-      </c>
-      <c r="B213" s="15" t="s">
-        <v>10</v>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C213" t="s">
         <v>43</v>
@@ -4829,387 +4829,387 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>109</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>14</v>
+        <v>97</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C214" t="s">
         <v>43</v>
       </c>
       <c r="D214"/>
       <c r="E214" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>95</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C215" t="s">
         <v>43</v>
       </c>
       <c r="D215"/>
       <c r="E215" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>95</v>
-      </c>
-      <c r="B216" s="15" t="s">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C216" t="s">
         <v>43</v>
       </c>
       <c r="D216"/>
       <c r="E216" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>95</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>14</v>
+        <v>114</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C217" t="s">
         <v>43</v>
       </c>
       <c r="D217"/>
       <c r="E217" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>114</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C218" t="s">
         <v>43</v>
       </c>
       <c r="D218"/>
       <c r="E218" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B219" s="15" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>114</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C219" t="s">
         <v>43</v>
       </c>
       <c r="D219"/>
       <c r="E219" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>80</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C220" t="s">
         <v>43</v>
       </c>
       <c r="D220"/>
       <c r="E220" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>107</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C221" t="s">
         <v>43</v>
       </c>
       <c r="D221"/>
       <c r="E221" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>107</v>
-      </c>
-      <c r="B222" s="15" t="s">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C222" t="s">
         <v>43</v>
       </c>
       <c r="D222"/>
       <c r="E222" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>197</v>
-      </c>
-      <c r="B223" s="11" t="s">
-        <v>15</v>
+        <v>129</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D223"/>
       <c r="E223" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>191</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>15</v>
+        <v>129</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D224"/>
       <c r="E224" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B225" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>129</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C225" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D225"/>
       <c r="E225" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>182</v>
-      </c>
-      <c r="B226" s="11" t="s">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D226"/>
       <c r="E226" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>75</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D227"/>
       <c r="E227" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>75</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D228"/>
       <c r="E228" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>190</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D229"/>
       <c r="E229" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>189</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D230"/>
       <c r="E230" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>195</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D231"/>
       <c r="E231" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>107</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C232" t="s">
         <v>43</v>
       </c>
       <c r="D232"/>
       <c r="E232" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>82</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C233" t="s">
         <v>43</v>
       </c>
       <c r="D233"/>
       <c r="E233" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>82</v>
-      </c>
-      <c r="B234" s="15" t="s">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C234" t="s">
         <v>43</v>
       </c>
       <c r="D234"/>
       <c r="E234" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>82</v>
-      </c>
-      <c r="B235" s="8" t="s">
-        <v>14</v>
+        <v>99</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C235" t="s">
         <v>43</v>
       </c>
       <c r="D235"/>
       <c r="E235" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>77</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C236" t="s">
         <v>43</v>
       </c>
       <c r="D236"/>
       <c r="E236" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>77</v>
-      </c>
-      <c r="B237" s="15" t="s">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C237" t="s">
         <v>43</v>
       </c>
       <c r="D237"/>
       <c r="E237" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>77</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>14</v>
+        <v>83</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C238" t="s">
         <v>43</v>
       </c>
       <c r="D238"/>
       <c r="E238" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>97</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C239" t="s">
         <v>43</v>
@@ -5219,12 +5219,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>97</v>
-      </c>
-      <c r="B240" s="15" t="s">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C240" t="s">
         <v>43</v>
@@ -5234,12 +5234,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>97</v>
-      </c>
-      <c r="B241" s="8" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C241" t="s">
         <v>43</v>
@@ -5249,12 +5249,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>114</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="B242" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C242" t="s">
         <v>43</v>
@@ -5264,12 +5264,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>114</v>
-      </c>
-      <c r="B243" s="15" t="s">
-        <v>10</v>
+        <v>84</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C243" t="s">
         <v>43</v>
@@ -5279,57 +5279,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>114</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C244" t="s">
         <v>43</v>
       </c>
       <c r="D244"/>
       <c r="E244" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>80</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C245" t="s">
         <v>43</v>
       </c>
       <c r="D245"/>
       <c r="E245" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>80</v>
-      </c>
-      <c r="B246" s="15" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C246" t="s">
         <v>43</v>
       </c>
       <c r="D246"/>
       <c r="E246" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>80</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C247" t="s">
         <v>43</v>
@@ -5339,9 +5339,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>129</v>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>13</v>
@@ -5351,12 +5351,12 @@
       </c>
       <c r="D248"/>
       <c r="E248" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>129</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B249" s="15" t="s">
         <v>10</v>
@@ -5366,57 +5366,57 @@
       </c>
       <c r="D249"/>
       <c r="E249" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>123</v>
-      </c>
-      <c r="B250" s="12" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C250" t="s">
         <v>43</v>
       </c>
       <c r="D250"/>
       <c r="E250" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>123</v>
-      </c>
-      <c r="B251" s="13" t="s">
-        <v>16</v>
+        <v>81</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C251" t="s">
         <v>43</v>
       </c>
       <c r="D251"/>
       <c r="E251" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>129</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C252" t="s">
         <v>43</v>
       </c>
       <c r="D252"/>
       <c r="E252" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>13</v>
@@ -5429,9 +5429,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B254" s="15" t="s">
         <v>10</v>
@@ -5444,9 +5444,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>14</v>
@@ -5459,9 +5459,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="19" t="s">
-        <v>76</v>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>68</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>13</v>
@@ -5471,12 +5471,12 @@
       </c>
       <c r="D256"/>
       <c r="E256" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="19" t="s">
-        <v>76</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>68</v>
       </c>
       <c r="B257" s="15" t="s">
         <v>10</v>
@@ -5486,12 +5486,12 @@
       </c>
       <c r="D257"/>
       <c r="E257" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="19" t="s">
-        <v>76</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>68</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>14</v>
@@ -5501,12 +5501,12 @@
       </c>
       <c r="D258"/>
       <c r="E258" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>13</v>
@@ -5516,12 +5516,12 @@
       </c>
       <c r="D259"/>
       <c r="E259" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B260" s="15" t="s">
         <v>10</v>
@@ -5531,12 +5531,12 @@
       </c>
       <c r="D260"/>
       <c r="E260" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>14</v>
@@ -5546,12 +5546,12 @@
       </c>
       <c r="D261"/>
       <c r="E261" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>13</v>
@@ -5561,12 +5561,12 @@
       </c>
       <c r="D262"/>
       <c r="E262" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>10</v>
@@ -5576,12 +5576,12 @@
       </c>
       <c r="D263"/>
       <c r="E263" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>14</v>
@@ -5591,12 +5591,12 @@
       </c>
       <c r="D264"/>
       <c r="E264" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>13</v>
@@ -5606,12 +5606,12 @@
       </c>
       <c r="D265"/>
       <c r="E265" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B266" s="15" t="s">
         <v>10</v>
@@ -5621,12 +5621,12 @@
       </c>
       <c r="D266"/>
       <c r="E266" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>14</v>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="D267"/>
       <c r="E267" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>13</v>
@@ -5651,12 +5651,12 @@
       </c>
       <c r="D268"/>
       <c r="E268" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B269" s="15" t="s">
         <v>10</v>
@@ -5666,12 +5666,12 @@
       </c>
       <c r="D269"/>
       <c r="E269" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>14</v>
@@ -5681,12 +5681,12 @@
       </c>
       <c r="D270"/>
       <c r="E270" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>13</v>
@@ -5696,12 +5696,12 @@
       </c>
       <c r="D271"/>
       <c r="E271" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B272" s="15" t="s">
         <v>10</v>
@@ -5711,12 +5711,12 @@
       </c>
       <c r="D272"/>
       <c r="E272" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>14</v>
@@ -5726,12 +5726,12 @@
       </c>
       <c r="D273"/>
       <c r="E273" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>13</v>
@@ -5741,12 +5741,12 @@
       </c>
       <c r="D274"/>
       <c r="E274" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B275" s="15" t="s">
         <v>10</v>
@@ -5756,12 +5756,12 @@
       </c>
       <c r="D275"/>
       <c r="E275" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>14</v>
@@ -5771,12 +5771,12 @@
       </c>
       <c r="D276"/>
       <c r="E276" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>128</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>13</v>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="D277"/>
       <c r="E277" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>128</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B278" s="15" t="s">
         <v>10</v>
@@ -5801,12 +5801,12 @@
       </c>
       <c r="D278"/>
       <c r="E278" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>128</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>14</v>
@@ -5816,12 +5816,12 @@
       </c>
       <c r="D279"/>
       <c r="E279" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>13</v>
@@ -5831,12 +5831,12 @@
       </c>
       <c r="D280"/>
       <c r="E280" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B281" s="15" t="s">
         <v>10</v>
@@ -5846,12 +5846,12 @@
       </c>
       <c r="D281"/>
       <c r="E281" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>14</v>
@@ -5861,12 +5861,12 @@
       </c>
       <c r="D282"/>
       <c r="E282" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>13</v>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="D283"/>
       <c r="E283" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B284" s="15" t="s">
         <v>10</v>
@@ -5891,12 +5891,12 @@
       </c>
       <c r="D284"/>
       <c r="E284" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>14</v>
@@ -5906,12 +5906,12 @@
       </c>
       <c r="D285"/>
       <c r="E285" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>13</v>
@@ -5921,12 +5921,12 @@
       </c>
       <c r="D286"/>
       <c r="E286" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B287" s="15" t="s">
         <v>10</v>
@@ -5936,12 +5936,12 @@
       </c>
       <c r="D287"/>
       <c r="E287" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>14</v>
@@ -5951,12 +5951,12 @@
       </c>
       <c r="D288"/>
       <c r="E288" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>104</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>13</v>
@@ -5966,12 +5966,12 @@
       </c>
       <c r="D289"/>
       <c r="E289" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>104</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="B290" s="15" t="s">
         <v>10</v>
@@ -5981,12 +5981,12 @@
       </c>
       <c r="D290"/>
       <c r="E290" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>104</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>14</v>
@@ -5996,12 +5996,12 @@
       </c>
       <c r="D291"/>
       <c r="E291" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>13</v>
@@ -6011,12 +6011,12 @@
       </c>
       <c r="D292"/>
       <c r="E292" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B293" s="15" t="s">
         <v>10</v>
@@ -6026,12 +6026,12 @@
       </c>
       <c r="D293"/>
       <c r="E293" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>14</v>
@@ -6041,12 +6041,12 @@
       </c>
       <c r="D294"/>
       <c r="E294" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B295" s="7" t="s">
         <v>13</v>
@@ -6056,12 +6056,12 @@
       </c>
       <c r="D295"/>
       <c r="E295" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B296" s="15" t="s">
         <v>10</v>
@@ -6071,12 +6071,12 @@
       </c>
       <c r="D296"/>
       <c r="E296" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>14</v>
@@ -6086,12 +6086,12 @@
       </c>
       <c r="D297"/>
       <c r="E297" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>13</v>
@@ -6101,12 +6101,12 @@
       </c>
       <c r="D298"/>
       <c r="E298" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B299" s="15" t="s">
         <v>10</v>
@@ -6116,57 +6116,57 @@
       </c>
       <c r="D299"/>
       <c r="E299" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>198</v>
-      </c>
-      <c r="B300" s="11" t="s">
-        <v>15</v>
+        <v>100</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C300" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D300"/>
       <c r="E300" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>194</v>
-      </c>
-      <c r="B301" s="11" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D301"/>
       <c r="E301" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>184</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D302"/>
       <c r="E302" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>14</v>
@@ -6176,12 +6176,12 @@
       </c>
       <c r="D303"/>
       <c r="E303" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="19" t="s">
-        <v>101</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>120</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>13</v>
@@ -6191,12 +6191,12 @@
       </c>
       <c r="D304"/>
       <c r="E304" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="19" t="s">
-        <v>101</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>120</v>
       </c>
       <c r="B305" s="15" t="s">
         <v>10</v>
@@ -6206,12 +6206,12 @@
       </c>
       <c r="D305"/>
       <c r="E305" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="19" t="s">
-        <v>101</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>120</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>14</v>
@@ -6221,177 +6221,177 @@
       </c>
       <c r="D306"/>
       <c r="E306" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>125</v>
-      </c>
-      <c r="B307" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D307"/>
       <c r="E307" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>125</v>
-      </c>
-      <c r="B308" s="15" t="s">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="B308" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C308" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D308"/>
       <c r="E308" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>125</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>14</v>
+        <v>139</v>
+      </c>
+      <c r="B309" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C309" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D309"/>
       <c r="E309" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>90</v>
-      </c>
-      <c r="B310" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
+      </c>
+      <c r="B310" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C310" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D310"/>
       <c r="E310" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>90</v>
-      </c>
-      <c r="B311" s="15" t="s">
-        <v>10</v>
+        <v>143</v>
+      </c>
+      <c r="B311" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D311"/>
       <c r="E311" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>90</v>
-      </c>
-      <c r="B312" s="8" t="s">
-        <v>14</v>
+        <v>142</v>
+      </c>
+      <c r="B312" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D312"/>
       <c r="E312" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>108</v>
-      </c>
-      <c r="B313" s="7" t="s">
-        <v>13</v>
+        <v>147</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C313" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D313"/>
       <c r="E313" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>108</v>
-      </c>
-      <c r="B314" s="15" t="s">
-        <v>10</v>
+        <v>136</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D314"/>
       <c r="E314" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>108</v>
-      </c>
-      <c r="B315" s="8" t="s">
-        <v>14</v>
+        <v>134</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D315"/>
       <c r="E315" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B316" s="7" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>137</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D316"/>
       <c r="E316" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B317" s="15" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>138</v>
+      </c>
+      <c r="B317" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D317"/>
       <c r="E317" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B318" s="13" t="s">
         <v>16</v>
@@ -6404,9 +6404,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B319" s="13" t="s">
         <v>16</v>
@@ -6419,9 +6419,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B320" s="13" t="s">
         <v>16</v>
@@ -6434,9 +6434,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B321" s="13" t="s">
         <v>16</v>
@@ -6449,172 +6449,171 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>143</v>
-      </c>
-      <c r="B322" s="13" t="s">
-        <v>16</v>
+        <v>197</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C322" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D322"/>
       <c r="E322" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>142</v>
-      </c>
-      <c r="B323" s="13" t="s">
-        <v>16</v>
+        <v>186</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D323"/>
       <c r="E323" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>147</v>
-      </c>
-      <c r="B324" s="13" t="s">
-        <v>16</v>
+        <v>187</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D324"/>
       <c r="E324" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>136</v>
-      </c>
-      <c r="B325" s="13" t="s">
-        <v>16</v>
+        <v>188</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D325"/>
       <c r="E325" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>134</v>
-      </c>
-      <c r="B326" s="13" t="s">
-        <v>16</v>
+        <v>191</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D326"/>
       <c r="E326" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>137</v>
-      </c>
-      <c r="B327" s="13" t="s">
-        <v>16</v>
+        <v>181</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D327"/>
       <c r="E327" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>138</v>
-      </c>
-      <c r="B328" s="13" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C328" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D328"/>
       <c r="E328" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>141</v>
-      </c>
-      <c r="B329" s="13" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D329"/>
       <c r="E329" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>132</v>
-      </c>
-      <c r="B330" s="13" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D330"/>
       <c r="E330" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>140</v>
-      </c>
-      <c r="B331" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C331" t="s">
-        <v>135</v>
-      </c>
-      <c r="D331"/>
-      <c r="E331" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E331" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>144</v>
-      </c>
-      <c r="B332" s="13" t="s">
-        <v>16</v>
+        <v>182</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D332"/>
       <c r="E332" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>148</v>
       </c>
@@ -6629,9 +6628,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>185</v>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="B334" s="11" t="s">
         <v>15</v>
@@ -6641,252 +6640,252 @@
       </c>
       <c r="D334"/>
       <c r="E334" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" t="s">
+        <v>149</v>
+      </c>
+      <c r="D335"/>
+      <c r="E335" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C336" t="s">
+        <v>149</v>
+      </c>
+      <c r="D336"/>
+      <c r="E336" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>194</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C337" t="s">
+        <v>149</v>
+      </c>
+      <c r="D337"/>
+      <c r="E337" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C338" t="s">
+        <v>149</v>
+      </c>
+      <c r="D338"/>
+      <c r="E338" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339" t="s">
+        <v>149</v>
+      </c>
+      <c r="D339"/>
+      <c r="E339" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" t="s">
+        <v>149</v>
+      </c>
+      <c r="D340"/>
+      <c r="E340" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" t="s">
+        <v>149</v>
+      </c>
+      <c r="D341"/>
+      <c r="E341" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" t="s">
+        <v>149</v>
+      </c>
+      <c r="D342"/>
+      <c r="E342" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C343" t="s">
+        <v>149</v>
+      </c>
+      <c r="D343"/>
+      <c r="E343" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C344" t="s">
+        <v>149</v>
+      </c>
+      <c r="D344"/>
+      <c r="E344" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C345" t="s">
+        <v>149</v>
+      </c>
+      <c r="D345"/>
+      <c r="E345" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>190</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C346" t="s">
+        <v>149</v>
+      </c>
+      <c r="D346"/>
+      <c r="E346" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>184</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C347" t="s">
+        <v>149</v>
+      </c>
+      <c r="D347"/>
+      <c r="E347" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>189</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C348" t="s">
+        <v>149</v>
+      </c>
+      <c r="D348"/>
+      <c r="E348" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>195</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C349" t="s">
+        <v>149</v>
+      </c>
+      <c r="D349"/>
+      <c r="E349" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>185</v>
+      </c>
+      <c r="B350" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C350" t="s">
+        <v>149</v>
+      </c>
+      <c r="D350"/>
+      <c r="E350" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
         <v>169</v>
-      </c>
-      <c r="B335" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C335" t="s">
-        <v>170</v>
-      </c>
-      <c r="D335"/>
-      <c r="E335" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>156</v>
-      </c>
-      <c r="B336" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C336" t="s">
-        <v>170</v>
-      </c>
-      <c r="D336"/>
-      <c r="E336" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>160</v>
-      </c>
-      <c r="B337" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C337" t="s">
-        <v>170</v>
-      </c>
-      <c r="D337"/>
-      <c r="E337" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>154</v>
-      </c>
-      <c r="B338" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C338" t="s">
-        <v>170</v>
-      </c>
-      <c r="D338"/>
-      <c r="E338" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>155</v>
-      </c>
-      <c r="B339" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C339" t="s">
-        <v>170</v>
-      </c>
-      <c r="D339"/>
-      <c r="E339" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>162</v>
-      </c>
-      <c r="B340" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C340" t="s">
-        <v>170</v>
-      </c>
-      <c r="D340"/>
-      <c r="E340" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
-        <v>152</v>
-      </c>
-      <c r="B341" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C341" t="s">
-        <v>170</v>
-      </c>
-      <c r="D341"/>
-      <c r="E341" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>158</v>
-      </c>
-      <c r="B342" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C342" t="s">
-        <v>170</v>
-      </c>
-      <c r="D342"/>
-      <c r="E342" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>157</v>
-      </c>
-      <c r="B343" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C343" t="s">
-        <v>170</v>
-      </c>
-      <c r="D343"/>
-      <c r="E343" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>161</v>
-      </c>
-      <c r="B344" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C344" t="s">
-        <v>170</v>
-      </c>
-      <c r="D344"/>
-      <c r="E344" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>166</v>
-      </c>
-      <c r="B345" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C345" t="s">
-        <v>170</v>
-      </c>
-      <c r="D345"/>
-      <c r="E345" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>167</v>
-      </c>
-      <c r="B346" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C346" t="s">
-        <v>170</v>
-      </c>
-      <c r="D346"/>
-      <c r="E346" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>153</v>
-      </c>
-      <c r="B347" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C347" t="s">
-        <v>170</v>
-      </c>
-      <c r="D347"/>
-      <c r="E347" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>165</v>
-      </c>
-      <c r="B348" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C348" t="s">
-        <v>170</v>
-      </c>
-      <c r="D348"/>
-      <c r="E348" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>163</v>
-      </c>
-      <c r="B349" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C349" t="s">
-        <v>170</v>
-      </c>
-      <c r="D349"/>
-      <c r="E349" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>168</v>
-      </c>
-      <c r="B350" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C350" t="s">
-        <v>170</v>
-      </c>
-      <c r="D350"/>
-      <c r="E350" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>164</v>
       </c>
       <c r="B351" s="12" t="s">
         <v>12</v>
@@ -6899,9 +6898,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B352" s="12" t="s">
         <v>12</v>
@@ -6914,894 +6913,879 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B353" s="8" t="s">
-        <v>14</v>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>160</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D353"/>
-      <c r="E353" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E353" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>98</v>
-      </c>
-      <c r="B354" s="7" t="s">
-        <v>13</v>
+        <v>154</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D354"/>
-      <c r="E354" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E354" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>98</v>
-      </c>
-      <c r="B355" s="15" t="s">
-        <v>10</v>
+        <v>155</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D355"/>
-      <c r="E355" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E355" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>98</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>14</v>
+        <v>162</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C356" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D356"/>
-      <c r="E356" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E356" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>87</v>
-      </c>
-      <c r="B357" s="7" t="s">
-        <v>13</v>
+        <v>152</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D357"/>
-      <c r="E357" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E357" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>87</v>
-      </c>
-      <c r="B358" s="15" t="s">
-        <v>10</v>
+        <v>158</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D358"/>
-      <c r="E358" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E358" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>87</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>14</v>
+        <v>157</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D359"/>
-      <c r="E359" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E359" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>100</v>
-      </c>
-      <c r="B360" s="7" t="s">
-        <v>13</v>
+        <v>161</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D360"/>
-      <c r="E360" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E360" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>100</v>
-      </c>
-      <c r="B361" s="15" t="s">
-        <v>10</v>
+        <v>166</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D361"/>
-      <c r="E361" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E361" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>100</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>14</v>
+        <v>167</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D362"/>
-      <c r="E362" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E362" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>85</v>
-      </c>
-      <c r="B363" s="7" t="s">
-        <v>13</v>
+        <v>153</v>
+      </c>
+      <c r="B363" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D363"/>
-      <c r="E363" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E363" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>85</v>
-      </c>
-      <c r="B364" s="15" t="s">
-        <v>10</v>
+        <v>165</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D364"/>
-      <c r="E364" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E364" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>85</v>
-      </c>
-      <c r="B365" s="8" t="s">
-        <v>14</v>
+        <v>163</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D365"/>
-      <c r="E365" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E365" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>120</v>
-      </c>
-      <c r="B366" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
+      </c>
+      <c r="B366" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D366"/>
-      <c r="E366" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E366" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>120</v>
-      </c>
-      <c r="B367" s="15" t="s">
-        <v>10</v>
+        <v>164</v>
+      </c>
+      <c r="B367" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D367"/>
-      <c r="E367" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E367" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>120</v>
-      </c>
-      <c r="B368" s="8" t="s">
-        <v>14</v>
+        <v>159</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D368"/>
-      <c r="E368" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E368" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D397"/>
       <c r="E397"/>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D398"/>
       <c r="E398"/>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D399"/>
       <c r="E399"/>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D400"/>
       <c r="E400"/>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D401"/>
       <c r="E401"/>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D402"/>
       <c r="E402"/>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D403"/>
       <c r="E403"/>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D404"/>
       <c r="E404"/>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D405"/>
       <c r="E405"/>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D406"/>
       <c r="E406"/>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D407"/>
       <c r="E407"/>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D408"/>
       <c r="E408"/>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D409"/>
       <c r="E409"/>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D410"/>
       <c r="E410"/>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D411"/>
       <c r="E411"/>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D412"/>
       <c r="E412"/>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D413"/>
       <c r="E413"/>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D414"/>
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
     </row>
-    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
     </row>
-    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
@@ -7809,7 +7793,7 @@
       <c r="E482"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
@@ -7820,7 +7804,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
@@ -7831,7 +7815,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
@@ -7842,7 +7826,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
@@ -7853,7 +7837,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
@@ -7864,7 +7848,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
@@ -7875,7 +7859,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
@@ -7886,7 +7870,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
@@ -7897,7 +7881,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
@@ -7906,7 +7890,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
@@ -7915,7 +7899,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
@@ -7924,7 +7908,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
@@ -7933,7 +7917,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
@@ -7941,14 +7925,14 @@
       <c r="E495"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
@@ -7956,7 +7940,7 @@
       <c r="E497"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
@@ -7964,7 +7948,7 @@
       <c r="E498"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
@@ -7972,367 +7956,329 @@
       <c r="E499"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
       <c r="D518"/>
       <c r="E518"/>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519"/>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520"/>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521"/>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522"/>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523"/>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524"/>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525"/>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556"/>
     </row>
-    <row r="557" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="558" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="559" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="560" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="561" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="562" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="563" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="564" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="565" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="566" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="567" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="568" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="569" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="570" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="571" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="572" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="573" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="574" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="575" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="576" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="16"/>
     </row>
-    <row r="577" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="578" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="579" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="580" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F580"/>
     </row>
-    <row r="581" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F581"/>
     </row>
-    <row r="582" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F582"/>
     </row>
-    <row r="583" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F583"/>
     </row>
-    <row r="584" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F584"/>
     </row>
-    <row r="585" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F585"/>
     </row>
-    <row r="586" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F586"/>
     </row>
-    <row r="587" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F587"/>
     </row>
-    <row r="588" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F588"/>
     </row>
-    <row r="589" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F589"/>
     </row>
-    <row r="590" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F590"/>
     </row>
-    <row r="591" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F591"/>
     </row>
-    <row r="592" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F592"/>
     </row>
-    <row r="593" spans="6:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F593"/>
     </row>
-    <row r="594" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="595" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="596" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="597" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="598" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="599" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="600" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="601" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="602" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="603" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="604" spans="6:6" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:F604">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Script"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A3:F604">
+    <sortState ref="A2:F604">
       <sortCondition ref="A1:A604"/>
     </sortState>
   </autoFilter>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1112,32 +1112,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I196" sqref="I196"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>57</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>57</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>57</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>57</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>57</v>
       </c>
@@ -2173,7 +2173,7 @@
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="I40" s="2"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>59</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>59</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>59</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>59</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>59</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>55</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>55</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>55</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>55</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>55</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>55</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>56</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>56</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>56</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>56</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>56</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>56</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>60</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>60</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>60</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>60</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>60</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>60</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>63</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>63</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>63</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>63</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>61</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
         <v>61</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>61</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>61</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
         <v>61</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
         <v>61</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
         <v>62</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>65</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>123</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>123</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>123</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>89</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>89</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>89</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>119</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
         <v>119</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>119</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
         <v>131</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>131</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>131</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
         <v>127</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>127</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
         <v>127</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>67</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>67</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>67</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>86</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>86</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>86</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>74</v>
       </c>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="F131"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
         <v>74</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="19" t="s">
         <v>74</v>
       </c>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="19" t="s">
         <v>74</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="F134"/>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>74</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="F135"/>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>74</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>110</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>110</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>113</v>
       </c>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>113</v>
       </c>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>113</v>
       </c>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>102</v>
       </c>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="19" t="s">
         <v>102</v>
       </c>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
         <v>102</v>
       </c>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>103</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>103</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>103</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>71</v>
       </c>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>71</v>
       </c>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>71</v>
       </c>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>70</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>70</v>
       </c>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>92</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>92</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>92</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="19" t="s">
         <v>130</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="19" t="s">
         <v>130</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="19" t="s">
         <v>130</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>78</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>78</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>78</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="19" t="s">
         <v>93</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="19" t="s">
         <v>93</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="19" t="s">
         <v>93</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="19" t="s">
         <v>94</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="19" t="s">
         <v>94</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="19" t="s">
         <v>94</v>
       </c>
@@ -4243,8 +4243,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B175" s="7" t="s">
@@ -4258,8 +4258,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B176" s="15" t="s">
@@ -4273,8 +4273,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B177" s="8" t="s">
@@ -4288,7 +4288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>106</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>106</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>106</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="19" t="s">
         <v>116</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="19" t="s">
         <v>116</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="19" t="s">
         <v>116</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="19" t="s">
         <v>117</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="19" t="s">
         <v>117</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="19" t="s">
         <v>117</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>126</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="19" t="s">
         <v>72</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="19" t="s">
         <v>72</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="19" t="s">
         <v>72</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>91</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>91</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>91</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>109</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>109</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>109</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>95</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>95</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>95</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
         <v>204</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="19" t="s">
         <v>204</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="19" t="s">
         <v>204</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>107</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>107</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>107</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>82</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>82</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>82</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
         <v>77</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="19" t="s">
         <v>77</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
         <v>77</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>97</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>97</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>97</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>114</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>114</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>114</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>80</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>80</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>80</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>129</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>129</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>129</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>75</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>75</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>75</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
         <v>76</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="19" t="s">
         <v>76</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="19" t="s">
         <v>76</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>79</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>79</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>79</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>99</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>99</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>99</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>83</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>83</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>83</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>84</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>84</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>84</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>73</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>73</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>73</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="19" t="s">
         <v>81</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="19" t="s">
         <v>81</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="19" t="s">
         <v>81</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="19" t="s">
         <v>81</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>81</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>81</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>128</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>128</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>128</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>68</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>68</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>68</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>68</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>68</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>68</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>105</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>105</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>105</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>104</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>104</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>104</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>69</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>69</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>69</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>111</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>111</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>111</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>88</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>88</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>88</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="19" t="s">
         <v>101</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="19" t="s">
         <v>101</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="19" t="s">
         <v>101</v>
       </c>
@@ -5819,8 +5819,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="19" t="s">
         <v>125</v>
       </c>
       <c r="B280" s="7" t="s">
@@ -5834,8 +5834,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="19" t="s">
         <v>125</v>
       </c>
       <c r="B281" s="15" t="s">
@@ -5849,8 +5849,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="19" t="s">
         <v>125</v>
       </c>
       <c r="B282" s="8" t="s">
@@ -5864,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>108</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>108</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>108</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="19" t="s">
         <v>66</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="19" t="s">
         <v>66</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="19" t="s">
         <v>66</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>98</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>98</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>98</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>87</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>87</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>87</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>100</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>100</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>100</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>85</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>85</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>85</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>120</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>120</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>120</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>145</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>139</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>146</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>143</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>142</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>147</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>136</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>134</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>137</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>138</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>141</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>132</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>140</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>144</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>197</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>186</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>187</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>188</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>191</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>181</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="19" t="s">
         <v>196</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>198</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="19" t="s">
         <v>183</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>205</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>182</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>148</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="19" t="s">
         <v>179</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="19" t="s">
         <v>180</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="19" t="s">
         <v>178</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>194</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>202</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="19" t="s">
         <v>192</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>200</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="19" t="s">
         <v>193</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="19" t="s">
         <v>176</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="19" t="s">
         <v>175</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>203</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="19" t="s">
         <v>177</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>190</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>184</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>189</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>195</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>185</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>169</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>156</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>160</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>154</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>155</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>162</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>152</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>158</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>157</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>161</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>166</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>167</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>153</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>165</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>163</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>168</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>164</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>159</v>
       </c>
@@ -7153,639 +7153,639 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D397"/>
       <c r="E397"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D398"/>
       <c r="E398"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D399"/>
       <c r="E399"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D400"/>
       <c r="E400"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D401"/>
       <c r="E401"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D402"/>
       <c r="E402"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D403"/>
       <c r="E403"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D404"/>
       <c r="E404"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D405"/>
       <c r="E405"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D406"/>
       <c r="E406"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D407"/>
       <c r="E407"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D408"/>
       <c r="E408"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D409"/>
       <c r="E409"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D410"/>
       <c r="E410"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D411"/>
       <c r="E411"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D412"/>
       <c r="E412"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D413"/>
       <c r="E413"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D414"/>
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
@@ -7793,7 +7793,7 @@
       <c r="E482"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
@@ -7804,7 +7804,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
@@ -7815,7 +7815,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
@@ -7826,7 +7826,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
@@ -7837,7 +7837,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
@@ -7848,7 +7848,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
@@ -7859,7 +7859,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
@@ -7870,7 +7870,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
@@ -7881,7 +7881,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
@@ -7890,7 +7890,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
@@ -7899,7 +7899,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
@@ -7908,7 +7908,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
@@ -7917,7 +7917,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
@@ -7925,14 +7925,14 @@
       <c r="E495"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
@@ -7940,7 +7940,7 @@
       <c r="E497"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
@@ -7948,7 +7948,7 @@
       <c r="E498"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
@@ -7956,324 +7956,324 @@
       <c r="E499"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
       <c r="D518"/>
       <c r="E518"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="16"/>
     </row>
-    <row r="580" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F580"/>
     </row>
-    <row r="581" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F581"/>
     </row>
-    <row r="582" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F582"/>
     </row>
-    <row r="583" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F583"/>
     </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F584"/>
     </row>
-    <row r="585" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F585"/>
     </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F586"/>
     </row>
-    <row r="587" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F587"/>
     </row>
-    <row r="588" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F588"/>
     </row>
-    <row r="589" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F589"/>
     </row>
-    <row r="590" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F590"/>
     </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F591"/>
     </row>
-    <row r="592" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F592"/>
     </row>
-    <row r="593" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F593"/>
     </row>
   </sheetData>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="207">
   <si>
     <t>ID Code</t>
   </si>
@@ -622,9 +622,6 @@
     <t>H_KS_01</t>
   </si>
   <si>
-    <t xml:space="preserve">Intercom | Puzzles | </t>
-  </si>
-  <si>
     <t>H_Int_01</t>
   </si>
   <si>
@@ -635,6 +632,12 @@
   </si>
   <si>
     <t>H_EMo_01</t>
+  </si>
+  <si>
+    <t>H_MCo_01</t>
+  </si>
+  <si>
+    <t>Intercom | Puzzles | MeleeCombat |</t>
   </si>
 </sst>
 </file>
@@ -1112,32 +1115,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1193,7 +1196,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1220,7 +1223,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1253,7 +1256,7 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1286,7 +1289,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1319,7 +1322,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1352,7 +1355,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1383,7 +1386,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1414,7 +1417,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1445,7 +1448,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1473,7 +1476,7 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1501,7 +1504,7 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1529,7 +1532,7 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1559,7 +1562,7 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1587,7 +1590,7 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1617,7 +1620,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1645,7 +1648,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1673,7 +1676,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1689,7 +1692,7 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1701,7 +1704,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1731,7 +1734,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1759,7 +1762,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1783,7 +1786,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1807,7 +1810,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1831,7 +1834,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1855,7 +1858,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1879,7 +1882,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1903,7 +1906,7 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1927,7 +1930,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1951,7 +1954,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1975,7 +1978,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2000,7 +2003,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2026,7 +2029,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>57</v>
       </c>
@@ -2052,7 +2055,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>57</v>
       </c>
@@ -2078,7 +2081,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
@@ -2104,7 +2107,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>57</v>
       </c>
@@ -2130,7 +2133,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>57</v>
       </c>
@@ -2156,7 +2159,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>57</v>
       </c>
@@ -2173,7 +2176,7 @@
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2190,7 +2193,7 @@
       <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2207,7 +2210,7 @@
       <c r="I40" s="2"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>59</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>59</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>59</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>59</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>59</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>55</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>55</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>55</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>55</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>55</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>55</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>56</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>56</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>56</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>56</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>56</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>56</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>60</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>60</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>60</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>60</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>60</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>60</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>63</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>63</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>63</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>63</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>61</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>61</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>61</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>61</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>61</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>61</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>62</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>65</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>123</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>123</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>123</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>89</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>89</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>89</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>119</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>119</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>119</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>131</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>131</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>131</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3272,7 +3275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>127</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>127</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>127</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3407,7 +3410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>67</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>67</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>67</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>86</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>86</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>86</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -3527,7 +3530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>74</v>
       </c>
@@ -3573,7 +3576,7 @@
       </c>
       <c r="F131"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>74</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
         <v>74</v>
       </c>
@@ -3604,7 +3607,7 @@
       </c>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
         <v>74</v>
       </c>
@@ -3621,7 +3624,7 @@
       <c r="F134"/>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>74</v>
       </c>
@@ -3638,7 +3641,7 @@
       <c r="F135"/>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>74</v>
       </c>
@@ -3654,7 +3657,7 @@
       </c>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>110</v>
       </c>
@@ -3670,7 +3673,7 @@
       </c>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>110</v>
       </c>
@@ -3686,7 +3689,7 @@
       </c>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -3702,7 +3705,7 @@
       </c>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>113</v>
       </c>
@@ -3718,7 +3721,7 @@
       </c>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>113</v>
       </c>
@@ -3734,7 +3737,7 @@
       </c>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>113</v>
       </c>
@@ -3750,7 +3753,7 @@
       </c>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>102</v>
       </c>
@@ -3766,7 +3769,7 @@
       </c>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>102</v>
       </c>
@@ -3782,7 +3785,7 @@
       </c>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>102</v>
       </c>
@@ -3798,7 +3801,7 @@
       </c>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>103</v>
       </c>
@@ -3814,7 +3817,7 @@
       </c>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>103</v>
       </c>
@@ -3830,7 +3833,7 @@
       </c>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -3846,7 +3849,7 @@
       </c>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -3862,7 +3865,7 @@
       </c>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>103</v>
       </c>
@@ -3878,7 +3881,7 @@
       </c>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>71</v>
       </c>
@@ -3894,7 +3897,7 @@
       </c>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>71</v>
       </c>
@@ -3910,7 +3913,7 @@
       </c>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>71</v>
       </c>
@@ -3926,7 +3929,7 @@
       </c>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>70</v>
       </c>
@@ -3942,7 +3945,7 @@
       </c>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>70</v>
       </c>
@@ -3958,7 +3961,7 @@
       </c>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>92</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>92</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>92</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
         <v>130</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
         <v>130</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
         <v>130</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>78</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>78</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>78</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
         <v>93</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
         <v>93</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="19" t="s">
         <v>93</v>
       </c>
@@ -4198,7 +4201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
         <v>94</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
         <v>94</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
         <v>94</v>
       </c>
@@ -4243,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="19" t="s">
         <v>124</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
         <v>124</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
         <v>124</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>106</v>
       </c>
@@ -4303,7 +4306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>106</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>106</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
         <v>116</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
         <v>116</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
         <v>116</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
         <v>117</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
         <v>117</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
         <v>117</v>
       </c>
@@ -4423,7 +4426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>126</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -4454,7 +4457,7 @@
       </c>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
         <v>72</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
         <v>72</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
         <v>72</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>91</v>
       </c>
@@ -4529,7 +4532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>91</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>91</v>
       </c>
@@ -4559,7 +4562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>109</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>109</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>109</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>95</v>
       </c>
@@ -4619,7 +4622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>95</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>95</v>
       </c>
@@ -4649,9 +4652,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>13</v>
@@ -4664,9 +4667,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="15" t="s">
         <v>10</v>
@@ -4679,9 +4682,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>14</v>
@@ -4694,7 +4697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>107</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>107</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>107</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>82</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>82</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>82</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
         <v>77</v>
       </c>
@@ -4799,7 +4802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
         <v>77</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
         <v>77</v>
       </c>
@@ -4829,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>97</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>97</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>97</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>114</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>114</v>
       </c>
@@ -4904,7 +4907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>114</v>
       </c>
@@ -4919,7 +4922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>80</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>80</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>80</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>129</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>129</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>129</v>
       </c>
@@ -5009,7 +5012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>75</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>75</v>
       </c>
@@ -5039,7 +5042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>75</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="19" t="s">
         <v>76</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
         <v>76</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="19" t="s">
         <v>76</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>79</v>
       </c>
@@ -5114,7 +5117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>79</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>79</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>99</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>99</v>
       </c>
@@ -5174,7 +5177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>99</v>
       </c>
@@ -5189,7 +5192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>83</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>83</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>83</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>84</v>
       </c>
@@ -5249,7 +5252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>84</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>84</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>73</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>73</v>
       </c>
@@ -5309,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>73</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="19" t="s">
         <v>81</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="19" t="s">
         <v>81</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="19" t="s">
         <v>81</v>
       </c>
@@ -5369,7 +5372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="19" t="s">
         <v>81</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>81</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>81</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>128</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>128</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>128</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>68</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>68</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>68</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>68</v>
       </c>
@@ -5519,7 +5522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>68</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>68</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>105</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>105</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>105</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>104</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>104</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>104</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>69</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>69</v>
       </c>
@@ -5669,7 +5672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>69</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>111</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>111</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>111</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>88</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>88</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>88</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="19" t="s">
         <v>101</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="19" t="s">
         <v>101</v>
       </c>
@@ -5804,7 +5807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="19" t="s">
         <v>101</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="19" t="s">
         <v>125</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="19" t="s">
         <v>125</v>
       </c>
@@ -5849,7 +5852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="19" t="s">
         <v>125</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>108</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>108</v>
       </c>
@@ -5939,7 +5942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>108</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="19" t="s">
         <v>66</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="19" t="s">
         <v>66</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="19" t="s">
         <v>66</v>
       </c>
@@ -5999,7 +6002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>98</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>98</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>98</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>87</v>
       </c>
@@ -6059,7 +6062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>87</v>
       </c>
@@ -6074,7 +6077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>87</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>100</v>
       </c>
@@ -6104,7 +6107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>100</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>100</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>85</v>
       </c>
@@ -6149,7 +6152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>85</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>85</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>120</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>120</v>
       </c>
@@ -6209,7 +6212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>120</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>145</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>139</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>146</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>143</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>142</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>147</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>136</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>134</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>137</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>138</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>141</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>132</v>
       </c>
@@ -6419,7 +6422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>140</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>144</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>197</v>
       </c>
@@ -6464,7 +6467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>186</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>187</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>188</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>191</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>181</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="19" t="s">
         <v>196</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>198</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="19" t="s">
         <v>183</v>
       </c>
@@ -6584,9 +6587,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B331" s="11" t="s">
         <v>15</v>
@@ -6598,7 +6601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>182</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>148</v>
       </c>
@@ -6628,7 +6631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="19" t="s">
         <v>179</v>
       </c>
@@ -6643,7 +6646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="19" t="s">
         <v>180</v>
       </c>
@@ -6658,7 +6661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="19" t="s">
         <v>178</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>194</v>
       </c>
@@ -6688,9 +6691,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B338" s="11" t="s">
         <v>15</v>
@@ -6703,7 +6706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="19" t="s">
         <v>192</v>
       </c>
@@ -6718,7 +6721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>200</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="19" t="s">
         <v>193</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="19" t="s">
         <v>176</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="19" t="s">
         <v>175</v>
       </c>
@@ -6778,9 +6781,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B344" s="11" t="s">
         <v>15</v>
@@ -6793,7 +6796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="19" t="s">
         <v>177</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>190</v>
       </c>
@@ -6823,7 +6826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>184</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>189</v>
       </c>
@@ -6853,7 +6856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>195</v>
       </c>
@@ -6868,7 +6871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>185</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>169</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>156</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>160</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>154</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>155</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>162</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>152</v>
       </c>
@@ -6988,7 +6991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>158</v>
       </c>
@@ -7003,7 +7006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>157</v>
       </c>
@@ -7018,7 +7021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>161</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>166</v>
       </c>
@@ -7048,7 +7051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>167</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>153</v>
       </c>
@@ -7078,7 +7081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>165</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>163</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>168</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>164</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>159</v>
       </c>
@@ -7153,639 +7156,653 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C369" t="s">
+        <v>149</v>
+      </c>
+      <c r="E369" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D397"/>
       <c r="E397"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D398"/>
       <c r="E398"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D399"/>
       <c r="E399"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D400"/>
       <c r="E400"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D401"/>
       <c r="E401"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D402"/>
       <c r="E402"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D403"/>
       <c r="E403"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D404"/>
       <c r="E404"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D405"/>
       <c r="E405"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D406"/>
       <c r="E406"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D407"/>
       <c r="E407"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D408"/>
       <c r="E408"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D409"/>
       <c r="E409"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D410"/>
       <c r="E410"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D411"/>
       <c r="E411"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D412"/>
       <c r="E412"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D413"/>
       <c r="E413"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D414"/>
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
@@ -7793,7 +7810,7 @@
       <c r="E482"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
@@ -7804,7 +7821,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
@@ -7815,7 +7832,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
@@ -7826,7 +7843,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
@@ -7837,7 +7854,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
@@ -7848,7 +7865,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
@@ -7859,7 +7876,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
@@ -7870,7 +7887,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
@@ -7881,7 +7898,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
@@ -7890,7 +7907,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
@@ -7899,7 +7916,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
@@ -7908,7 +7925,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
@@ -7917,7 +7934,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
@@ -7925,14 +7942,14 @@
       <c r="E495"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
@@ -7940,7 +7957,7 @@
       <c r="E497"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
@@ -7948,7 +7965,7 @@
       <c r="E498"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
@@ -7956,324 +7973,324 @@
       <c r="E499"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
       <c r="D518"/>
       <c r="E518"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="16"/>
     </row>
-    <row r="580" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F580"/>
     </row>
-    <row r="581" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F581"/>
     </row>
-    <row r="582" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F582"/>
     </row>
-    <row r="583" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F583"/>
     </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F584"/>
     </row>
-    <row r="585" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F585"/>
     </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F586"/>
     </row>
-    <row r="587" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F587"/>
     </row>
-    <row r="588" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F588"/>
     </row>
-    <row r="589" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F589"/>
     </row>
-    <row r="590" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F590"/>
     </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F591"/>
     </row>
-    <row r="592" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F592"/>
     </row>
-    <row r="593" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F593"/>
     </row>
   </sheetData>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1115,32 +1115,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178:A180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>57</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>57</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>57</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>57</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>57</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2210,7 +2210,7 @@
       <c r="I40" s="2"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>59</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>59</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>59</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>59</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>59</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>55</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>55</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>55</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>55</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>55</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>55</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>56</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>56</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>56</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>56</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>56</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>56</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>60</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>60</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>60</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>60</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>60</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>60</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -2705,8 +2705,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -2720,8 +2720,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B75" s="15" t="s">
@@ -2735,8 +2735,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -2750,8 +2750,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -2765,8 +2765,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -2780,7 +2780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>63</v>
       </c>
@@ -2795,8 +2795,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B80" s="13" t="s">
@@ -2810,7 +2810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>61</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
         <v>61</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>61</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>61</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
         <v>61</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
         <v>61</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
         <v>62</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>65</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>123</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>123</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>123</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>89</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>89</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>89</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>119</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
         <v>119</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>119</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
         <v>131</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>131</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>131</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3290,8 +3290,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -3305,8 +3305,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="15" t="s">
@@ -3320,8 +3320,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B115" s="8" t="s">
@@ -3335,7 +3335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
         <v>127</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>127</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
         <v>127</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>67</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>67</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>67</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>86</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>86</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>86</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>74</v>
       </c>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="F131"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
         <v>74</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="19" t="s">
         <v>74</v>
       </c>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="19" t="s">
         <v>74</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="F134"/>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>74</v>
       </c>
@@ -3641,7 +3641,7 @@
       <c r="F135"/>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>74</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>110</v>
       </c>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>110</v>
       </c>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>113</v>
       </c>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>113</v>
       </c>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>113</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>102</v>
       </c>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="19" t="s">
         <v>102</v>
       </c>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
         <v>102</v>
       </c>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>103</v>
       </c>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>103</v>
       </c>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>103</v>
       </c>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>71</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>71</v>
       </c>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>71</v>
       </c>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>70</v>
       </c>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>70</v>
       </c>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>92</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>92</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>92</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="19" t="s">
         <v>130</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="19" t="s">
         <v>130</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="19" t="s">
         <v>130</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>78</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>78</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>78</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="19" t="s">
         <v>93</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="19" t="s">
         <v>93</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="19" t="s">
         <v>93</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="19" t="s">
         <v>94</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="19" t="s">
         <v>94</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="19" t="s">
         <v>94</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="19" t="s">
         <v>124</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="19" t="s">
         <v>124</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="19" t="s">
         <v>124</v>
       </c>
@@ -4291,8 +4291,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B178" s="7" t="s">
@@ -4306,8 +4306,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B179" s="15" t="s">
@@ -4321,8 +4321,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B180" s="8" t="s">
@@ -4336,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="19" t="s">
         <v>116</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="19" t="s">
         <v>116</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="19" t="s">
         <v>116</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="19" t="s">
         <v>117</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="19" t="s">
         <v>117</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="19" t="s">
         <v>117</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>126</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="19" t="s">
         <v>72</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="19" t="s">
         <v>72</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="19" t="s">
         <v>72</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>91</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>91</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>91</v>
       </c>
@@ -4562,8 +4562,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B196" s="7" t="s">
@@ -4577,8 +4577,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B197" s="15" t="s">
@@ -4592,8 +4592,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B198" s="8" t="s">
@@ -4607,7 +4607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>95</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>95</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>95</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
         <v>203</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="19" t="s">
         <v>203</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="19" t="s">
         <v>203</v>
       </c>
@@ -4697,8 +4697,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="19" t="s">
         <v>107</v>
       </c>
       <c r="B205" s="7" t="s">
@@ -4712,8 +4712,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="19" t="s">
         <v>107</v>
       </c>
       <c r="B206" s="15" t="s">
@@ -4727,8 +4727,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="19" t="s">
         <v>107</v>
       </c>
       <c r="B207" s="8" t="s">
@@ -4742,7 +4742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>82</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>82</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>82</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
         <v>77</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="19" t="s">
         <v>77</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
         <v>77</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>97</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>97</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>97</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>114</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>114</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>114</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>80</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>80</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>80</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>129</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>129</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>129</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>75</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>75</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>75</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
         <v>76</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="19" t="s">
         <v>76</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="19" t="s">
         <v>76</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>79</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>79</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>79</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>99</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>99</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>99</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>83</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>83</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>83</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>84</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>84</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>84</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>73</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>73</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>73</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="19" t="s">
         <v>81</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="19" t="s">
         <v>81</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="19" t="s">
         <v>81</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="19" t="s">
         <v>81</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>81</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>81</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>128</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>128</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>128</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>68</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>68</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>68</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>68</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>68</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>68</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>105</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>105</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>105</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>104</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>104</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>104</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>69</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>69</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>69</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>111</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>111</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>111</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>88</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>88</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>88</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="19" t="s">
         <v>101</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="19" t="s">
         <v>101</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="19" t="s">
         <v>101</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="19" t="s">
         <v>125</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="19" t="s">
         <v>125</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="19" t="s">
         <v>125</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -5912,8 +5912,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B286" s="7" t="s">
@@ -5927,8 +5927,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B287" s="15" t="s">
@@ -5942,8 +5942,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B288" s="8" t="s">
@@ -5957,7 +5957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="19" t="s">
         <v>66</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="19" t="s">
         <v>66</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="19" t="s">
         <v>66</v>
       </c>
@@ -6002,8 +6002,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B292" s="7" t="s">
@@ -6017,8 +6017,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B293" s="15" t="s">
@@ -6032,8 +6032,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B294" s="8" t="s">
@@ -6047,7 +6047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>87</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>87</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>87</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>100</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>100</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>100</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>85</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>85</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>85</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>120</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>120</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>120</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>145</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>133</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>139</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>146</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>143</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>142</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>147</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>136</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>134</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>137</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>138</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>141</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>132</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>140</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>144</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>197</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>186</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>187</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>188</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>191</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>181</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="19" t="s">
         <v>196</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>198</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="19" t="s">
         <v>183</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>204</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>182</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>148</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="19" t="s">
         <v>179</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="19" t="s">
         <v>180</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="19" t="s">
         <v>178</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>194</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>201</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="19" t="s">
         <v>192</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>200</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="19" t="s">
         <v>193</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="19" t="s">
         <v>176</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="19" t="s">
         <v>175</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>202</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="19" t="s">
         <v>177</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>190</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>184</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>189</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>195</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>185</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>169</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>156</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>160</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>154</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>155</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>162</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>152</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>158</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>157</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>161</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>166</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>167</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>153</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>165</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>163</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>168</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>164</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>159</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>205</v>
       </c>
@@ -7170,639 +7170,639 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D397"/>
       <c r="E397"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D398"/>
       <c r="E398"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D399"/>
       <c r="E399"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D400"/>
       <c r="E400"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D401"/>
       <c r="E401"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D402"/>
       <c r="E402"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D403"/>
       <c r="E403"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D404"/>
       <c r="E404"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D405"/>
       <c r="E405"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D406"/>
       <c r="E406"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D407"/>
       <c r="E407"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D408"/>
       <c r="E408"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D409"/>
       <c r="E409"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D410"/>
       <c r="E410"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D411"/>
       <c r="E411"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D412"/>
       <c r="E412"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D413"/>
       <c r="E413"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D414"/>
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
@@ -7810,7 +7810,7 @@
       <c r="E482"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
@@ -7821,7 +7821,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
@@ -7832,7 +7832,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
@@ -7843,7 +7843,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
@@ -7854,7 +7854,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
@@ -7865,7 +7865,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
@@ -7876,7 +7876,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
@@ -7887,7 +7887,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
@@ -7898,7 +7898,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
@@ -7907,7 +7907,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
@@ -7916,7 +7916,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
@@ -7925,7 +7925,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
@@ -7934,7 +7934,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
@@ -7942,14 +7942,14 @@
       <c r="E495"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
@@ -7957,7 +7957,7 @@
       <c r="E497"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
@@ -7965,7 +7965,7 @@
       <c r="E498"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
@@ -7973,324 +7973,324 @@
       <c r="E499"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
       <c r="D518"/>
       <c r="E518"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="16"/>
     </row>
-    <row r="580" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F580"/>
     </row>
-    <row r="581" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F581"/>
     </row>
-    <row r="582" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F582"/>
     </row>
-    <row r="583" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F583"/>
     </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F584"/>
     </row>
-    <row r="585" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F585"/>
     </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F586"/>
     </row>
-    <row r="587" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F587"/>
     </row>
-    <row r="588" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F588"/>
     </row>
-    <row r="589" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F589"/>
     </row>
-    <row r="590" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F590"/>
     </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F591"/>
     </row>
-    <row r="592" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F592"/>
     </row>
-    <row r="593" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F593"/>
     </row>
   </sheetData>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -541,9 +541,6 @@
     <t>MenuManager | OptionManager | PlayerController | GunManager | GunBaseClass | GunDelegate | DamageManager | Flashlight | EnemyManager |</t>
   </si>
   <si>
-    <t>EnemyMovement | InspectObjects | Light Flicker | (Hallucinations) | UI Manager | DoorOpenClose | AirVent | Environment Events |</t>
-  </si>
-  <si>
     <t>H_OM_01</t>
   </si>
   <si>
@@ -638,6 +635,9 @@
   </si>
   <si>
     <t>Intercom | Puzzles | MeleeCombat |</t>
+  </si>
+  <si>
+    <t>EnemyMovement | InspectObjects | Light Flicker | Hallucinations | UI Manager | DoorOpenClose | AirVent | Environment Events |</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:R593"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:A180"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>13</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" s="15" t="s">
         <v>10</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>14</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B322" s="11" t="s">
         <v>15</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B323" s="11" t="s">
         <v>15</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B324" s="11" t="s">
         <v>15</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B325" s="11" t="s">
         <v>15</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>15</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B327" s="11" t="s">
         <v>15</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B328" s="11" t="s">
         <v>15</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>15</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B330" s="11" t="s">
         <v>15</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B331" s="11" t="s">
         <v>15</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B332" s="11" t="s">
         <v>15</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B334" s="11" t="s">
         <v>15</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B335" s="11" t="s">
         <v>15</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B336" s="11" t="s">
         <v>15</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B337" s="11" t="s">
         <v>15</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B338" s="11" t="s">
         <v>15</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B339" s="11" t="s">
         <v>15</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B340" s="11" t="s">
         <v>15</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B341" s="11" t="s">
         <v>15</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B342" s="11" t="s">
         <v>15</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B343" s="11" t="s">
         <v>15</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B344" s="11" t="s">
         <v>15</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B345" s="11" t="s">
         <v>15</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B346" s="11" t="s">
         <v>15</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B347" s="11" t="s">
         <v>15</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B348" s="11" t="s">
         <v>15</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B349" s="11" t="s">
         <v>15</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B350" s="11" t="s">
         <v>15</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B369" s="11" t="s">
         <v>15</v>
